--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macroFlex-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macroFlex-macro.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="27300" windowHeight="12585" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="12585" windowWidth="27300" xWindow="0" yWindow="435"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="MacroLibrary" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="MacroLibrary" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$44</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -23,7 +23,7 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
@@ -33,7 +33,7 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -41,15 +41,15 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$33</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
+    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
+    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
+    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
+    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="617">
   <si>
     <t>description</t>
   </si>
@@ -1764,13 +1764,170 @@
   </si>
   <si>
     <t>${num1}</t>
+  </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>clearClipboard()</t>
+  </si>
+  <si>
+    <t>copyFromClipboard(var)</t>
+  </si>
+  <si>
+    <t>copyIntoClipboard(text)</t>
+  </si>
+  <si>
+    <t>waitForCondition(conditions,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitForFile(file,minFileSize,waitMs,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>combine(path,fileFilter,saveTo)</t>
+  </si>
+  <si>
+    <t>assertColumnNotPresent(column)</t>
+  </si>
+  <si>
+    <t>assertColumnPresent(column)</t>
+  </si>
+  <si>
+    <t>assertFieldMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotPresent(label)</t>
+  </si>
+  <si>
+    <t>assertFieldPresent(label)</t>
+  </si>
+  <si>
+    <t>assertKeyboardLocked()</t>
+  </si>
+  <si>
+    <t>assertKeyboardNotLocked()</t>
+  </si>
+  <si>
+    <t>assertMessageMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertMessageNotMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertScreenContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenMatch(text)</t>
+  </si>
+  <si>
+    <t>assertScreenNotContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenNotMatch(text)</t>
+  </si>
+  <si>
+    <t>assertTableMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTableNotMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTablePresent()</t>
+  </si>
+  <si>
+    <t>assertTitle(expects)</t>
+  </si>
+  <si>
+    <t>assertTitleContain(expects)</t>
+  </si>
+  <si>
+    <t>clearField(label)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>focus(label)</t>
+  </si>
+  <si>
+    <t>inspectNestedScreen(titles)</t>
+  </si>
+  <si>
+    <t>inspectScreen()</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveDisplay(var,field)</t>
+  </si>
+  <si>
+    <t>saveDisplayFields(var)</t>
+  </si>
+  <si>
+    <t>saveInputFields(var)</t>
+  </si>
+  <si>
+    <t>saveMessage(var)</t>
+  </si>
+  <si>
+    <t>saveScreenText(var)</t>
+  </si>
+  <si>
+    <t>saveTableAsCSV(csv,maxPage)</t>
+  </si>
+  <si>
+    <t>saveTableMatchCount(var,column,text)</t>
+  </si>
+  <si>
+    <t>saveTableRow(var,criteria)</t>
+  </si>
+  <si>
+    <t>type(label,text)</t>
+  </si>
+  <si>
+    <t>typeKeys(keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedRow(column,match,keystrokes)</t>
+  </si>
+  <si>
+    <t>unlockKeyboard()</t>
+  </si>
+  <si>
+    <t>moveTo(x,y)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator,removeFixed)</t>
+  </si>
+  <si>
+    <t>screenshotInFull(file,timeout,removeFixed)</t>
+  </si>
+  <si>
+    <t>waitForElementPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilDisabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilEnabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilHidden(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilVisible(locator,waitMs)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1824,8 +1981,222 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="51">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1836,6 +2207,278 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB4B4B4"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1864,88 +2507,190 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="55">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="8" fontId="10" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="11" fontId="11" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="14" fontId="12" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="17" fontId="14" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="20" fontId="16" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="23" fontId="17" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="11" fontId="18" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="14" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="26" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="14" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="23" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="41" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="44" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="47" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="38" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="50" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="38" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="47" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFB4B4B4"/>
@@ -1975,10 +2720,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2013,7 +2758,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2048,7 +2793,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2142,21 +2887,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2173,7 +2918,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2225,24 +2970,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH151"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="18" width="8.375" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2322,25 +3067,28 @@
         <v>550</v>
       </c>
       <c r="AA1" t="s">
+        <v>565</v>
+      </c>
+      <c r="AB1" t="s">
         <v>45</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>46</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>47</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>48</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>395</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>355</v>
       </c>
@@ -2420,25 +3168,28 @@
         <v>554</v>
       </c>
       <c r="AA2" t="s">
+        <v>572</v>
+      </c>
+      <c r="AB2" t="s">
         <v>87</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>160</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>165</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>172</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>412</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>439</v>
       </c>
@@ -2509,25 +3260,28 @@
         <v>555</v>
       </c>
       <c r="AA3" t="s">
+        <v>573</v>
+      </c>
+      <c r="AB3" t="s">
         <v>88</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>161</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>166</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>348</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>173</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>463</v>
       </c>
@@ -2595,25 +3349,28 @@
         <v>556</v>
       </c>
       <c r="AA4" t="s">
+        <v>574</v>
+      </c>
+      <c r="AB4" t="s">
         <v>534</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>162</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>167</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>173</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>413</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>525</v>
       </c>
@@ -2669,25 +3426,28 @@
         <v>343</v>
       </c>
       <c r="AA5" t="s">
+        <v>575</v>
+      </c>
+      <c r="AB5" t="s">
         <v>528</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>163</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>545</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>174</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>414</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2740,25 +3500,28 @@
         <v>345</v>
       </c>
       <c r="AA6" t="s">
+        <v>576</v>
+      </c>
+      <c r="AB6" t="s">
         <v>89</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>424</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>168</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>175</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>415</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -2802,25 +3565,28 @@
         <v>344</v>
       </c>
       <c r="AA7" t="s">
+        <v>577</v>
+      </c>
+      <c r="AB7" t="s">
         <v>90</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>425</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>169</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>176</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>416</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2864,25 +3630,28 @@
         <v>346</v>
       </c>
       <c r="AA8" t="s">
+        <v>578</v>
+      </c>
+      <c r="AB8" t="s">
         <v>91</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>164</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>170</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>177</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>417</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2923,19 +3692,22 @@
         <v>347</v>
       </c>
       <c r="AA9" t="s">
+        <v>579</v>
+      </c>
+      <c r="AB9" t="s">
         <v>198</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>171</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>178</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2967,19 +3739,22 @@
         <v>387</v>
       </c>
       <c r="AA10" t="s">
+        <v>580</v>
+      </c>
+      <c r="AB10" t="s">
         <v>244</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>546</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>179</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>334</v>
       </c>
@@ -3005,19 +3780,22 @@
         <v>84</v>
       </c>
       <c r="S11" t="s">
-        <v>236</v>
+        <v>571</v>
       </c>
       <c r="AA11" t="s">
+        <v>581</v>
+      </c>
+      <c r="AB11" t="s">
         <v>245</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>246</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3043,19 +3821,22 @@
         <v>33</v>
       </c>
       <c r="S12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA12" t="s">
+        <v>582</v>
+      </c>
+      <c r="AB12" t="s">
         <v>92</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>180</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>320</v>
       </c>
@@ -3081,19 +3862,22 @@
         <v>85</v>
       </c>
       <c r="S13" t="s">
-        <v>538</v>
+        <v>237</v>
       </c>
       <c r="AA13" t="s">
+        <v>583</v>
+      </c>
+      <c r="AB13" t="s">
         <v>313</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>181</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -3116,19 +3900,22 @@
         <v>86</v>
       </c>
       <c r="S14" t="s">
-        <v>242</v>
+        <v>538</v>
       </c>
       <c r="AA14" t="s">
+        <v>584</v>
+      </c>
+      <c r="AB14" t="s">
         <v>93</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>182</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>489</v>
       </c>
@@ -3151,19 +3938,22 @@
         <v>477</v>
       </c>
       <c r="S15" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AA15" t="s">
+        <v>585</v>
+      </c>
+      <c r="AB15" t="s">
         <v>557</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>183</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>243</v>
       </c>
@@ -3186,19 +3976,22 @@
         <v>478</v>
       </c>
       <c r="S16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA16" t="s">
+        <v>586</v>
+      </c>
+      <c r="AB16" t="s">
         <v>539</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>184</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>185</v>
       </c>
@@ -3215,19 +4008,22 @@
         <v>32</v>
       </c>
       <c r="S17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AA17" t="s">
+        <v>587</v>
+      </c>
+      <c r="AB17" t="s">
         <v>94</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>442</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -3243,19 +4039,25 @@
       <c r="N18" t="s">
         <v>35</v>
       </c>
+      <c r="S18" t="s">
+        <v>240</v>
+      </c>
       <c r="AA18" t="s">
+        <v>588</v>
+      </c>
+      <c r="AB18" t="s">
         <v>66</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>227</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>566</v>
       </c>
       <c r="H19" t="s">
         <v>81</v>
@@ -3264,18 +4066,21 @@
         <v>435</v>
       </c>
       <c r="AA19" t="s">
+        <v>589</v>
+      </c>
+      <c r="AB19" t="s">
         <v>479</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>567</v>
       </c>
       <c r="H20" t="s">
         <v>283</v>
@@ -3284,18 +4089,21 @@
         <v>74</v>
       </c>
       <c r="AA20" t="s">
+        <v>590</v>
+      </c>
+      <c r="AB20" t="s">
         <v>95</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>377</v>
       </c>
       <c r="F21" t="s">
-        <v>515</v>
+        <v>568</v>
       </c>
       <c r="H21" t="s">
         <v>284</v>
@@ -3304,18 +4112,21 @@
         <v>75</v>
       </c>
       <c r="AA21" t="s">
+        <v>591</v>
+      </c>
+      <c r="AB21" t="s">
         <v>96</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>393</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H22" t="s">
         <v>285</v>
@@ -3324,18 +4135,21 @@
         <v>531</v>
       </c>
       <c r="AA22" t="s">
+        <v>592</v>
+      </c>
+      <c r="AB22" t="s">
         <v>97</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>394</v>
       </c>
       <c r="F23" t="s">
-        <v>308</v>
+        <v>52</v>
       </c>
       <c r="H23" t="s">
         <v>286</v>
@@ -3344,18 +4158,21 @@
         <v>449</v>
       </c>
       <c r="AA23" t="s">
+        <v>593</v>
+      </c>
+      <c r="AB23" t="s">
         <v>98</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>341</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>515</v>
       </c>
       <c r="H24" t="s">
         <v>277</v>
@@ -3364,18 +4181,21 @@
         <v>36</v>
       </c>
       <c r="AA24" t="s">
+        <v>594</v>
+      </c>
+      <c r="AB24" t="s">
         <v>460</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>378</v>
       </c>
       <c r="F25" t="s">
-        <v>428</v>
+        <v>53</v>
       </c>
       <c r="H25" t="s">
         <v>266</v>
@@ -3384,941 +4204,1031 @@
         <v>375</v>
       </c>
       <c r="AA25" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB25" t="s">
         <v>99</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>550</v>
       </c>
       <c r="F26" t="s">
-        <v>213</v>
+        <v>308</v>
       </c>
       <c r="H26" t="s">
         <v>67</v>
       </c>
       <c r="L26" t="s">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="AA26" t="s">
+        <v>596</v>
+      </c>
+      <c r="AB26" t="s">
         <v>519</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>565</v>
       </c>
       <c r="F27" t="s">
-        <v>214</v>
+        <v>54</v>
       </c>
       <c r="H27" t="s">
         <v>269</v>
       </c>
       <c r="L27" t="s">
-        <v>76</v>
+        <v>500</v>
       </c>
       <c r="AA27" t="s">
+        <v>597</v>
+      </c>
+      <c r="AB27" t="s">
         <v>100</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="H28" t="s">
         <v>253</v>
       </c>
       <c r="L28" t="s">
-        <v>421</v>
+        <v>76</v>
       </c>
       <c r="AA28" t="s">
+        <v>598</v>
+      </c>
+      <c r="AB28" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>448</v>
+        <v>213</v>
       </c>
       <c r="H29" t="s">
         <v>270</v>
       </c>
       <c r="L29" t="s">
-        <v>37</v>
+        <v>421</v>
       </c>
       <c r="AA29" t="s">
+        <v>599</v>
+      </c>
+      <c r="AB29" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>397</v>
+        <v>214</v>
       </c>
       <c r="H30" t="s">
         <v>271</v>
       </c>
       <c r="L30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA30" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB30" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
-        <v>395</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>447</v>
       </c>
       <c r="H31" t="s">
         <v>205</v>
       </c>
+      <c r="L31" t="s">
+        <v>38</v>
+      </c>
       <c r="AA31" t="s">
+        <v>601</v>
+      </c>
+      <c r="AB31" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" t="s">
-        <v>215</v>
+        <v>395</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>448</v>
       </c>
       <c r="H32" t="s">
         <v>262</v>
       </c>
       <c r="AA32" t="s">
+        <v>602</v>
+      </c>
+      <c r="AB32" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="33">
+      <c r="A33" t="s">
+        <v>215</v>
+      </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>397</v>
       </c>
       <c r="H33" t="s">
         <v>272</v>
       </c>
       <c r="AA33" t="s">
+        <v>603</v>
+      </c>
+      <c r="AB33" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="F34" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H34" t="s">
         <v>485</v>
       </c>
       <c r="AA34" t="s">
+        <v>604</v>
+      </c>
+      <c r="AB34" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="F35" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H35" t="s">
         <v>247</v>
       </c>
       <c r="AA35" t="s">
+        <v>605</v>
+      </c>
+      <c r="AB35" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="F36" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H36" t="s">
         <v>317</v>
       </c>
       <c r="AA36" t="s">
+        <v>606</v>
+      </c>
+      <c r="AB36" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="37" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="F37" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H37" t="s">
         <v>294</v>
       </c>
       <c r="AA37" t="s">
+        <v>607</v>
+      </c>
+      <c r="AB37" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="F38" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H38" t="s">
         <v>248</v>
       </c>
       <c r="AA38" t="s">
+        <v>608</v>
+      </c>
+      <c r="AB38" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="39">
+      <c r="F39" t="s">
+        <v>60</v>
+      </c>
       <c r="H39" t="s">
         <v>295</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AB39" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="40" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="40">
+      <c r="F40" t="s">
+        <v>61</v>
+      </c>
       <c r="H40" t="s">
         <v>254</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB40" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="41">
+      <c r="F41" t="s">
+        <v>62</v>
+      </c>
       <c r="H41" t="s">
         <v>69</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="42" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="42">
+      <c r="F42" t="s">
+        <v>569</v>
+      </c>
       <c r="H42" t="s">
         <v>201</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AB42" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="43" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="H43" t="s">
         <v>516</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AB43" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="44" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="H44" t="s">
         <v>276</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AB44" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="45" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="H45" t="s">
         <v>287</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AB45" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="H46" t="s">
         <v>288</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AB46" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="H47" t="s">
         <v>330</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AB47" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="H48" t="s">
         <v>329</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AB48" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="H49" t="s">
         <v>200</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AB49" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="H50" t="s">
         <v>307</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AB50" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="H51" t="s">
         <v>326</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="AB51" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="52" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="H52" t="s">
         <v>352</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AB52" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="53" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="H53" t="s">
         <v>289</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="AB53" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="H54" t="s">
         <v>340</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AB54" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="55" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="H55" t="s">
         <v>318</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="AB55" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="H56" t="s">
         <v>255</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AB56" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="H57" t="s">
         <v>279</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="AB57" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="H58" t="s">
         <v>280</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="AB58" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="59" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="H59" t="s">
         <v>517</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AB59" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="60" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="H60" t="s">
         <v>281</v>
       </c>
-      <c r="AA60" t="s">
+      <c r="AB60" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="H61" t="s">
         <v>290</v>
       </c>
-      <c r="AA61" t="s">
+      <c r="AB61" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="62" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="H62" t="s">
         <v>299</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AB62" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="63" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="H63" t="s">
         <v>324</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="AB63" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="H64" t="s">
         <v>296</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="AB64" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="H65" t="s">
         <v>297</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="AB65" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="H66" t="s">
         <v>353</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="AB66" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="H67" t="s">
         <v>354</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AB67" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="68" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="H68" t="s">
         <v>332</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="AB68" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="69" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="H69" t="s">
         <v>300</v>
       </c>
-      <c r="AA69" t="s">
+      <c r="AB69" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="H70" t="s">
         <v>256</v>
       </c>
-      <c r="AA70" t="s">
+      <c r="AB70" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="71" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="H71" t="s">
         <v>504</v>
       </c>
-      <c r="AA71" t="s">
+      <c r="AB71" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="72" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="H72" t="s">
         <v>301</v>
       </c>
-      <c r="AA72" t="s">
+      <c r="AB72" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="73" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="H73" t="s">
         <v>391</v>
       </c>
-      <c r="AA73" t="s">
+      <c r="AB73" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="74" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="H74" t="s">
         <v>291</v>
       </c>
-      <c r="AA74" t="s">
+      <c r="AB74" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="75" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="H75" t="s">
         <v>392</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AB75" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="76" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="H76" t="s">
         <v>249</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="AB76" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="77" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="H77" t="s">
         <v>486</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="AB77" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="H78" t="s">
         <v>331</v>
       </c>
-      <c r="AA78" t="s">
+      <c r="AB78" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="79" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="H79" t="s">
         <v>267</v>
       </c>
-      <c r="AA79" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="80" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB79" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="H80" t="s">
         <v>273</v>
       </c>
-      <c r="AA80" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="81" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB80" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="H81" t="s">
         <v>278</v>
       </c>
-      <c r="AA81" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="82" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB81" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="H82" t="s">
         <v>398</v>
       </c>
-      <c r="AA82" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="83" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB82" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="H83" t="s">
         <v>319</v>
       </c>
-      <c r="AA83" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="84" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB83" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="H84" t="s">
         <v>257</v>
       </c>
-      <c r="AA84" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="85" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB84" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="H85" t="s">
         <v>268</v>
       </c>
-      <c r="AA85" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="86" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB85" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="H86" t="s">
         <v>274</v>
       </c>
-      <c r="AA86" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="87" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB86" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="H87" t="s">
         <v>263</v>
       </c>
-      <c r="AA87" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="88" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB87" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="H88" t="s">
         <v>505</v>
       </c>
-      <c r="AA88" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="89" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB88" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="H89" t="s">
         <v>258</v>
       </c>
-      <c r="AA89" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="90" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB89" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="H90" t="s">
         <v>275</v>
       </c>
-      <c r="AA90" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="91" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB90" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="H91" t="s">
         <v>259</v>
       </c>
-      <c r="AA91" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="92" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB91" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="H92" t="s">
         <v>260</v>
       </c>
-      <c r="AA92" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="93" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB92" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="H93" t="s">
         <v>292</v>
       </c>
-      <c r="AA93" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="94" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB93" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="H94" t="s">
         <v>298</v>
       </c>
-      <c r="AA94" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="95" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB94" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="H95" t="s">
         <v>282</v>
       </c>
-      <c r="AA95" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="96" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB95" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="H96" t="s">
         <v>327</v>
       </c>
-      <c r="AA96" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="97" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB96" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97">
       <c r="H97" t="s">
         <v>264</v>
       </c>
-      <c r="AA97" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="98" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB97" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="98">
       <c r="H98" t="s">
         <v>265</v>
       </c>
-      <c r="AA98" t="s">
+      <c r="AB98" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="AB99" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="99" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA99" t="s">
+    <row r="100">
+      <c r="AB100" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="100" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA100" t="s">
+    <row r="101">
+      <c r="AB101" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="101" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA101" t="s">
+    <row r="102">
+      <c r="AB102" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="102" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA102" t="s">
+    <row r="103">
+      <c r="AB103" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="103" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA103" t="s">
+    <row r="104">
+      <c r="AB104" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="104" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA104" t="s">
+    <row r="105">
+      <c r="AB105" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="105" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA105" t="s">
+    <row r="106">
+      <c r="AB106" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="106" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA106" t="s">
+    <row r="107">
+      <c r="AB107" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="107" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA107" t="s">
+    <row r="108">
+      <c r="AB108" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="108" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA108" t="s">
+    <row r="109">
+      <c r="AB109" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="109" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA109" t="s">
+    <row r="110">
+      <c r="AB110" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="110" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA110" t="s">
+    <row r="111">
+      <c r="AB111" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="111" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA111" t="s">
+    <row r="112">
+      <c r="AB112" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="112" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA112" t="s">
+    <row r="113">
+      <c r="AB113" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="113" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA113" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="114" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA114" t="s">
+    <row r="114">
+      <c r="AB114" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="AB115" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="AB116" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="115" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA115" t="s">
+    <row r="117">
+      <c r="AB117" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="116" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA116" t="s">
+    <row r="118">
+      <c r="AB118" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="117" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA117" t="s">
+    <row r="119">
+      <c r="AB119" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="118" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA118" t="s">
+    <row r="120">
+      <c r="AB120" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="119" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA119" t="s">
+    <row r="121">
+      <c r="AB121" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="120" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA120" t="s">
+    <row r="122">
+      <c r="AB122" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="121" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA121" t="s">
+    <row r="123">
+      <c r="AB123" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="122" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA122" t="s">
+    <row r="124">
+      <c r="AB124" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="123" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA123" t="s">
+    <row r="125">
+      <c r="AB125" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="124" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA124" t="s">
+    <row r="126">
+      <c r="AB126" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="125" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA125" t="s">
+    <row r="127">
+      <c r="AB127" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="126" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA126" t="s">
+    <row r="128">
+      <c r="AB128" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="127" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA127" t="s">
+    <row r="129">
+      <c r="AB129" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="128" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA128" t="s">
+    <row r="130">
+      <c r="AB130" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="129" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA129" t="s">
+    <row r="131">
+      <c r="AB131" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="130" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA130" t="s">
+    <row r="132">
+      <c r="AB132" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="131" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA131" t="s">
+    <row r="133">
+      <c r="AB133" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="132" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA132" t="s">
+    <row r="134">
+      <c r="AB134" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="133" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA133" t="s">
+    <row r="135">
+      <c r="AB135" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="134" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA134" t="s">
+    <row r="136">
+      <c r="AB136" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="135" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA135" t="s">
+    <row r="137">
+      <c r="AB137" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="136" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA136" t="s">
+    <row r="138">
+      <c r="AB138" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="137" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA137" t="s">
+    <row r="139">
+      <c r="AB139" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="138" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA138" t="s">
+    <row r="140">
+      <c r="AB140" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="139" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA139" t="s">
+    <row r="141">
+      <c r="AB141" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="140" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA140" t="s">
+    <row r="142">
+      <c r="AB142" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="141" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA141" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="142" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA142" t="s">
+    <row r="143">
+      <c r="AB143" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="AB144" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="143" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA143" t="s">
+    <row r="145">
+      <c r="AB145" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="144" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA144" t="s">
+    <row r="146">
+      <c r="AB146" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="145" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA145" t="s">
+    <row r="147">
+      <c r="AB147" t="s">
         <v>159</v>
       </c>
     </row>
+    <row r="148">
+      <c r="AB148" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="AB149" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="AB150" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="AB151" t="s">
+        <v>616</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L992"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M992"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD7"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="A2" pane="bottomLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="20" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.875" style="12" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.5" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="18.375" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="27.625" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="10" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="14" customWidth="1" collapsed="1"/>
-    <col min="13" max="16384" width="10.875" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="20" width="9.75" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="11.625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="12" width="10.875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="22.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="19.125" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="9" width="18.375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="16" width="27.625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="14" width="12.0" collapsed="true"/>
+    <col min="13" max="16384" style="3" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="1" s="5" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>243</v>
       </c>
@@ -4354,7 +5264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18" r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>562</v>
       </c>
@@ -4378,7 +5288,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="13"/>
     </row>
-    <row r="3" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="4"/>
       <c r="C3" s="11" t="s">
@@ -4400,7 +5310,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="13"/>
     </row>
-    <row r="4" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="4"/>
       <c r="C4" s="11"/>
@@ -4414,7 +5324,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="13"/>
     </row>
-    <row r="5" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="4"/>
       <c r="C5" s="11"/>
@@ -4428,7 +5338,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="4"/>
       <c r="C6" s="11"/>
@@ -4442,7 +5352,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="4"/>
       <c r="C7" s="11"/>
@@ -4456,7 +5366,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="4"/>
       <c r="C8" s="11"/>
@@ -4470,7 +5380,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="4"/>
       <c r="C9" s="11"/>
@@ -4484,7 +5394,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="4"/>
       <c r="C10" s="11"/>
@@ -4498,7 +5408,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="4"/>
       <c r="C11" s="11"/>
@@ -4512,7 +5422,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="13"/>
     </row>
-    <row r="12" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="4"/>
       <c r="C12" s="11"/>
@@ -4526,7 +5436,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="13"/>
     </row>
-    <row r="13" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="4"/>
       <c r="C13" s="11"/>
@@ -4540,7 +5450,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="13"/>
     </row>
-    <row r="14" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="4"/>
       <c r="C14" s="11"/>
@@ -4554,7 +5464,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="13"/>
     </row>
-    <row r="15" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="4"/>
       <c r="C15" s="11"/>
@@ -4568,7 +5478,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="13"/>
     </row>
-    <row r="16" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="4"/>
       <c r="C16" s="11"/>
@@ -4582,7 +5492,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="13"/>
     </row>
-    <row r="17" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="4"/>
       <c r="C17" s="11"/>
@@ -4596,7 +5506,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="13"/>
     </row>
-    <row r="18" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="4"/>
       <c r="C18" s="11"/>
@@ -4610,7 +5520,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="4"/>
       <c r="C19" s="11"/>
@@ -4624,7 +5534,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="13"/>
     </row>
-    <row r="20" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="7"/>
       <c r="C20" s="11"/>
@@ -4638,7 +5548,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="13"/>
     </row>
-    <row r="21" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="4"/>
       <c r="C21" s="11"/>
@@ -4652,7 +5562,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="13"/>
     </row>
-    <row r="22" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="4"/>
       <c r="C22" s="11"/>
@@ -4666,7 +5576,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="13"/>
     </row>
-    <row r="23" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="4"/>
       <c r="C23" s="11"/>
@@ -4680,7 +5590,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="13"/>
     </row>
-    <row r="24" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="4"/>
       <c r="C24" s="11"/>
@@ -4694,7 +5604,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="13"/>
     </row>
-    <row r="25" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="4"/>
       <c r="C25" s="11"/>
@@ -4708,7 +5618,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="13"/>
     </row>
-    <row r="26" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="4"/>
       <c r="C26" s="11"/>
@@ -4722,7 +5632,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="13"/>
     </row>
-    <row r="27" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="4"/>
       <c r="C27" s="11"/>
@@ -4736,7 +5646,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="13"/>
     </row>
-    <row r="28" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" s="4"/>
       <c r="C28" s="11"/>
@@ -4750,7 +5660,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="13"/>
     </row>
-    <row r="29" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
       <c r="B29" s="4"/>
       <c r="C29" s="11"/>
@@ -4764,7 +5674,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="13"/>
     </row>
-    <row r="30" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
       <c r="B30" s="4"/>
       <c r="C30" s="11"/>
@@ -4778,7 +5688,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="13"/>
     </row>
-    <row r="31" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
       <c r="B31" s="4"/>
       <c r="C31" s="11"/>
@@ -4792,7 +5702,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="13"/>
     </row>
-    <row r="32" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
       <c r="B32" s="4"/>
       <c r="C32" s="11"/>
@@ -4806,7 +5716,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="13"/>
     </row>
-    <row r="33" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
       <c r="B33" s="4"/>
       <c r="C33" s="11"/>
@@ -4820,7 +5730,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="13"/>
     </row>
-    <row r="34" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
       <c r="B34" s="4"/>
       <c r="C34" s="11"/>
@@ -4834,7 +5744,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="13"/>
     </row>
-    <row r="35" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
       <c r="B35" s="4"/>
       <c r="C35" s="11"/>
@@ -4848,7 +5758,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="13"/>
     </row>
-    <row r="36" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
       <c r="B36" s="4"/>
       <c r="C36" s="11"/>
@@ -4862,7 +5772,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="13"/>
     </row>
-    <row r="37" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="19"/>
       <c r="B37" s="4"/>
       <c r="C37" s="11"/>
@@ -4876,7 +5786,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="13"/>
     </row>
-    <row r="38" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
       <c r="B38" s="4"/>
       <c r="C38" s="11"/>
@@ -4890,7 +5800,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="13"/>
     </row>
-    <row r="39" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="19"/>
       <c r="B39" s="4"/>
       <c r="C39" s="11"/>
@@ -4904,7 +5814,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="13"/>
     </row>
-    <row r="40" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="19"/>
       <c r="B40" s="4"/>
       <c r="C40" s="11"/>
@@ -4918,7 +5828,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="13"/>
     </row>
-    <row r="41" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="19"/>
       <c r="B41" s="4"/>
       <c r="C41" s="11"/>
@@ -4932,7 +5842,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="13"/>
     </row>
-    <row r="42" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="19"/>
       <c r="B42" s="4"/>
       <c r="C42" s="11"/>
@@ -4946,7 +5856,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="13"/>
     </row>
-    <row r="43" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
       <c r="B43" s="4"/>
       <c r="C43" s="11"/>
@@ -4960,7 +5870,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="13"/>
     </row>
-    <row r="44" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="19"/>
       <c r="B44" s="4"/>
       <c r="C44" s="11"/>
@@ -4974,7 +5884,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="13"/>
     </row>
-    <row r="45" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
       <c r="B45" s="4"/>
       <c r="C45" s="11"/>
@@ -4988,7 +5898,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="13"/>
     </row>
-    <row r="46" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
       <c r="B46" s="4"/>
       <c r="C46" s="11"/>
@@ -5002,7 +5912,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="13"/>
     </row>
-    <row r="47" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
       <c r="B47" s="4"/>
       <c r="C47" s="11"/>
@@ -5016,7 +5926,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="13"/>
     </row>
-    <row r="48" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="19"/>
       <c r="B48" s="4"/>
       <c r="C48" s="11"/>
@@ -5030,7 +5940,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="13"/>
     </row>
-    <row r="49" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="19"/>
       <c r="B49" s="4"/>
       <c r="C49" s="11"/>
@@ -5044,7 +5954,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="13"/>
     </row>
-    <row r="50" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
       <c r="B50" s="4"/>
       <c r="C50" s="11"/>
@@ -5058,7 +5968,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="13"/>
     </row>
-    <row r="51" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="19"/>
       <c r="B51" s="4"/>
       <c r="C51" s="11"/>
@@ -5072,7 +5982,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="13"/>
     </row>
-    <row r="52" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="19"/>
       <c r="B52" s="4"/>
       <c r="C52" s="11"/>
@@ -5086,7 +5996,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="13"/>
     </row>
-    <row r="53" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
       <c r="B53" s="4"/>
       <c r="C53" s="11"/>
@@ -5100,7 +6010,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="13"/>
     </row>
-    <row r="54" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="19"/>
       <c r="B54" s="4"/>
       <c r="C54" s="11"/>
@@ -5114,7 +6024,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="13"/>
     </row>
-    <row r="55" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="19"/>
       <c r="B55" s="4"/>
       <c r="C55" s="11"/>
@@ -5128,7 +6038,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="13"/>
     </row>
-    <row r="56" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="19"/>
       <c r="B56" s="4"/>
       <c r="C56" s="11"/>
@@ -5142,7 +6052,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="13"/>
     </row>
-    <row r="57" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="19"/>
       <c r="B57" s="4"/>
       <c r="C57" s="11"/>
@@ -5156,7 +6066,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="13"/>
     </row>
-    <row r="58" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="19"/>
       <c r="B58" s="4"/>
       <c r="C58" s="11"/>
@@ -5170,7 +6080,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="13"/>
     </row>
-    <row r="59" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="19"/>
       <c r="B59" s="4"/>
       <c r="C59" s="11"/>
@@ -5184,7 +6094,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="13"/>
     </row>
-    <row r="60" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="19"/>
       <c r="B60" s="4"/>
       <c r="C60" s="11"/>
@@ -5198,7 +6108,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="13"/>
     </row>
-    <row r="61" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="19"/>
       <c r="B61" s="4"/>
       <c r="C61" s="11"/>
@@ -5212,7 +6122,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="13"/>
     </row>
-    <row r="62" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="19"/>
       <c r="B62" s="4"/>
       <c r="C62" s="11"/>
@@ -5226,7 +6136,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="13"/>
     </row>
-    <row r="63" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="19"/>
       <c r="B63" s="4"/>
       <c r="C63" s="11"/>
@@ -5240,7 +6150,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="13"/>
     </row>
-    <row r="64" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="19"/>
       <c r="B64" s="4"/>
       <c r="C64" s="11"/>
@@ -5254,7 +6164,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="13"/>
     </row>
-    <row r="65" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="19"/>
       <c r="B65" s="4"/>
       <c r="C65" s="11"/>
@@ -5268,7 +6178,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="13"/>
     </row>
-    <row r="66" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="19"/>
       <c r="B66" s="4"/>
       <c r="C66" s="11"/>
@@ -5282,7 +6192,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="13"/>
     </row>
-    <row r="67" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="19"/>
       <c r="B67" s="4"/>
       <c r="C67" s="11"/>
@@ -5296,7 +6206,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="13"/>
     </row>
-    <row r="68" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="19"/>
       <c r="B68" s="4"/>
       <c r="C68" s="11"/>
@@ -5310,7 +6220,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="13"/>
     </row>
-    <row r="69" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="19"/>
       <c r="B69" s="4"/>
       <c r="C69" s="11"/>
@@ -5324,7 +6234,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="13"/>
     </row>
-    <row r="70" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="19"/>
       <c r="B70" s="4"/>
       <c r="C70" s="11"/>
@@ -5338,7 +6248,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="13"/>
     </row>
-    <row r="71" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="19"/>
       <c r="B71" s="4"/>
       <c r="C71" s="11"/>
@@ -5352,7 +6262,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="13"/>
     </row>
-    <row r="72" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="19"/>
       <c r="B72" s="4"/>
       <c r="C72" s="11"/>
@@ -5366,7 +6276,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="13"/>
     </row>
-    <row r="73" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="19"/>
       <c r="B73" s="4"/>
       <c r="C73" s="11"/>
@@ -5380,7 +6290,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="13"/>
     </row>
-    <row r="74" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="19"/>
       <c r="B74" s="4"/>
       <c r="C74" s="11"/>
@@ -5394,7 +6304,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="13"/>
     </row>
-    <row r="75" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="19"/>
       <c r="B75" s="4"/>
       <c r="C75" s="11"/>
@@ -5408,7 +6318,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="13"/>
     </row>
-    <row r="76" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="19"/>
       <c r="B76" s="4"/>
       <c r="C76" s="11"/>
@@ -5422,7 +6332,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="13"/>
     </row>
-    <row r="77" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="19"/>
       <c r="B77" s="4"/>
       <c r="C77" s="11"/>
@@ -5436,7 +6346,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="13"/>
     </row>
-    <row r="78" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="19"/>
       <c r="B78" s="4"/>
       <c r="C78" s="11"/>
@@ -5450,7 +6360,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="13"/>
     </row>
-    <row r="79" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="19"/>
       <c r="B79" s="4"/>
       <c r="C79" s="11"/>
@@ -5464,7 +6374,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="13"/>
     </row>
-    <row r="80" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="19"/>
       <c r="B80" s="4"/>
       <c r="C80" s="11"/>
@@ -5478,7 +6388,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="13"/>
     </row>
-    <row r="81" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="19"/>
       <c r="B81" s="4"/>
       <c r="C81" s="11"/>
@@ -5492,7 +6402,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="13"/>
     </row>
-    <row r="82" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="19"/>
       <c r="B82" s="4"/>
       <c r="C82" s="11"/>
@@ -5506,7 +6416,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="13"/>
     </row>
-    <row r="83" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="19"/>
       <c r="B83" s="4"/>
       <c r="C83" s="11"/>
@@ -5520,7 +6430,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="13"/>
     </row>
-    <row r="84" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="19"/>
       <c r="B84" s="4"/>
       <c r="C84" s="11"/>
@@ -5534,7 +6444,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="13"/>
     </row>
-    <row r="85" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="19"/>
       <c r="B85" s="4"/>
       <c r="C85" s="11"/>
@@ -5548,7 +6458,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="13"/>
     </row>
-    <row r="86" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="19"/>
       <c r="B86" s="4"/>
       <c r="C86" s="11"/>
@@ -5562,7 +6472,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="13"/>
     </row>
-    <row r="87" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="19"/>
       <c r="B87" s="4"/>
       <c r="C87" s="11"/>
@@ -5576,7 +6486,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="13"/>
     </row>
-    <row r="88" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="19"/>
       <c r="B88" s="4"/>
       <c r="C88" s="11"/>
@@ -5590,7 +6500,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="13"/>
     </row>
-    <row r="89" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="19"/>
       <c r="B89" s="4"/>
       <c r="C89" s="11"/>
@@ -5604,7 +6514,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="13"/>
     </row>
-    <row r="90" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="19"/>
       <c r="B90" s="4"/>
       <c r="C90" s="11"/>
@@ -5618,7 +6528,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="13"/>
     </row>
-    <row r="91" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="19"/>
       <c r="B91" s="4"/>
       <c r="C91" s="11"/>
@@ -5632,7 +6542,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="13"/>
     </row>
-    <row r="92" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="19"/>
       <c r="B92" s="4"/>
       <c r="C92" s="11"/>
@@ -5646,7 +6556,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="13"/>
     </row>
-    <row r="93" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="19"/>
       <c r="B93" s="4"/>
       <c r="C93" s="11"/>
@@ -5660,7 +6570,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="13"/>
     </row>
-    <row r="94" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="19"/>
       <c r="B94" s="4"/>
       <c r="C94" s="11"/>
@@ -5674,7 +6584,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="13"/>
     </row>
-    <row r="95" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="19"/>
       <c r="B95" s="4"/>
       <c r="C95" s="11"/>
@@ -5688,7 +6598,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="13"/>
     </row>
-    <row r="96" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="19"/>
       <c r="B96" s="4"/>
       <c r="C96" s="11"/>
@@ -5702,7 +6612,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="13"/>
     </row>
-    <row r="97" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="19"/>
       <c r="B97" s="4"/>
       <c r="C97" s="11"/>
@@ -5716,7 +6626,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="13"/>
     </row>
-    <row r="98" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="19"/>
       <c r="B98" s="4"/>
       <c r="C98" s="11"/>
@@ -5730,7 +6640,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="13"/>
     </row>
-    <row r="99" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="19"/>
       <c r="B99" s="4"/>
       <c r="C99" s="11"/>
@@ -5744,7 +6654,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="13"/>
     </row>
-    <row r="100" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="19"/>
       <c r="B100" s="4"/>
       <c r="C100" s="11"/>
@@ -5758,7 +6668,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="13"/>
     </row>
-    <row r="101" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="19"/>
       <c r="B101" s="4"/>
       <c r="C101" s="11"/>
@@ -5772,7 +6682,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="13"/>
     </row>
-    <row r="102" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="19"/>
       <c r="B102" s="4"/>
       <c r="C102" s="11"/>
@@ -5786,7 +6696,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="13"/>
     </row>
-    <row r="103" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="19"/>
       <c r="B103" s="4"/>
       <c r="C103" s="11"/>
@@ -5800,7 +6710,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="13"/>
     </row>
-    <row r="104" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="19"/>
       <c r="B104" s="4"/>
       <c r="C104" s="11"/>
@@ -5814,7 +6724,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="13"/>
     </row>
-    <row r="105" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="19"/>
       <c r="B105" s="4"/>
       <c r="C105" s="11"/>
@@ -5828,7 +6738,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="13"/>
     </row>
-    <row r="106" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="19"/>
       <c r="B106" s="4"/>
       <c r="C106" s="11"/>
@@ -5842,7 +6752,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="13"/>
     </row>
-    <row r="107" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="19"/>
       <c r="B107" s="4"/>
       <c r="C107" s="11"/>
@@ -5856,7 +6766,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="13"/>
     </row>
-    <row r="108" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="19"/>
       <c r="B108" s="4"/>
       <c r="C108" s="11"/>
@@ -5870,7 +6780,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="13"/>
     </row>
-    <row r="109" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="19"/>
       <c r="B109" s="4"/>
       <c r="C109" s="11"/>
@@ -5884,7 +6794,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="13"/>
     </row>
-    <row r="110" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="19"/>
       <c r="B110" s="4"/>
       <c r="C110" s="11"/>
@@ -5898,7 +6808,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="13"/>
     </row>
-    <row r="111" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="19"/>
       <c r="B111" s="4"/>
       <c r="C111" s="11"/>
@@ -5912,7 +6822,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="13"/>
     </row>
-    <row r="112" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="19"/>
       <c r="B112" s="4"/>
       <c r="C112" s="11"/>
@@ -5926,7 +6836,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="13"/>
     </row>
-    <row r="113" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="19"/>
       <c r="B113" s="4"/>
       <c r="C113" s="11"/>
@@ -5940,7 +6850,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="13"/>
     </row>
-    <row r="114" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="19"/>
       <c r="B114" s="4"/>
       <c r="C114" s="11"/>
@@ -5954,7 +6864,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="13"/>
     </row>
-    <row r="115" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="19"/>
       <c r="B115" s="4"/>
       <c r="C115" s="11"/>
@@ -5968,7 +6878,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="13"/>
     </row>
-    <row r="116" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="19"/>
       <c r="B116" s="4"/>
       <c r="C116" s="11"/>
@@ -5982,7 +6892,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="13"/>
     </row>
-    <row r="117" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="19"/>
       <c r="B117" s="4"/>
       <c r="C117" s="11"/>
@@ -5996,7 +6906,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="13"/>
     </row>
-    <row r="118" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="19"/>
       <c r="B118" s="4"/>
       <c r="C118" s="11"/>
@@ -6010,7 +6920,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="13"/>
     </row>
-    <row r="119" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="19"/>
       <c r="B119" s="4"/>
       <c r="C119" s="11"/>
@@ -6024,7 +6934,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="13"/>
     </row>
-    <row r="120" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="19"/>
       <c r="B120" s="4"/>
       <c r="C120" s="11"/>
@@ -6038,7 +6948,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="13"/>
     </row>
-    <row r="121" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="19"/>
       <c r="B121" s="4"/>
       <c r="C121" s="11"/>
@@ -6052,7 +6962,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="13"/>
     </row>
-    <row r="122" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="19"/>
       <c r="B122" s="4"/>
       <c r="C122" s="11"/>
@@ -6066,7 +6976,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="13"/>
     </row>
-    <row r="123" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="19"/>
       <c r="B123" s="4"/>
       <c r="C123" s="11"/>
@@ -6080,7 +6990,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="13"/>
     </row>
-    <row r="124" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="19"/>
       <c r="B124" s="4"/>
       <c r="C124" s="11"/>
@@ -6094,7 +7004,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="13"/>
     </row>
-    <row r="125" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="19"/>
       <c r="B125" s="4"/>
       <c r="C125" s="11"/>
@@ -6108,7 +7018,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="13"/>
     </row>
-    <row r="126" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="19"/>
       <c r="B126" s="4"/>
       <c r="C126" s="11"/>
@@ -6122,7 +7032,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="13"/>
     </row>
-    <row r="127" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="19"/>
       <c r="B127" s="4"/>
       <c r="C127" s="11"/>
@@ -6136,7 +7046,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="13"/>
     </row>
-    <row r="128" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="19"/>
       <c r="B128" s="4"/>
       <c r="C128" s="11"/>
@@ -6150,7 +7060,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="13"/>
     </row>
-    <row r="129" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="19"/>
       <c r="B129" s="4"/>
       <c r="C129" s="11"/>
@@ -6164,7 +7074,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="13"/>
     </row>
-    <row r="130" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="19"/>
       <c r="B130" s="4"/>
       <c r="C130" s="11"/>
@@ -6178,7 +7088,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="13"/>
     </row>
-    <row r="131" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="19"/>
       <c r="B131" s="4"/>
       <c r="C131" s="11"/>
@@ -6192,7 +7102,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="13"/>
     </row>
-    <row r="132" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="19"/>
       <c r="B132" s="4"/>
       <c r="C132" s="11"/>
@@ -6206,7 +7116,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="13"/>
     </row>
-    <row r="133" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="19"/>
       <c r="B133" s="4"/>
       <c r="C133" s="11"/>
@@ -6220,7 +7130,7 @@
       <c r="K133" s="2"/>
       <c r="L133" s="13"/>
     </row>
-    <row r="134" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="19"/>
       <c r="B134" s="4"/>
       <c r="C134" s="11"/>
@@ -6234,7 +7144,7 @@
       <c r="K134" s="2"/>
       <c r="L134" s="13"/>
     </row>
-    <row r="135" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="19"/>
       <c r="B135" s="4"/>
       <c r="C135" s="11"/>
@@ -6248,7 +7158,7 @@
       <c r="K135" s="2"/>
       <c r="L135" s="13"/>
     </row>
-    <row r="136" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="19"/>
       <c r="B136" s="4"/>
       <c r="C136" s="11"/>
@@ -6262,7 +7172,7 @@
       <c r="K136" s="2"/>
       <c r="L136" s="13"/>
     </row>
-    <row r="137" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="19"/>
       <c r="B137" s="4"/>
       <c r="C137" s="11"/>
@@ -6276,7 +7186,7 @@
       <c r="K137" s="2"/>
       <c r="L137" s="13"/>
     </row>
-    <row r="138" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="19"/>
       <c r="B138" s="4"/>
       <c r="C138" s="11"/>
@@ -6290,7 +7200,7 @@
       <c r="K138" s="2"/>
       <c r="L138" s="13"/>
     </row>
-    <row r="139" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="19"/>
       <c r="B139" s="4"/>
       <c r="C139" s="11"/>
@@ -6304,7 +7214,7 @@
       <c r="K139" s="2"/>
       <c r="L139" s="13"/>
     </row>
-    <row r="140" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="19"/>
       <c r="B140" s="4"/>
       <c r="C140" s="11"/>
@@ -6318,7 +7228,7 @@
       <c r="K140" s="2"/>
       <c r="L140" s="13"/>
     </row>
-    <row r="141" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="19"/>
       <c r="B141" s="4"/>
       <c r="C141" s="11"/>
@@ -6332,7 +7242,7 @@
       <c r="K141" s="2"/>
       <c r="L141" s="13"/>
     </row>
-    <row r="142" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="19"/>
       <c r="B142" s="4"/>
       <c r="C142" s="11"/>
@@ -6346,7 +7256,7 @@
       <c r="K142" s="2"/>
       <c r="L142" s="13"/>
     </row>
-    <row r="143" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="19"/>
       <c r="B143" s="4"/>
       <c r="C143" s="11"/>
@@ -6360,7 +7270,7 @@
       <c r="K143" s="2"/>
       <c r="L143" s="13"/>
     </row>
-    <row r="144" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="19"/>
       <c r="B144" s="4"/>
       <c r="C144" s="11"/>
@@ -6374,7 +7284,7 @@
       <c r="K144" s="2"/>
       <c r="L144" s="13"/>
     </row>
-    <row r="145" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="19"/>
       <c r="B145" s="4"/>
       <c r="C145" s="11"/>
@@ -6388,7 +7298,7 @@
       <c r="K145" s="2"/>
       <c r="L145" s="13"/>
     </row>
-    <row r="146" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="19"/>
       <c r="B146" s="4"/>
       <c r="C146" s="11"/>
@@ -6402,7 +7312,7 @@
       <c r="K146" s="2"/>
       <c r="L146" s="13"/>
     </row>
-    <row r="147" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="19"/>
       <c r="B147" s="4"/>
       <c r="C147" s="11"/>
@@ -6416,7 +7326,7 @@
       <c r="K147" s="2"/>
       <c r="L147" s="13"/>
     </row>
-    <row r="148" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="19"/>
       <c r="B148" s="4"/>
       <c r="C148" s="11"/>
@@ -6430,7 +7340,7 @@
       <c r="K148" s="2"/>
       <c r="L148" s="13"/>
     </row>
-    <row r="149" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="19"/>
       <c r="B149" s="4"/>
       <c r="C149" s="11"/>
@@ -6444,7 +7354,7 @@
       <c r="K149" s="2"/>
       <c r="L149" s="13"/>
     </row>
-    <row r="150" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="19"/>
       <c r="B150" s="4"/>
       <c r="C150" s="11"/>
@@ -6458,7 +7368,7 @@
       <c r="K150" s="2"/>
       <c r="L150" s="13"/>
     </row>
-    <row r="151" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="19"/>
       <c r="B151" s="4"/>
       <c r="C151" s="11"/>
@@ -6472,7 +7382,7 @@
       <c r="K151" s="2"/>
       <c r="L151" s="13"/>
     </row>
-    <row r="152" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="19"/>
       <c r="B152" s="4"/>
       <c r="C152" s="11"/>
@@ -6486,7 +7396,7 @@
       <c r="K152" s="2"/>
       <c r="L152" s="13"/>
     </row>
-    <row r="153" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="19"/>
       <c r="B153" s="4"/>
       <c r="C153" s="11"/>
@@ -6500,7 +7410,7 @@
       <c r="K153" s="2"/>
       <c r="L153" s="13"/>
     </row>
-    <row r="154" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="19"/>
       <c r="B154" s="4"/>
       <c r="C154" s="11"/>
@@ -6514,7 +7424,7 @@
       <c r="K154" s="2"/>
       <c r="L154" s="13"/>
     </row>
-    <row r="155" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="19"/>
       <c r="B155" s="4"/>
       <c r="C155" s="11"/>
@@ -6528,7 +7438,7 @@
       <c r="K155" s="2"/>
       <c r="L155" s="13"/>
     </row>
-    <row r="156" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="19"/>
       <c r="B156" s="4"/>
       <c r="C156" s="11"/>
@@ -6542,7 +7452,7 @@
       <c r="K156" s="2"/>
       <c r="L156" s="13"/>
     </row>
-    <row r="157" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="19"/>
       <c r="B157" s="4"/>
       <c r="C157" s="11"/>
@@ -6556,7 +7466,7 @@
       <c r="K157" s="2"/>
       <c r="L157" s="13"/>
     </row>
-    <row r="158" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="19"/>
       <c r="B158" s="4"/>
       <c r="C158" s="11"/>
@@ -6570,7 +7480,7 @@
       <c r="K158" s="2"/>
       <c r="L158" s="13"/>
     </row>
-    <row r="159" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="19"/>
       <c r="B159" s="4"/>
       <c r="C159" s="11"/>
@@ -6584,7 +7494,7 @@
       <c r="K159" s="2"/>
       <c r="L159" s="13"/>
     </row>
-    <row r="160" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="19"/>
       <c r="B160" s="4"/>
       <c r="C160" s="11"/>
@@ -6598,7 +7508,7 @@
       <c r="K160" s="2"/>
       <c r="L160" s="13"/>
     </row>
-    <row r="161" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="19"/>
       <c r="B161" s="4"/>
       <c r="C161" s="11"/>
@@ -6612,7 +7522,7 @@
       <c r="K161" s="2"/>
       <c r="L161" s="13"/>
     </row>
-    <row r="162" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="19"/>
       <c r="B162" s="4"/>
       <c r="C162" s="11"/>
@@ -6626,7 +7536,7 @@
       <c r="K162" s="2"/>
       <c r="L162" s="13"/>
     </row>
-    <row r="163" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="19"/>
       <c r="B163" s="4"/>
       <c r="C163" s="11"/>
@@ -6640,7 +7550,7 @@
       <c r="K163" s="2"/>
       <c r="L163" s="13"/>
     </row>
-    <row r="164" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="19"/>
       <c r="B164" s="4"/>
       <c r="C164" s="11"/>
@@ -6654,7 +7564,7 @@
       <c r="K164" s="2"/>
       <c r="L164" s="13"/>
     </row>
-    <row r="165" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="19"/>
       <c r="B165" s="4"/>
       <c r="C165" s="11"/>
@@ -6668,7 +7578,7 @@
       <c r="K165" s="2"/>
       <c r="L165" s="13"/>
     </row>
-    <row r="166" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="19"/>
       <c r="B166" s="4"/>
       <c r="C166" s="11"/>
@@ -6682,7 +7592,7 @@
       <c r="K166" s="2"/>
       <c r="L166" s="13"/>
     </row>
-    <row r="167" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="19"/>
       <c r="B167" s="4"/>
       <c r="C167" s="11"/>
@@ -6696,7 +7606,7 @@
       <c r="K167" s="2"/>
       <c r="L167" s="13"/>
     </row>
-    <row r="168" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="19"/>
       <c r="B168" s="4"/>
       <c r="C168" s="11"/>
@@ -6710,7 +7620,7 @@
       <c r="K168" s="2"/>
       <c r="L168" s="13"/>
     </row>
-    <row r="169" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="19"/>
       <c r="B169" s="4"/>
       <c r="C169" s="11"/>
@@ -6724,7 +7634,7 @@
       <c r="K169" s="2"/>
       <c r="L169" s="13"/>
     </row>
-    <row r="170" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="19"/>
       <c r="B170" s="4"/>
       <c r="C170" s="11"/>
@@ -6738,7 +7648,7 @@
       <c r="K170" s="2"/>
       <c r="L170" s="13"/>
     </row>
-    <row r="171" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="19"/>
       <c r="B171" s="4"/>
       <c r="C171" s="11"/>
@@ -6752,7 +7662,7 @@
       <c r="K171" s="2"/>
       <c r="L171" s="13"/>
     </row>
-    <row r="172" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="19"/>
       <c r="B172" s="4"/>
       <c r="C172" s="11"/>
@@ -6766,7 +7676,7 @@
       <c r="K172" s="2"/>
       <c r="L172" s="13"/>
     </row>
-    <row r="173" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="19"/>
       <c r="B173" s="4"/>
       <c r="C173" s="11"/>
@@ -6780,7 +7690,7 @@
       <c r="K173" s="2"/>
       <c r="L173" s="13"/>
     </row>
-    <row r="174" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="19"/>
       <c r="B174" s="4"/>
       <c r="C174" s="11"/>
@@ -6794,7 +7704,7 @@
       <c r="K174" s="2"/>
       <c r="L174" s="13"/>
     </row>
-    <row r="175" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="19"/>
       <c r="B175" s="4"/>
       <c r="C175" s="11"/>
@@ -6808,7 +7718,7 @@
       <c r="K175" s="2"/>
       <c r="L175" s="13"/>
     </row>
-    <row r="176" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="19"/>
       <c r="B176" s="4"/>
       <c r="C176" s="11"/>
@@ -6822,7 +7732,7 @@
       <c r="K176" s="2"/>
       <c r="L176" s="13"/>
     </row>
-    <row r="177" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="19"/>
       <c r="B177" s="4"/>
       <c r="C177" s="11"/>
@@ -6836,7 +7746,7 @@
       <c r="K177" s="2"/>
       <c r="L177" s="13"/>
     </row>
-    <row r="178" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="19"/>
       <c r="B178" s="4"/>
       <c r="C178" s="11"/>
@@ -6850,7 +7760,7 @@
       <c r="K178" s="2"/>
       <c r="L178" s="13"/>
     </row>
-    <row r="179" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="19"/>
       <c r="B179" s="4"/>
       <c r="C179" s="11"/>
@@ -6864,7 +7774,7 @@
       <c r="K179" s="2"/>
       <c r="L179" s="13"/>
     </row>
-    <row r="180" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="19"/>
       <c r="B180" s="4"/>
       <c r="C180" s="11"/>
@@ -6878,7 +7788,7 @@
       <c r="K180" s="2"/>
       <c r="L180" s="13"/>
     </row>
-    <row r="181" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="19"/>
       <c r="B181" s="4"/>
       <c r="C181" s="11"/>
@@ -6892,7 +7802,7 @@
       <c r="K181" s="2"/>
       <c r="L181" s="13"/>
     </row>
-    <row r="182" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="19"/>
       <c r="B182" s="4"/>
       <c r="C182" s="11"/>
@@ -6906,7 +7816,7 @@
       <c r="K182" s="2"/>
       <c r="L182" s="13"/>
     </row>
-    <row r="183" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="19"/>
       <c r="B183" s="4"/>
       <c r="C183" s="11"/>
@@ -6920,7 +7830,7 @@
       <c r="K183" s="2"/>
       <c r="L183" s="13"/>
     </row>
-    <row r="184" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="19"/>
       <c r="B184" s="4"/>
       <c r="C184" s="11"/>
@@ -6934,7 +7844,7 @@
       <c r="K184" s="2"/>
       <c r="L184" s="13"/>
     </row>
-    <row r="185" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="19"/>
       <c r="B185" s="4"/>
       <c r="C185" s="11"/>
@@ -6948,7 +7858,7 @@
       <c r="K185" s="2"/>
       <c r="L185" s="13"/>
     </row>
-    <row r="186" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="19"/>
       <c r="B186" s="4"/>
       <c r="C186" s="11"/>
@@ -6962,7 +7872,7 @@
       <c r="K186" s="2"/>
       <c r="L186" s="13"/>
     </row>
-    <row r="187" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="19"/>
       <c r="B187" s="4"/>
       <c r="C187" s="11"/>
@@ -6976,7 +7886,7 @@
       <c r="K187" s="2"/>
       <c r="L187" s="13"/>
     </row>
-    <row r="188" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="19"/>
       <c r="B188" s="4"/>
       <c r="C188" s="11"/>
@@ -6990,7 +7900,7 @@
       <c r="K188" s="2"/>
       <c r="L188" s="13"/>
     </row>
-    <row r="189" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="19"/>
       <c r="B189" s="4"/>
       <c r="C189" s="11"/>
@@ -7004,7 +7914,7 @@
       <c r="K189" s="2"/>
       <c r="L189" s="13"/>
     </row>
-    <row r="190" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="19"/>
       <c r="B190" s="4"/>
       <c r="C190" s="11"/>
@@ -7018,7 +7928,7 @@
       <c r="K190" s="2"/>
       <c r="L190" s="13"/>
     </row>
-    <row r="191" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="19"/>
       <c r="B191" s="4"/>
       <c r="C191" s="11"/>
@@ -7032,7 +7942,7 @@
       <c r="K191" s="2"/>
       <c r="L191" s="13"/>
     </row>
-    <row r="192" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="19"/>
       <c r="B192" s="4"/>
       <c r="C192" s="11"/>
@@ -7046,7 +7956,7 @@
       <c r="K192" s="2"/>
       <c r="L192" s="13"/>
     </row>
-    <row r="193" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="19"/>
       <c r="B193" s="4"/>
       <c r="C193" s="11"/>
@@ -7060,7 +7970,7 @@
       <c r="K193" s="2"/>
       <c r="L193" s="13"/>
     </row>
-    <row r="194" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="19"/>
       <c r="B194" s="4"/>
       <c r="C194" s="11"/>
@@ -7074,7 +7984,7 @@
       <c r="K194" s="2"/>
       <c r="L194" s="13"/>
     </row>
-    <row r="195" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="19"/>
       <c r="B195" s="4"/>
       <c r="C195" s="11"/>
@@ -7088,7 +7998,7 @@
       <c r="K195" s="2"/>
       <c r="L195" s="13"/>
     </row>
-    <row r="196" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="19"/>
       <c r="B196" s="4"/>
       <c r="C196" s="11"/>
@@ -7102,7 +8012,7 @@
       <c r="K196" s="2"/>
       <c r="L196" s="13"/>
     </row>
-    <row r="197" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="19"/>
       <c r="B197" s="4"/>
       <c r="C197" s="11"/>
@@ -7116,7 +8026,7 @@
       <c r="K197" s="2"/>
       <c r="L197" s="13"/>
     </row>
-    <row r="198" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="19"/>
       <c r="B198" s="4"/>
       <c r="C198" s="11"/>
@@ -7130,7 +8040,7 @@
       <c r="K198" s="2"/>
       <c r="L198" s="13"/>
     </row>
-    <row r="199" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="19"/>
       <c r="B199" s="4"/>
       <c r="C199" s="11"/>
@@ -7144,7 +8054,7 @@
       <c r="K199" s="2"/>
       <c r="L199" s="13"/>
     </row>
-    <row r="200" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="19"/>
       <c r="B200" s="4"/>
       <c r="C200" s="11"/>
@@ -7158,7 +8068,7 @@
       <c r="K200" s="2"/>
       <c r="L200" s="13"/>
     </row>
-    <row r="201" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="19"/>
       <c r="B201" s="4"/>
       <c r="C201" s="11"/>
@@ -7172,7 +8082,7 @@
       <c r="K201" s="2"/>
       <c r="L201" s="13"/>
     </row>
-    <row r="202" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="19"/>
       <c r="B202" s="4"/>
       <c r="C202" s="11"/>
@@ -7186,7 +8096,7 @@
       <c r="K202" s="2"/>
       <c r="L202" s="13"/>
     </row>
-    <row r="203" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="19"/>
       <c r="B203" s="4"/>
       <c r="C203" s="11"/>
@@ -7200,7 +8110,7 @@
       <c r="K203" s="2"/>
       <c r="L203" s="13"/>
     </row>
-    <row r="204" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="19"/>
       <c r="B204" s="4"/>
       <c r="C204" s="11"/>
@@ -7214,7 +8124,7 @@
       <c r="K204" s="2"/>
       <c r="L204" s="13"/>
     </row>
-    <row r="205" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="19"/>
       <c r="B205" s="4"/>
       <c r="C205" s="11"/>
@@ -7228,7 +8138,7 @@
       <c r="K205" s="2"/>
       <c r="L205" s="13"/>
     </row>
-    <row r="206" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="19"/>
       <c r="B206" s="4"/>
       <c r="C206" s="11"/>
@@ -7242,7 +8152,7 @@
       <c r="K206" s="2"/>
       <c r="L206" s="13"/>
     </row>
-    <row r="207" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="19"/>
       <c r="B207" s="4"/>
       <c r="C207" s="11"/>
@@ -7256,7 +8166,7 @@
       <c r="K207" s="2"/>
       <c r="L207" s="13"/>
     </row>
-    <row r="208" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="19"/>
       <c r="B208" s="4"/>
       <c r="C208" s="11"/>
@@ -7270,7 +8180,7 @@
       <c r="K208" s="2"/>
       <c r="L208" s="13"/>
     </row>
-    <row r="209" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="19"/>
       <c r="B209" s="4"/>
       <c r="C209" s="11"/>
@@ -7284,7 +8194,7 @@
       <c r="K209" s="2"/>
       <c r="L209" s="13"/>
     </row>
-    <row r="210" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="19"/>
       <c r="B210" s="4"/>
       <c r="C210" s="11"/>
@@ -7298,7 +8208,7 @@
       <c r="K210" s="2"/>
       <c r="L210" s="13"/>
     </row>
-    <row r="211" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="19"/>
       <c r="B211" s="4"/>
       <c r="C211" s="11"/>
@@ -7312,7 +8222,7 @@
       <c r="K211" s="2"/>
       <c r="L211" s="13"/>
     </row>
-    <row r="212" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="19"/>
       <c r="B212" s="4"/>
       <c r="C212" s="11"/>
@@ -7326,7 +8236,7 @@
       <c r="K212" s="2"/>
       <c r="L212" s="13"/>
     </row>
-    <row r="213" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="19"/>
       <c r="B213" s="4"/>
       <c r="C213" s="11"/>
@@ -7340,7 +8250,7 @@
       <c r="K213" s="2"/>
       <c r="L213" s="13"/>
     </row>
-    <row r="214" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="19"/>
       <c r="B214" s="4"/>
       <c r="C214" s="11"/>
@@ -7354,7 +8264,7 @@
       <c r="K214" s="2"/>
       <c r="L214" s="13"/>
     </row>
-    <row r="215" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="19"/>
       <c r="B215" s="4"/>
       <c r="C215" s="11"/>
@@ -7368,7 +8278,7 @@
       <c r="K215" s="2"/>
       <c r="L215" s="13"/>
     </row>
-    <row r="216" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="19"/>
       <c r="B216" s="4"/>
       <c r="C216" s="11"/>
@@ -7382,7 +8292,7 @@
       <c r="K216" s="2"/>
       <c r="L216" s="13"/>
     </row>
-    <row r="217" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="19"/>
       <c r="B217" s="4"/>
       <c r="C217" s="11"/>
@@ -7396,7 +8306,7 @@
       <c r="K217" s="2"/>
       <c r="L217" s="13"/>
     </row>
-    <row r="218" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="19"/>
       <c r="B218" s="4"/>
       <c r="C218" s="11"/>
@@ -7410,7 +8320,7 @@
       <c r="K218" s="2"/>
       <c r="L218" s="13"/>
     </row>
-    <row r="219" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="19"/>
       <c r="B219" s="4"/>
       <c r="C219" s="11"/>
@@ -7424,7 +8334,7 @@
       <c r="K219" s="2"/>
       <c r="L219" s="13"/>
     </row>
-    <row r="220" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="19"/>
       <c r="B220" s="4"/>
       <c r="C220" s="11"/>
@@ -7438,7 +8348,7 @@
       <c r="K220" s="2"/>
       <c r="L220" s="13"/>
     </row>
-    <row r="221" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="19"/>
       <c r="B221" s="4"/>
       <c r="C221" s="11"/>
@@ -7452,7 +8362,7 @@
       <c r="K221" s="2"/>
       <c r="L221" s="13"/>
     </row>
-    <row r="222" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="19"/>
       <c r="B222" s="4"/>
       <c r="C222" s="11"/>
@@ -7466,7 +8376,7 @@
       <c r="K222" s="2"/>
       <c r="L222" s="13"/>
     </row>
-    <row r="223" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="19"/>
       <c r="B223" s="4"/>
       <c r="C223" s="11"/>
@@ -7480,7 +8390,7 @@
       <c r="K223" s="2"/>
       <c r="L223" s="13"/>
     </row>
-    <row r="224" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="19"/>
       <c r="B224" s="4"/>
       <c r="C224" s="11"/>
@@ -7494,7 +8404,7 @@
       <c r="K224" s="2"/>
       <c r="L224" s="13"/>
     </row>
-    <row r="225" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="19"/>
       <c r="B225" s="4"/>
       <c r="C225" s="11"/>
@@ -7508,7 +8418,7 @@
       <c r="K225" s="2"/>
       <c r="L225" s="13"/>
     </row>
-    <row r="226" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="19"/>
       <c r="B226" s="4"/>
       <c r="C226" s="11"/>
@@ -7522,7 +8432,7 @@
       <c r="K226" s="2"/>
       <c r="L226" s="13"/>
     </row>
-    <row r="227" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="19"/>
       <c r="B227" s="4"/>
       <c r="C227" s="11"/>
@@ -7536,7 +8446,7 @@
       <c r="K227" s="2"/>
       <c r="L227" s="13"/>
     </row>
-    <row r="228" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="19"/>
       <c r="B228" s="4"/>
       <c r="C228" s="11"/>
@@ -7550,7 +8460,7 @@
       <c r="K228" s="2"/>
       <c r="L228" s="13"/>
     </row>
-    <row r="229" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="19"/>
       <c r="B229" s="4"/>
       <c r="C229" s="11"/>
@@ -7564,7 +8474,7 @@
       <c r="K229" s="2"/>
       <c r="L229" s="13"/>
     </row>
-    <row r="230" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="19"/>
       <c r="B230" s="4"/>
       <c r="C230" s="11"/>
@@ -7578,7 +8488,7 @@
       <c r="K230" s="2"/>
       <c r="L230" s="13"/>
     </row>
-    <row r="231" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="19"/>
       <c r="B231" s="4"/>
       <c r="C231" s="11"/>
@@ -7592,7 +8502,7 @@
       <c r="K231" s="2"/>
       <c r="L231" s="13"/>
     </row>
-    <row r="232" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="19"/>
       <c r="B232" s="4"/>
       <c r="C232" s="11"/>
@@ -7606,7 +8516,7 @@
       <c r="K232" s="2"/>
       <c r="L232" s="13"/>
     </row>
-    <row r="233" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="19"/>
       <c r="B233" s="4"/>
       <c r="C233" s="11"/>
@@ -7620,7 +8530,7 @@
       <c r="K233" s="2"/>
       <c r="L233" s="13"/>
     </row>
-    <row r="234" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="19"/>
       <c r="B234" s="4"/>
       <c r="C234" s="11"/>
@@ -7634,7 +8544,7 @@
       <c r="K234" s="2"/>
       <c r="L234" s="13"/>
     </row>
-    <row r="235" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="19"/>
       <c r="B235" s="4"/>
       <c r="C235" s="11"/>
@@ -7648,7 +8558,7 @@
       <c r="K235" s="2"/>
       <c r="L235" s="13"/>
     </row>
-    <row r="236" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="19"/>
       <c r="B236" s="4"/>
       <c r="C236" s="11"/>
@@ -7662,7 +8572,7 @@
       <c r="K236" s="2"/>
       <c r="L236" s="13"/>
     </row>
-    <row r="237" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="19"/>
       <c r="B237" s="4"/>
       <c r="C237" s="11"/>
@@ -7676,7 +8586,7 @@
       <c r="K237" s="2"/>
       <c r="L237" s="13"/>
     </row>
-    <row r="238" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="19"/>
       <c r="B238" s="4"/>
       <c r="C238" s="11"/>
@@ -7690,7 +8600,7 @@
       <c r="K238" s="2"/>
       <c r="L238" s="13"/>
     </row>
-    <row r="239" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="19"/>
       <c r="B239" s="4"/>
       <c r="C239" s="11"/>
@@ -7704,7 +8614,7 @@
       <c r="K239" s="2"/>
       <c r="L239" s="13"/>
     </row>
-    <row r="240" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="19"/>
       <c r="B240" s="4"/>
       <c r="C240" s="11"/>
@@ -7718,7 +8628,7 @@
       <c r="K240" s="2"/>
       <c r="L240" s="13"/>
     </row>
-    <row r="241" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="19"/>
       <c r="B241" s="4"/>
       <c r="C241" s="11"/>
@@ -7732,7 +8642,7 @@
       <c r="K241" s="2"/>
       <c r="L241" s="13"/>
     </row>
-    <row r="242" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="19"/>
       <c r="B242" s="4"/>
       <c r="C242" s="11"/>
@@ -7746,7 +8656,7 @@
       <c r="K242" s="2"/>
       <c r="L242" s="13"/>
     </row>
-    <row r="243" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="19"/>
       <c r="B243" s="4"/>
       <c r="C243" s="11"/>
@@ -7760,7 +8670,7 @@
       <c r="K243" s="2"/>
       <c r="L243" s="13"/>
     </row>
-    <row r="244" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="19"/>
       <c r="B244" s="4"/>
       <c r="C244" s="11"/>
@@ -7774,7 +8684,7 @@
       <c r="K244" s="2"/>
       <c r="L244" s="13"/>
     </row>
-    <row r="245" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="19"/>
       <c r="B245" s="4"/>
       <c r="C245" s="11"/>
@@ -7788,7 +8698,7 @@
       <c r="K245" s="2"/>
       <c r="L245" s="13"/>
     </row>
-    <row r="246" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="19"/>
       <c r="B246" s="4"/>
       <c r="C246" s="11"/>
@@ -7802,7 +8712,7 @@
       <c r="K246" s="2"/>
       <c r="L246" s="13"/>
     </row>
-    <row r="247" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="19"/>
       <c r="B247" s="4"/>
       <c r="C247" s="11"/>
@@ -7816,7 +8726,7 @@
       <c r="K247" s="2"/>
       <c r="L247" s="13"/>
     </row>
-    <row r="248" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="19"/>
       <c r="B248" s="4"/>
       <c r="C248" s="11"/>
@@ -7830,7 +8740,7 @@
       <c r="K248" s="2"/>
       <c r="L248" s="13"/>
     </row>
-    <row r="249" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="19"/>
       <c r="B249" s="4"/>
       <c r="C249" s="11"/>
@@ -7844,7 +8754,7 @@
       <c r="K249" s="2"/>
       <c r="L249" s="13"/>
     </row>
-    <row r="250" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="19"/>
       <c r="B250" s="4"/>
       <c r="C250" s="11"/>
@@ -7858,7 +8768,7 @@
       <c r="K250" s="2"/>
       <c r="L250" s="13"/>
     </row>
-    <row r="251" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="19"/>
       <c r="B251" s="4"/>
       <c r="C251" s="11"/>
@@ -7872,7 +8782,7 @@
       <c r="K251" s="2"/>
       <c r="L251" s="13"/>
     </row>
-    <row r="252" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="19"/>
       <c r="B252" s="4"/>
       <c r="C252" s="11"/>
@@ -7886,7 +8796,7 @@
       <c r="K252" s="2"/>
       <c r="L252" s="13"/>
     </row>
-    <row r="253" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="19"/>
       <c r="B253" s="4"/>
       <c r="C253" s="11"/>
@@ -7900,7 +8810,7 @@
       <c r="K253" s="2"/>
       <c r="L253" s="13"/>
     </row>
-    <row r="254" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="19"/>
       <c r="B254" s="4"/>
       <c r="C254" s="11"/>
@@ -7914,7 +8824,7 @@
       <c r="K254" s="2"/>
       <c r="L254" s="13"/>
     </row>
-    <row r="255" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="19"/>
       <c r="B255" s="4"/>
       <c r="C255" s="11"/>
@@ -7928,7 +8838,7 @@
       <c r="K255" s="2"/>
       <c r="L255" s="13"/>
     </row>
-    <row r="256" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="19"/>
       <c r="B256" s="4"/>
       <c r="C256" s="11"/>
@@ -7942,7 +8852,7 @@
       <c r="K256" s="2"/>
       <c r="L256" s="13"/>
     </row>
-    <row r="257" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="19"/>
       <c r="B257" s="4"/>
       <c r="C257" s="11"/>
@@ -7956,7 +8866,7 @@
       <c r="K257" s="2"/>
       <c r="L257" s="13"/>
     </row>
-    <row r="258" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="19"/>
       <c r="B258" s="4"/>
       <c r="C258" s="11"/>
@@ -7970,7 +8880,7 @@
       <c r="K258" s="2"/>
       <c r="L258" s="13"/>
     </row>
-    <row r="259" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="19"/>
       <c r="B259" s="4"/>
       <c r="C259" s="11"/>
@@ -7984,7 +8894,7 @@
       <c r="K259" s="2"/>
       <c r="L259" s="13"/>
     </row>
-    <row r="260" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="19"/>
       <c r="B260" s="4"/>
       <c r="C260" s="11"/>
@@ -7998,7 +8908,7 @@
       <c r="K260" s="2"/>
       <c r="L260" s="13"/>
     </row>
-    <row r="261" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="19"/>
       <c r="B261" s="4"/>
       <c r="C261" s="11"/>
@@ -8012,7 +8922,7 @@
       <c r="K261" s="2"/>
       <c r="L261" s="13"/>
     </row>
-    <row r="262" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="19"/>
       <c r="B262" s="4"/>
       <c r="C262" s="11"/>
@@ -8026,7 +8936,7 @@
       <c r="K262" s="2"/>
       <c r="L262" s="13"/>
     </row>
-    <row r="263" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="19"/>
       <c r="B263" s="4"/>
       <c r="C263" s="11"/>
@@ -8040,7 +8950,7 @@
       <c r="K263" s="2"/>
       <c r="L263" s="13"/>
     </row>
-    <row r="264" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="19"/>
       <c r="B264" s="4"/>
       <c r="C264" s="11"/>
@@ -8054,7 +8964,7 @@
       <c r="K264" s="2"/>
       <c r="L264" s="13"/>
     </row>
-    <row r="265" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="19"/>
       <c r="B265" s="4"/>
       <c r="C265" s="11"/>
@@ -8068,7 +8978,7 @@
       <c r="K265" s="2"/>
       <c r="L265" s="13"/>
     </row>
-    <row r="266" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" s="19"/>
       <c r="B266" s="4"/>
       <c r="C266" s="11"/>
@@ -8082,7 +8992,7 @@
       <c r="K266" s="2"/>
       <c r="L266" s="13"/>
     </row>
-    <row r="267" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="19"/>
       <c r="B267" s="4"/>
       <c r="C267" s="11"/>
@@ -8096,7 +9006,7 @@
       <c r="K267" s="2"/>
       <c r="L267" s="13"/>
     </row>
-    <row r="268" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" s="19"/>
       <c r="B268" s="4"/>
       <c r="C268" s="11"/>
@@ -8110,7 +9020,7 @@
       <c r="K268" s="2"/>
       <c r="L268" s="13"/>
     </row>
-    <row r="269" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" s="19"/>
       <c r="B269" s="4"/>
       <c r="C269" s="11"/>
@@ -8124,7 +9034,7 @@
       <c r="K269" s="2"/>
       <c r="L269" s="13"/>
     </row>
-    <row r="270" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" s="19"/>
       <c r="B270" s="4"/>
       <c r="C270" s="11"/>
@@ -8138,7 +9048,7 @@
       <c r="K270" s="2"/>
       <c r="L270" s="13"/>
     </row>
-    <row r="271" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" s="19"/>
       <c r="B271" s="4"/>
       <c r="C271" s="11"/>
@@ -8152,7 +9062,7 @@
       <c r="K271" s="2"/>
       <c r="L271" s="13"/>
     </row>
-    <row r="272" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" s="19"/>
       <c r="B272" s="4"/>
       <c r="C272" s="11"/>
@@ -8166,7 +9076,7 @@
       <c r="K272" s="2"/>
       <c r="L272" s="13"/>
     </row>
-    <row r="273" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" s="19"/>
       <c r="B273" s="4"/>
       <c r="C273" s="11"/>
@@ -8180,7 +9090,7 @@
       <c r="K273" s="2"/>
       <c r="L273" s="13"/>
     </row>
-    <row r="274" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" s="19"/>
       <c r="B274" s="4"/>
       <c r="C274" s="11"/>
@@ -8194,7 +9104,7 @@
       <c r="K274" s="2"/>
       <c r="L274" s="13"/>
     </row>
-    <row r="275" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" s="19"/>
       <c r="B275" s="4"/>
       <c r="C275" s="11"/>
@@ -8208,7 +9118,7 @@
       <c r="K275" s="2"/>
       <c r="L275" s="13"/>
     </row>
-    <row r="276" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" s="19"/>
       <c r="B276" s="4"/>
       <c r="C276" s="11"/>
@@ -8222,7 +9132,7 @@
       <c r="K276" s="2"/>
       <c r="L276" s="13"/>
     </row>
-    <row r="277" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" s="19"/>
       <c r="B277" s="4"/>
       <c r="C277" s="11"/>
@@ -8236,7 +9146,7 @@
       <c r="K277" s="2"/>
       <c r="L277" s="13"/>
     </row>
-    <row r="278" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" s="19"/>
       <c r="B278" s="4"/>
       <c r="C278" s="11"/>
@@ -8250,7 +9160,7 @@
       <c r="K278" s="2"/>
       <c r="L278" s="13"/>
     </row>
-    <row r="279" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" s="19"/>
       <c r="B279" s="4"/>
       <c r="C279" s="11"/>
@@ -8264,7 +9174,7 @@
       <c r="K279" s="2"/>
       <c r="L279" s="13"/>
     </row>
-    <row r="280" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" s="19"/>
       <c r="B280" s="4"/>
       <c r="C280" s="11"/>
@@ -8278,7 +9188,7 @@
       <c r="K280" s="2"/>
       <c r="L280" s="13"/>
     </row>
-    <row r="281" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" s="19"/>
       <c r="B281" s="4"/>
       <c r="C281" s="11"/>
@@ -8292,7 +9202,7 @@
       <c r="K281" s="2"/>
       <c r="L281" s="13"/>
     </row>
-    <row r="282" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" s="19"/>
       <c r="B282" s="4"/>
       <c r="C282" s="11"/>
@@ -8306,7 +9216,7 @@
       <c r="K282" s="2"/>
       <c r="L282" s="13"/>
     </row>
-    <row r="283" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" s="19"/>
       <c r="B283" s="4"/>
       <c r="C283" s="11"/>
@@ -8320,7 +9230,7 @@
       <c r="K283" s="2"/>
       <c r="L283" s="13"/>
     </row>
-    <row r="284" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" s="19"/>
       <c r="B284" s="4"/>
       <c r="C284" s="11"/>
@@ -8334,7 +9244,7 @@
       <c r="K284" s="2"/>
       <c r="L284" s="13"/>
     </row>
-    <row r="285" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" s="19"/>
       <c r="B285" s="4"/>
       <c r="C285" s="11"/>
@@ -8348,7 +9258,7 @@
       <c r="K285" s="2"/>
       <c r="L285" s="13"/>
     </row>
-    <row r="286" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" s="19"/>
       <c r="B286" s="4"/>
       <c r="C286" s="11"/>
@@ -8362,7 +9272,7 @@
       <c r="K286" s="2"/>
       <c r="L286" s="13"/>
     </row>
-    <row r="287" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" s="19"/>
       <c r="B287" s="4"/>
       <c r="C287" s="11"/>
@@ -8376,7 +9286,7 @@
       <c r="K287" s="2"/>
       <c r="L287" s="13"/>
     </row>
-    <row r="288" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" s="19"/>
       <c r="B288" s="4"/>
       <c r="C288" s="11"/>
@@ -8390,7 +9300,7 @@
       <c r="K288" s="2"/>
       <c r="L288" s="13"/>
     </row>
-    <row r="289" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" s="19"/>
       <c r="B289" s="4"/>
       <c r="C289" s="11"/>
@@ -8404,7 +9314,7 @@
       <c r="K289" s="2"/>
       <c r="L289" s="13"/>
     </row>
-    <row r="290" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" s="19"/>
       <c r="B290" s="4"/>
       <c r="C290" s="11"/>
@@ -8418,7 +9328,7 @@
       <c r="K290" s="2"/>
       <c r="L290" s="13"/>
     </row>
-    <row r="291" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" s="19"/>
       <c r="B291" s="4"/>
       <c r="C291" s="11"/>
@@ -8432,7 +9342,7 @@
       <c r="K291" s="2"/>
       <c r="L291" s="13"/>
     </row>
-    <row r="292" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" s="19"/>
       <c r="B292" s="4"/>
       <c r="C292" s="11"/>
@@ -8446,7 +9356,7 @@
       <c r="K292" s="2"/>
       <c r="L292" s="13"/>
     </row>
-    <row r="293" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" s="19"/>
       <c r="B293" s="4"/>
       <c r="C293" s="11"/>
@@ -8460,7 +9370,7 @@
       <c r="K293" s="2"/>
       <c r="L293" s="13"/>
     </row>
-    <row r="294" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" s="19"/>
       <c r="B294" s="4"/>
       <c r="C294" s="11"/>
@@ -8474,7 +9384,7 @@
       <c r="K294" s="2"/>
       <c r="L294" s="13"/>
     </row>
-    <row r="295" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" s="19"/>
       <c r="B295" s="4"/>
       <c r="C295" s="11"/>
@@ -8488,7 +9398,7 @@
       <c r="K295" s="2"/>
       <c r="L295" s="13"/>
     </row>
-    <row r="296" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" s="19"/>
       <c r="B296" s="4"/>
       <c r="C296" s="11"/>
@@ -8502,7 +9412,7 @@
       <c r="K296" s="2"/>
       <c r="L296" s="13"/>
     </row>
-    <row r="297" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" s="19"/>
       <c r="B297" s="4"/>
       <c r="C297" s="11"/>
@@ -8516,7 +9426,7 @@
       <c r="K297" s="2"/>
       <c r="L297" s="13"/>
     </row>
-    <row r="298" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" s="19"/>
       <c r="B298" s="4"/>
       <c r="C298" s="11"/>
@@ -8530,7 +9440,7 @@
       <c r="K298" s="2"/>
       <c r="L298" s="13"/>
     </row>
-    <row r="299" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" s="19"/>
       <c r="B299" s="4"/>
       <c r="C299" s="11"/>
@@ -8544,7 +9454,7 @@
       <c r="K299" s="2"/>
       <c r="L299" s="13"/>
     </row>
-    <row r="300" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" s="19"/>
       <c r="B300" s="4"/>
       <c r="C300" s="11"/>
@@ -8558,7 +9468,7 @@
       <c r="K300" s="2"/>
       <c r="L300" s="13"/>
     </row>
-    <row r="301" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" s="19"/>
       <c r="B301" s="4"/>
       <c r="C301" s="11"/>
@@ -8572,7 +9482,7 @@
       <c r="K301" s="2"/>
       <c r="L301" s="13"/>
     </row>
-    <row r="302" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" s="19"/>
       <c r="B302" s="4"/>
       <c r="C302" s="11"/>
@@ -8586,7 +9496,7 @@
       <c r="K302" s="2"/>
       <c r="L302" s="13"/>
     </row>
-    <row r="303" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" s="19"/>
       <c r="B303" s="4"/>
       <c r="C303" s="11"/>
@@ -8600,7 +9510,7 @@
       <c r="K303" s="2"/>
       <c r="L303" s="13"/>
     </row>
-    <row r="304" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" s="19"/>
       <c r="B304" s="4"/>
       <c r="C304" s="11"/>
@@ -8614,7 +9524,7 @@
       <c r="K304" s="2"/>
       <c r="L304" s="13"/>
     </row>
-    <row r="305" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" s="19"/>
       <c r="B305" s="4"/>
       <c r="C305" s="11"/>
@@ -8628,7 +9538,7 @@
       <c r="K305" s="2"/>
       <c r="L305" s="13"/>
     </row>
-    <row r="306" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" s="19"/>
       <c r="B306" s="4"/>
       <c r="C306" s="11"/>
@@ -8642,7 +9552,7 @@
       <c r="K306" s="2"/>
       <c r="L306" s="13"/>
     </row>
-    <row r="307" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" s="19"/>
       <c r="B307" s="4"/>
       <c r="C307" s="11"/>
@@ -8656,7 +9566,7 @@
       <c r="K307" s="2"/>
       <c r="L307" s="13"/>
     </row>
-    <row r="308" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" s="19"/>
       <c r="B308" s="4"/>
       <c r="C308" s="11"/>
@@ -8670,7 +9580,7 @@
       <c r="K308" s="2"/>
       <c r="L308" s="13"/>
     </row>
-    <row r="309" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" s="19"/>
       <c r="B309" s="4"/>
       <c r="C309" s="11"/>
@@ -8684,7 +9594,7 @@
       <c r="K309" s="2"/>
       <c r="L309" s="13"/>
     </row>
-    <row r="310" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" s="19"/>
       <c r="B310" s="4"/>
       <c r="C310" s="11"/>
@@ -8698,7 +9608,7 @@
       <c r="K310" s="2"/>
       <c r="L310" s="13"/>
     </row>
-    <row r="311" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" s="19"/>
       <c r="B311" s="4"/>
       <c r="C311" s="11"/>
@@ -8712,7 +9622,7 @@
       <c r="K311" s="2"/>
       <c r="L311" s="13"/>
     </row>
-    <row r="312" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" s="19"/>
       <c r="B312" s="4"/>
       <c r="C312" s="11"/>
@@ -8726,7 +9636,7 @@
       <c r="K312" s="2"/>
       <c r="L312" s="13"/>
     </row>
-    <row r="313" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" s="19"/>
       <c r="B313" s="4"/>
       <c r="C313" s="11"/>
@@ -8740,7 +9650,7 @@
       <c r="K313" s="2"/>
       <c r="L313" s="13"/>
     </row>
-    <row r="314" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" s="19"/>
       <c r="B314" s="4"/>
       <c r="C314" s="11"/>
@@ -8754,7 +9664,7 @@
       <c r="K314" s="2"/>
       <c r="L314" s="13"/>
     </row>
-    <row r="315" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" s="19"/>
       <c r="B315" s="4"/>
       <c r="C315" s="11"/>
@@ -8768,7 +9678,7 @@
       <c r="K315" s="2"/>
       <c r="L315" s="13"/>
     </row>
-    <row r="316" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" s="19"/>
       <c r="B316" s="4"/>
       <c r="C316" s="11"/>
@@ -8782,7 +9692,7 @@
       <c r="K316" s="2"/>
       <c r="L316" s="13"/>
     </row>
-    <row r="317" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" s="19"/>
       <c r="B317" s="4"/>
       <c r="C317" s="11"/>
@@ -8796,7 +9706,7 @@
       <c r="K317" s="2"/>
       <c r="L317" s="13"/>
     </row>
-    <row r="318" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" s="19"/>
       <c r="B318" s="4"/>
       <c r="C318" s="11"/>
@@ -8810,7 +9720,7 @@
       <c r="K318" s="2"/>
       <c r="L318" s="13"/>
     </row>
-    <row r="319" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" s="19"/>
       <c r="B319" s="4"/>
       <c r="C319" s="11"/>
@@ -8824,7 +9734,7 @@
       <c r="K319" s="2"/>
       <c r="L319" s="13"/>
     </row>
-    <row r="320" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" s="19"/>
       <c r="B320" s="4"/>
       <c r="C320" s="11"/>
@@ -8838,7 +9748,7 @@
       <c r="K320" s="2"/>
       <c r="L320" s="13"/>
     </row>
-    <row r="321" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" s="19"/>
       <c r="B321" s="4"/>
       <c r="C321" s="11"/>
@@ -8852,7 +9762,7 @@
       <c r="K321" s="2"/>
       <c r="L321" s="13"/>
     </row>
-    <row r="322" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322" s="19"/>
       <c r="B322" s="4"/>
       <c r="C322" s="11"/>
@@ -8866,7 +9776,7 @@
       <c r="K322" s="2"/>
       <c r="L322" s="13"/>
     </row>
-    <row r="323" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" s="19"/>
       <c r="B323" s="4"/>
       <c r="C323" s="11"/>
@@ -8880,7 +9790,7 @@
       <c r="K323" s="2"/>
       <c r="L323" s="13"/>
     </row>
-    <row r="324" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" s="19"/>
       <c r="B324" s="4"/>
       <c r="C324" s="11"/>
@@ -8894,7 +9804,7 @@
       <c r="K324" s="2"/>
       <c r="L324" s="13"/>
     </row>
-    <row r="325" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" s="19"/>
       <c r="B325" s="4"/>
       <c r="C325" s="11"/>
@@ -8908,7 +9818,7 @@
       <c r="K325" s="2"/>
       <c r="L325" s="13"/>
     </row>
-    <row r="326" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326" s="19"/>
       <c r="B326" s="4"/>
       <c r="C326" s="11"/>
@@ -8922,7 +9832,7 @@
       <c r="K326" s="2"/>
       <c r="L326" s="13"/>
     </row>
-    <row r="327" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" s="19"/>
       <c r="B327" s="4"/>
       <c r="C327" s="11"/>
@@ -8936,7 +9846,7 @@
       <c r="K327" s="2"/>
       <c r="L327" s="13"/>
     </row>
-    <row r="328" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328" s="19"/>
       <c r="B328" s="4"/>
       <c r="C328" s="11"/>
@@ -8950,7 +9860,7 @@
       <c r="K328" s="2"/>
       <c r="L328" s="13"/>
     </row>
-    <row r="329" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329" s="19"/>
       <c r="B329" s="4"/>
       <c r="C329" s="11"/>
@@ -8964,7 +9874,7 @@
       <c r="K329" s="2"/>
       <c r="L329" s="13"/>
     </row>
-    <row r="330" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330" s="19"/>
       <c r="B330" s="4"/>
       <c r="C330" s="11"/>
@@ -8978,7 +9888,7 @@
       <c r="K330" s="2"/>
       <c r="L330" s="13"/>
     </row>
-    <row r="331" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" s="19"/>
       <c r="B331" s="4"/>
       <c r="C331" s="11"/>
@@ -8992,7 +9902,7 @@
       <c r="K331" s="2"/>
       <c r="L331" s="13"/>
     </row>
-    <row r="332" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332" s="19"/>
       <c r="B332" s="4"/>
       <c r="C332" s="11"/>
@@ -9006,7 +9916,7 @@
       <c r="K332" s="2"/>
       <c r="L332" s="13"/>
     </row>
-    <row r="333" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333" s="19"/>
       <c r="B333" s="4"/>
       <c r="C333" s="11"/>
@@ -9020,7 +9930,7 @@
       <c r="K333" s="2"/>
       <c r="L333" s="13"/>
     </row>
-    <row r="334" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334" s="19"/>
       <c r="B334" s="4"/>
       <c r="C334" s="11"/>
@@ -9034,7 +9944,7 @@
       <c r="K334" s="2"/>
       <c r="L334" s="13"/>
     </row>
-    <row r="335" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335" s="19"/>
       <c r="B335" s="4"/>
       <c r="C335" s="11"/>
@@ -9048,7 +9958,7 @@
       <c r="K335" s="2"/>
       <c r="L335" s="13"/>
     </row>
-    <row r="336" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336" s="19"/>
       <c r="B336" s="4"/>
       <c r="C336" s="11"/>
@@ -9062,7 +9972,7 @@
       <c r="K336" s="2"/>
       <c r="L336" s="13"/>
     </row>
-    <row r="337" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" s="19"/>
       <c r="B337" s="4"/>
       <c r="C337" s="11"/>
@@ -9076,7 +9986,7 @@
       <c r="K337" s="2"/>
       <c r="L337" s="13"/>
     </row>
-    <row r="338" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" s="19"/>
       <c r="B338" s="4"/>
       <c r="C338" s="11"/>
@@ -9090,7 +10000,7 @@
       <c r="K338" s="2"/>
       <c r="L338" s="13"/>
     </row>
-    <row r="339" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" s="19"/>
       <c r="B339" s="4"/>
       <c r="C339" s="11"/>
@@ -9104,7 +10014,7 @@
       <c r="K339" s="2"/>
       <c r="L339" s="13"/>
     </row>
-    <row r="340" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" s="19"/>
       <c r="B340" s="4"/>
       <c r="C340" s="11"/>
@@ -9118,7 +10028,7 @@
       <c r="K340" s="2"/>
       <c r="L340" s="13"/>
     </row>
-    <row r="341" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341" s="19"/>
       <c r="B341" s="4"/>
       <c r="C341" s="11"/>
@@ -9132,7 +10042,7 @@
       <c r="K341" s="2"/>
       <c r="L341" s="13"/>
     </row>
-    <row r="342" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" s="19"/>
       <c r="B342" s="4"/>
       <c r="C342" s="11"/>
@@ -9146,7 +10056,7 @@
       <c r="K342" s="2"/>
       <c r="L342" s="13"/>
     </row>
-    <row r="343" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" s="19"/>
       <c r="B343" s="4"/>
       <c r="C343" s="11"/>
@@ -9160,7 +10070,7 @@
       <c r="K343" s="2"/>
       <c r="L343" s="13"/>
     </row>
-    <row r="344" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344" s="19"/>
       <c r="B344" s="4"/>
       <c r="C344" s="11"/>
@@ -9174,7 +10084,7 @@
       <c r="K344" s="2"/>
       <c r="L344" s="13"/>
     </row>
-    <row r="345" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" s="19"/>
       <c r="B345" s="4"/>
       <c r="C345" s="11"/>
@@ -9188,7 +10098,7 @@
       <c r="K345" s="2"/>
       <c r="L345" s="13"/>
     </row>
-    <row r="346" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346" s="19"/>
       <c r="B346" s="4"/>
       <c r="C346" s="11"/>
@@ -9202,7 +10112,7 @@
       <c r="K346" s="2"/>
       <c r="L346" s="13"/>
     </row>
-    <row r="347" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" s="19"/>
       <c r="B347" s="4"/>
       <c r="C347" s="11"/>
@@ -9216,7 +10126,7 @@
       <c r="K347" s="2"/>
       <c r="L347" s="13"/>
     </row>
-    <row r="348" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" s="19"/>
       <c r="B348" s="4"/>
       <c r="C348" s="11"/>
@@ -9230,7 +10140,7 @@
       <c r="K348" s="2"/>
       <c r="L348" s="13"/>
     </row>
-    <row r="349" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" s="19"/>
       <c r="B349" s="4"/>
       <c r="C349" s="11"/>
@@ -9244,7 +10154,7 @@
       <c r="K349" s="2"/>
       <c r="L349" s="13"/>
     </row>
-    <row r="350" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" s="19"/>
       <c r="B350" s="4"/>
       <c r="C350" s="11"/>
@@ -9258,7 +10168,7 @@
       <c r="K350" s="2"/>
       <c r="L350" s="13"/>
     </row>
-    <row r="351" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" s="19"/>
       <c r="B351" s="4"/>
       <c r="C351" s="11"/>
@@ -9272,7 +10182,7 @@
       <c r="K351" s="2"/>
       <c r="L351" s="13"/>
     </row>
-    <row r="352" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352" s="19"/>
       <c r="B352" s="4"/>
       <c r="C352" s="11"/>
@@ -9286,7 +10196,7 @@
       <c r="K352" s="2"/>
       <c r="L352" s="13"/>
     </row>
-    <row r="353" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" s="19"/>
       <c r="B353" s="4"/>
       <c r="C353" s="11"/>
@@ -9300,7 +10210,7 @@
       <c r="K353" s="2"/>
       <c r="L353" s="13"/>
     </row>
-    <row r="354" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354" s="19"/>
       <c r="B354" s="4"/>
       <c r="C354" s="11"/>
@@ -9314,7 +10224,7 @@
       <c r="K354" s="2"/>
       <c r="L354" s="13"/>
     </row>
-    <row r="355" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" s="19"/>
       <c r="B355" s="4"/>
       <c r="C355" s="11"/>
@@ -9328,7 +10238,7 @@
       <c r="K355" s="2"/>
       <c r="L355" s="13"/>
     </row>
-    <row r="356" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" s="19"/>
       <c r="B356" s="4"/>
       <c r="C356" s="11"/>
@@ -9342,7 +10252,7 @@
       <c r="K356" s="2"/>
       <c r="L356" s="13"/>
     </row>
-    <row r="357" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" s="19"/>
       <c r="B357" s="4"/>
       <c r="C357" s="11"/>
@@ -9356,7 +10266,7 @@
       <c r="K357" s="2"/>
       <c r="L357" s="13"/>
     </row>
-    <row r="358" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" s="19"/>
       <c r="B358" s="4"/>
       <c r="C358" s="11"/>
@@ -9370,7 +10280,7 @@
       <c r="K358" s="2"/>
       <c r="L358" s="13"/>
     </row>
-    <row r="359" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" s="19"/>
       <c r="B359" s="4"/>
       <c r="C359" s="11"/>
@@ -9384,7 +10294,7 @@
       <c r="K359" s="2"/>
       <c r="L359" s="13"/>
     </row>
-    <row r="360" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" s="19"/>
       <c r="B360" s="4"/>
       <c r="C360" s="11"/>
@@ -9398,7 +10308,7 @@
       <c r="K360" s="2"/>
       <c r="L360" s="13"/>
     </row>
-    <row r="361" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" s="19"/>
       <c r="B361" s="4"/>
       <c r="C361" s="11"/>
@@ -9412,7 +10322,7 @@
       <c r="K361" s="2"/>
       <c r="L361" s="13"/>
     </row>
-    <row r="362" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" s="19"/>
       <c r="B362" s="4"/>
       <c r="C362" s="11"/>
@@ -9426,7 +10336,7 @@
       <c r="K362" s="2"/>
       <c r="L362" s="13"/>
     </row>
-    <row r="363" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" s="19"/>
       <c r="B363" s="4"/>
       <c r="C363" s="11"/>
@@ -9440,7 +10350,7 @@
       <c r="K363" s="2"/>
       <c r="L363" s="13"/>
     </row>
-    <row r="364" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" s="19"/>
       <c r="B364" s="4"/>
       <c r="C364" s="11"/>
@@ -9454,7 +10364,7 @@
       <c r="K364" s="2"/>
       <c r="L364" s="13"/>
     </row>
-    <row r="365" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" s="19"/>
       <c r="B365" s="4"/>
       <c r="C365" s="11"/>
@@ -9468,7 +10378,7 @@
       <c r="K365" s="2"/>
       <c r="L365" s="13"/>
     </row>
-    <row r="366" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" s="19"/>
       <c r="B366" s="4"/>
       <c r="C366" s="11"/>
@@ -9482,7 +10392,7 @@
       <c r="K366" s="2"/>
       <c r="L366" s="13"/>
     </row>
-    <row r="367" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" s="19"/>
       <c r="B367" s="4"/>
       <c r="C367" s="11"/>
@@ -9496,7 +10406,7 @@
       <c r="K367" s="2"/>
       <c r="L367" s="13"/>
     </row>
-    <row r="368" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" s="19"/>
       <c r="B368" s="4"/>
       <c r="C368" s="11"/>
@@ -9510,7 +10420,7 @@
       <c r="K368" s="2"/>
       <c r="L368" s="13"/>
     </row>
-    <row r="369" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" s="19"/>
       <c r="B369" s="4"/>
       <c r="C369" s="11"/>
@@ -9524,7 +10434,7 @@
       <c r="K369" s="2"/>
       <c r="L369" s="13"/>
     </row>
-    <row r="370" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" s="19"/>
       <c r="B370" s="4"/>
       <c r="C370" s="11"/>
@@ -9538,7 +10448,7 @@
       <c r="K370" s="2"/>
       <c r="L370" s="13"/>
     </row>
-    <row r="371" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371" s="19"/>
       <c r="B371" s="4"/>
       <c r="C371" s="11"/>
@@ -9552,7 +10462,7 @@
       <c r="K371" s="2"/>
       <c r="L371" s="13"/>
     </row>
-    <row r="372" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372" s="19"/>
       <c r="B372" s="4"/>
       <c r="C372" s="11"/>
@@ -9566,7 +10476,7 @@
       <c r="K372" s="2"/>
       <c r="L372" s="13"/>
     </row>
-    <row r="373" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" s="19"/>
       <c r="B373" s="4"/>
       <c r="C373" s="11"/>
@@ -9580,7 +10490,7 @@
       <c r="K373" s="2"/>
       <c r="L373" s="13"/>
     </row>
-    <row r="374" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374" s="19"/>
       <c r="B374" s="4"/>
       <c r="C374" s="11"/>
@@ -9594,7 +10504,7 @@
       <c r="K374" s="2"/>
       <c r="L374" s="13"/>
     </row>
-    <row r="375" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375" s="19"/>
       <c r="B375" s="4"/>
       <c r="C375" s="11"/>
@@ -9608,7 +10518,7 @@
       <c r="K375" s="2"/>
       <c r="L375" s="13"/>
     </row>
-    <row r="376" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376" s="19"/>
       <c r="B376" s="4"/>
       <c r="C376" s="11"/>
@@ -9622,7 +10532,7 @@
       <c r="K376" s="2"/>
       <c r="L376" s="13"/>
     </row>
-    <row r="377" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" s="19"/>
       <c r="B377" s="4"/>
       <c r="C377" s="11"/>
@@ -9636,7 +10546,7 @@
       <c r="K377" s="2"/>
       <c r="L377" s="13"/>
     </row>
-    <row r="378" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378" s="19"/>
       <c r="B378" s="4"/>
       <c r="C378" s="11"/>
@@ -9650,7 +10560,7 @@
       <c r="K378" s="2"/>
       <c r="L378" s="13"/>
     </row>
-    <row r="379" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" s="19"/>
       <c r="B379" s="4"/>
       <c r="C379" s="11"/>
@@ -9664,7 +10574,7 @@
       <c r="K379" s="2"/>
       <c r="L379" s="13"/>
     </row>
-    <row r="380" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380" s="19"/>
       <c r="B380" s="4"/>
       <c r="C380" s="11"/>
@@ -9678,7 +10588,7 @@
       <c r="K380" s="2"/>
       <c r="L380" s="13"/>
     </row>
-    <row r="381" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381" s="19"/>
       <c r="B381" s="4"/>
       <c r="C381" s="11"/>
@@ -9692,7 +10602,7 @@
       <c r="K381" s="2"/>
       <c r="L381" s="13"/>
     </row>
-    <row r="382" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382" s="19"/>
       <c r="B382" s="4"/>
       <c r="C382" s="11"/>
@@ -9706,7 +10616,7 @@
       <c r="K382" s="2"/>
       <c r="L382" s="13"/>
     </row>
-    <row r="383" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383" s="19"/>
       <c r="B383" s="4"/>
       <c r="C383" s="11"/>
@@ -9720,7 +10630,7 @@
       <c r="K383" s="2"/>
       <c r="L383" s="13"/>
     </row>
-    <row r="384" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384" s="19"/>
       <c r="B384" s="4"/>
       <c r="C384" s="11"/>
@@ -9734,7 +10644,7 @@
       <c r="K384" s="2"/>
       <c r="L384" s="13"/>
     </row>
-    <row r="385" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385" s="19"/>
       <c r="B385" s="4"/>
       <c r="C385" s="11"/>
@@ -9748,7 +10658,7 @@
       <c r="K385" s="2"/>
       <c r="L385" s="13"/>
     </row>
-    <row r="386" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386" s="19"/>
       <c r="B386" s="4"/>
       <c r="C386" s="11"/>
@@ -9762,7 +10672,7 @@
       <c r="K386" s="2"/>
       <c r="L386" s="13"/>
     </row>
-    <row r="387" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387" s="19"/>
       <c r="B387" s="4"/>
       <c r="C387" s="11"/>
@@ -9776,7 +10686,7 @@
       <c r="K387" s="2"/>
       <c r="L387" s="13"/>
     </row>
-    <row r="388" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388" s="19"/>
       <c r="B388" s="4"/>
       <c r="C388" s="11"/>
@@ -9790,7 +10700,7 @@
       <c r="K388" s="2"/>
       <c r="L388" s="13"/>
     </row>
-    <row r="389" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389" s="19"/>
       <c r="B389" s="4"/>
       <c r="C389" s="11"/>
@@ -9804,7 +10714,7 @@
       <c r="K389" s="2"/>
       <c r="L389" s="13"/>
     </row>
-    <row r="390" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390" s="19"/>
       <c r="B390" s="4"/>
       <c r="C390" s="11"/>
@@ -9818,7 +10728,7 @@
       <c r="K390" s="2"/>
       <c r="L390" s="13"/>
     </row>
-    <row r="391" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391" s="19"/>
       <c r="B391" s="4"/>
       <c r="C391" s="11"/>
@@ -9832,7 +10742,7 @@
       <c r="K391" s="2"/>
       <c r="L391" s="13"/>
     </row>
-    <row r="392" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392" s="19"/>
       <c r="B392" s="4"/>
       <c r="C392" s="11"/>
@@ -9846,7 +10756,7 @@
       <c r="K392" s="2"/>
       <c r="L392" s="13"/>
     </row>
-    <row r="393" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393" s="19"/>
       <c r="B393" s="4"/>
       <c r="C393" s="11"/>
@@ -9860,7 +10770,7 @@
       <c r="K393" s="2"/>
       <c r="L393" s="13"/>
     </row>
-    <row r="394" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394" s="19"/>
       <c r="B394" s="4"/>
       <c r="C394" s="11"/>
@@ -9874,7 +10784,7 @@
       <c r="K394" s="2"/>
       <c r="L394" s="13"/>
     </row>
-    <row r="395" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395" s="19"/>
       <c r="B395" s="4"/>
       <c r="C395" s="11"/>
@@ -9888,7 +10798,7 @@
       <c r="K395" s="2"/>
       <c r="L395" s="13"/>
     </row>
-    <row r="396" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396" s="19"/>
       <c r="B396" s="4"/>
       <c r="C396" s="11"/>
@@ -9902,7 +10812,7 @@
       <c r="K396" s="2"/>
       <c r="L396" s="13"/>
     </row>
-    <row r="397" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397" s="19"/>
       <c r="B397" s="4"/>
       <c r="C397" s="11"/>
@@ -9916,7 +10826,7 @@
       <c r="K397" s="2"/>
       <c r="L397" s="13"/>
     </row>
-    <row r="398" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398" s="19"/>
       <c r="B398" s="4"/>
       <c r="C398" s="11"/>
@@ -9930,7 +10840,7 @@
       <c r="K398" s="2"/>
       <c r="L398" s="13"/>
     </row>
-    <row r="399" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399" s="19"/>
       <c r="B399" s="4"/>
       <c r="C399" s="11"/>
@@ -9944,7 +10854,7 @@
       <c r="K399" s="2"/>
       <c r="L399" s="13"/>
     </row>
-    <row r="400" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400" s="19"/>
       <c r="B400" s="4"/>
       <c r="C400" s="11"/>
@@ -9958,7 +10868,7 @@
       <c r="K400" s="2"/>
       <c r="L400" s="13"/>
     </row>
-    <row r="401" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401" s="19"/>
       <c r="B401" s="4"/>
       <c r="C401" s="11"/>
@@ -9972,7 +10882,7 @@
       <c r="K401" s="2"/>
       <c r="L401" s="13"/>
     </row>
-    <row r="402" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402" s="19"/>
       <c r="B402" s="4"/>
       <c r="C402" s="11"/>
@@ -9986,7 +10896,7 @@
       <c r="K402" s="2"/>
       <c r="L402" s="13"/>
     </row>
-    <row r="403" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403" s="19"/>
       <c r="B403" s="4"/>
       <c r="C403" s="11"/>
@@ -10000,7 +10910,7 @@
       <c r="K403" s="2"/>
       <c r="L403" s="13"/>
     </row>
-    <row r="404" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A404" s="19"/>
       <c r="B404" s="4"/>
       <c r="C404" s="11"/>
@@ -10014,7 +10924,7 @@
       <c r="K404" s="2"/>
       <c r="L404" s="13"/>
     </row>
-    <row r="405" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405" s="19"/>
       <c r="B405" s="4"/>
       <c r="C405" s="11"/>
@@ -10028,7 +10938,7 @@
       <c r="K405" s="2"/>
       <c r="L405" s="13"/>
     </row>
-    <row r="406" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A406" s="19"/>
       <c r="B406" s="4"/>
       <c r="C406" s="11"/>
@@ -10042,7 +10952,7 @@
       <c r="K406" s="2"/>
       <c r="L406" s="13"/>
     </row>
-    <row r="407" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407" s="19"/>
       <c r="B407" s="4"/>
       <c r="C407" s="11"/>
@@ -10056,7 +10966,7 @@
       <c r="K407" s="2"/>
       <c r="L407" s="13"/>
     </row>
-    <row r="408" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408" s="19"/>
       <c r="B408" s="4"/>
       <c r="C408" s="11"/>
@@ -10070,7 +10980,7 @@
       <c r="K408" s="2"/>
       <c r="L408" s="13"/>
     </row>
-    <row r="409" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409" s="19"/>
       <c r="B409" s="4"/>
       <c r="C409" s="11"/>
@@ -10084,7 +10994,7 @@
       <c r="K409" s="2"/>
       <c r="L409" s="13"/>
     </row>
-    <row r="410" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A410" s="19"/>
       <c r="B410" s="4"/>
       <c r="C410" s="11"/>
@@ -10098,7 +11008,7 @@
       <c r="K410" s="2"/>
       <c r="L410" s="13"/>
     </row>
-    <row r="411" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411" s="19"/>
       <c r="B411" s="4"/>
       <c r="C411" s="11"/>
@@ -10112,7 +11022,7 @@
       <c r="K411" s="2"/>
       <c r="L411" s="13"/>
     </row>
-    <row r="412" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A412" s="19"/>
       <c r="B412" s="4"/>
       <c r="C412" s="11"/>
@@ -10126,7 +11036,7 @@
       <c r="K412" s="2"/>
       <c r="L412" s="13"/>
     </row>
-    <row r="413" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413" s="19"/>
       <c r="B413" s="4"/>
       <c r="C413" s="11"/>
@@ -10140,7 +11050,7 @@
       <c r="K413" s="2"/>
       <c r="L413" s="13"/>
     </row>
-    <row r="414" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A414" s="19"/>
       <c r="B414" s="4"/>
       <c r="C414" s="11"/>
@@ -10154,7 +11064,7 @@
       <c r="K414" s="2"/>
       <c r="L414" s="13"/>
     </row>
-    <row r="415" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A415" s="19"/>
       <c r="B415" s="4"/>
       <c r="C415" s="11"/>
@@ -10168,7 +11078,7 @@
       <c r="K415" s="2"/>
       <c r="L415" s="13"/>
     </row>
-    <row r="416" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A416" s="19"/>
       <c r="B416" s="4"/>
       <c r="C416" s="11"/>
@@ -10182,7 +11092,7 @@
       <c r="K416" s="2"/>
       <c r="L416" s="13"/>
     </row>
-    <row r="417" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="417" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A417" s="19"/>
       <c r="B417" s="4"/>
       <c r="C417" s="11"/>
@@ -10196,7 +11106,7 @@
       <c r="K417" s="2"/>
       <c r="L417" s="13"/>
     </row>
-    <row r="418" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A418" s="19"/>
       <c r="B418" s="4"/>
       <c r="C418" s="11"/>
@@ -10210,7 +11120,7 @@
       <c r="K418" s="2"/>
       <c r="L418" s="13"/>
     </row>
-    <row r="419" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="419" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A419" s="19"/>
       <c r="B419" s="4"/>
       <c r="C419" s="11"/>
@@ -10224,7 +11134,7 @@
       <c r="K419" s="2"/>
       <c r="L419" s="13"/>
     </row>
-    <row r="420" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="420" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A420" s="19"/>
       <c r="B420" s="4"/>
       <c r="C420" s="11"/>
@@ -10238,7 +11148,7 @@
       <c r="K420" s="2"/>
       <c r="L420" s="13"/>
     </row>
-    <row r="421" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A421" s="19"/>
       <c r="B421" s="4"/>
       <c r="C421" s="11"/>
@@ -10252,7 +11162,7 @@
       <c r="K421" s="2"/>
       <c r="L421" s="13"/>
     </row>
-    <row r="422" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A422" s="19"/>
       <c r="B422" s="4"/>
       <c r="C422" s="11"/>
@@ -10266,7 +11176,7 @@
       <c r="K422" s="2"/>
       <c r="L422" s="13"/>
     </row>
-    <row r="423" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A423" s="19"/>
       <c r="B423" s="4"/>
       <c r="C423" s="11"/>
@@ -10280,7 +11190,7 @@
       <c r="K423" s="2"/>
       <c r="L423" s="13"/>
     </row>
-    <row r="424" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A424" s="19"/>
       <c r="B424" s="4"/>
       <c r="C424" s="11"/>
@@ -10294,7 +11204,7 @@
       <c r="K424" s="2"/>
       <c r="L424" s="13"/>
     </row>
-    <row r="425" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A425" s="19"/>
       <c r="B425" s="4"/>
       <c r="C425" s="11"/>
@@ -10308,7 +11218,7 @@
       <c r="K425" s="2"/>
       <c r="L425" s="13"/>
     </row>
-    <row r="426" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A426" s="19"/>
       <c r="B426" s="4"/>
       <c r="C426" s="11"/>
@@ -10322,7 +11232,7 @@
       <c r="K426" s="2"/>
       <c r="L426" s="13"/>
     </row>
-    <row r="427" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A427" s="19"/>
       <c r="B427" s="4"/>
       <c r="C427" s="11"/>
@@ -10336,7 +11246,7 @@
       <c r="K427" s="2"/>
       <c r="L427" s="13"/>
     </row>
-    <row r="428" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A428" s="19"/>
       <c r="B428" s="4"/>
       <c r="C428" s="11"/>
@@ -10350,7 +11260,7 @@
       <c r="K428" s="2"/>
       <c r="L428" s="13"/>
     </row>
-    <row r="429" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="429" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A429" s="19"/>
       <c r="B429" s="4"/>
       <c r="C429" s="11"/>
@@ -10364,7 +11274,7 @@
       <c r="K429" s="2"/>
       <c r="L429" s="13"/>
     </row>
-    <row r="430" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A430" s="19"/>
       <c r="B430" s="4"/>
       <c r="C430" s="11"/>
@@ -10378,7 +11288,7 @@
       <c r="K430" s="2"/>
       <c r="L430" s="13"/>
     </row>
-    <row r="431" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A431" s="19"/>
       <c r="B431" s="4"/>
       <c r="C431" s="11"/>
@@ -10392,7 +11302,7 @@
       <c r="K431" s="2"/>
       <c r="L431" s="13"/>
     </row>
-    <row r="432" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A432" s="19"/>
       <c r="B432" s="4"/>
       <c r="C432" s="11"/>
@@ -10406,7 +11316,7 @@
       <c r="K432" s="2"/>
       <c r="L432" s="13"/>
     </row>
-    <row r="433" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433" s="19"/>
       <c r="B433" s="4"/>
       <c r="C433" s="11"/>
@@ -10420,7 +11330,7 @@
       <c r="K433" s="2"/>
       <c r="L433" s="13"/>
     </row>
-    <row r="434" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434" s="19"/>
       <c r="B434" s="4"/>
       <c r="C434" s="11"/>
@@ -10434,7 +11344,7 @@
       <c r="K434" s="2"/>
       <c r="L434" s="13"/>
     </row>
-    <row r="435" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435" s="19"/>
       <c r="B435" s="4"/>
       <c r="C435" s="11"/>
@@ -10448,7 +11358,7 @@
       <c r="K435" s="2"/>
       <c r="L435" s="13"/>
     </row>
-    <row r="436" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436" s="19"/>
       <c r="B436" s="4"/>
       <c r="C436" s="11"/>
@@ -10462,7 +11372,7 @@
       <c r="K436" s="2"/>
       <c r="L436" s="13"/>
     </row>
-    <row r="437" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437" s="19"/>
       <c r="B437" s="4"/>
       <c r="C437" s="11"/>
@@ -10476,7 +11386,7 @@
       <c r="K437" s="2"/>
       <c r="L437" s="13"/>
     </row>
-    <row r="438" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438" s="19"/>
       <c r="B438" s="4"/>
       <c r="C438" s="11"/>
@@ -10490,7 +11400,7 @@
       <c r="K438" s="2"/>
       <c r="L438" s="13"/>
     </row>
-    <row r="439" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" s="19"/>
       <c r="B439" s="4"/>
       <c r="C439" s="11"/>
@@ -10504,7 +11414,7 @@
       <c r="K439" s="2"/>
       <c r="L439" s="13"/>
     </row>
-    <row r="440" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440" s="19"/>
       <c r="B440" s="4"/>
       <c r="C440" s="11"/>
@@ -10518,7 +11428,7 @@
       <c r="K440" s="2"/>
       <c r="L440" s="13"/>
     </row>
-    <row r="441" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441" s="19"/>
       <c r="B441" s="4"/>
       <c r="C441" s="11"/>
@@ -10532,7 +11442,7 @@
       <c r="K441" s="2"/>
       <c r="L441" s="13"/>
     </row>
-    <row r="442" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442" s="19"/>
       <c r="B442" s="4"/>
       <c r="C442" s="11"/>
@@ -10546,7 +11456,7 @@
       <c r="K442" s="2"/>
       <c r="L442" s="13"/>
     </row>
-    <row r="443" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443" s="19"/>
       <c r="B443" s="4"/>
       <c r="C443" s="11"/>
@@ -10560,7 +11470,7 @@
       <c r="K443" s="2"/>
       <c r="L443" s="13"/>
     </row>
-    <row r="444" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A444" s="19"/>
       <c r="B444" s="4"/>
       <c r="C444" s="11"/>
@@ -10574,7 +11484,7 @@
       <c r="K444" s="2"/>
       <c r="L444" s="13"/>
     </row>
-    <row r="445" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445" s="19"/>
       <c r="B445" s="4"/>
       <c r="C445" s="11"/>
@@ -10588,7 +11498,7 @@
       <c r="K445" s="2"/>
       <c r="L445" s="13"/>
     </row>
-    <row r="446" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A446" s="19"/>
       <c r="B446" s="4"/>
       <c r="C446" s="11"/>
@@ -10602,7 +11512,7 @@
       <c r="K446" s="2"/>
       <c r="L446" s="13"/>
     </row>
-    <row r="447" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447" s="19"/>
       <c r="B447" s="4"/>
       <c r="C447" s="11"/>
@@ -10616,7 +11526,7 @@
       <c r="K447" s="2"/>
       <c r="L447" s="13"/>
     </row>
-    <row r="448" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A448" s="19"/>
       <c r="B448" s="4"/>
       <c r="C448" s="11"/>
@@ -10630,7 +11540,7 @@
       <c r="K448" s="2"/>
       <c r="L448" s="13"/>
     </row>
-    <row r="449" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="449" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A449" s="19"/>
       <c r="B449" s="4"/>
       <c r="C449" s="11"/>
@@ -10644,7 +11554,7 @@
       <c r="K449" s="2"/>
       <c r="L449" s="13"/>
     </row>
-    <row r="450" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="450" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A450" s="19"/>
       <c r="B450" s="4"/>
       <c r="C450" s="11"/>
@@ -10658,7 +11568,7 @@
       <c r="K450" s="2"/>
       <c r="L450" s="13"/>
     </row>
-    <row r="451" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="451" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A451" s="19"/>
       <c r="B451" s="4"/>
       <c r="C451" s="11"/>
@@ -10672,7 +11582,7 @@
       <c r="K451" s="2"/>
       <c r="L451" s="13"/>
     </row>
-    <row r="452" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="452" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A452" s="19"/>
       <c r="B452" s="4"/>
       <c r="C452" s="11"/>
@@ -10686,7 +11596,7 @@
       <c r="K452" s="2"/>
       <c r="L452" s="13"/>
     </row>
-    <row r="453" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="453" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A453" s="19"/>
       <c r="B453" s="4"/>
       <c r="C453" s="11"/>
@@ -10700,7 +11610,7 @@
       <c r="K453" s="2"/>
       <c r="L453" s="13"/>
     </row>
-    <row r="454" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="454" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A454" s="19"/>
       <c r="B454" s="4"/>
       <c r="C454" s="11"/>
@@ -10714,7 +11624,7 @@
       <c r="K454" s="2"/>
       <c r="L454" s="13"/>
     </row>
-    <row r="455" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="455" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A455" s="19"/>
       <c r="B455" s="4"/>
       <c r="C455" s="11"/>
@@ -10728,7 +11638,7 @@
       <c r="K455" s="2"/>
       <c r="L455" s="13"/>
     </row>
-    <row r="456" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A456" s="19"/>
       <c r="B456" s="4"/>
       <c r="C456" s="11"/>
@@ -10742,7 +11652,7 @@
       <c r="K456" s="2"/>
       <c r="L456" s="13"/>
     </row>
-    <row r="457" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457" s="19"/>
       <c r="B457" s="4"/>
       <c r="C457" s="11"/>
@@ -10756,7 +11666,7 @@
       <c r="K457" s="2"/>
       <c r="L457" s="13"/>
     </row>
-    <row r="458" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="458" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A458" s="19"/>
       <c r="B458" s="4"/>
       <c r="C458" s="11"/>
@@ -10770,7 +11680,7 @@
       <c r="K458" s="2"/>
       <c r="L458" s="13"/>
     </row>
-    <row r="459" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="459" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A459" s="19"/>
       <c r="B459" s="4"/>
       <c r="C459" s="11"/>
@@ -10784,7 +11694,7 @@
       <c r="K459" s="2"/>
       <c r="L459" s="13"/>
     </row>
-    <row r="460" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="460" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A460" s="19"/>
       <c r="B460" s="4"/>
       <c r="C460" s="11"/>
@@ -10798,7 +11708,7 @@
       <c r="K460" s="2"/>
       <c r="L460" s="13"/>
     </row>
-    <row r="461" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="461" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A461" s="19"/>
       <c r="B461" s="4"/>
       <c r="C461" s="11"/>
@@ -10812,7 +11722,7 @@
       <c r="K461" s="2"/>
       <c r="L461" s="13"/>
     </row>
-    <row r="462" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="462" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A462" s="19"/>
       <c r="B462" s="4"/>
       <c r="C462" s="11"/>
@@ -10826,7 +11736,7 @@
       <c r="K462" s="2"/>
       <c r="L462" s="13"/>
     </row>
-    <row r="463" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="463" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A463" s="19"/>
       <c r="B463" s="4"/>
       <c r="C463" s="11"/>
@@ -10840,7 +11750,7 @@
       <c r="K463" s="2"/>
       <c r="L463" s="13"/>
     </row>
-    <row r="464" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="464" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A464" s="19"/>
       <c r="B464" s="4"/>
       <c r="C464" s="11"/>
@@ -10854,7 +11764,7 @@
       <c r="K464" s="2"/>
       <c r="L464" s="13"/>
     </row>
-    <row r="465" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="465" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A465" s="19"/>
       <c r="B465" s="4"/>
       <c r="C465" s="11"/>
@@ -10868,7 +11778,7 @@
       <c r="K465" s="2"/>
       <c r="L465" s="13"/>
     </row>
-    <row r="466" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="466" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A466" s="19"/>
       <c r="B466" s="4"/>
       <c r="C466" s="11"/>
@@ -10882,7 +11792,7 @@
       <c r="K466" s="2"/>
       <c r="L466" s="13"/>
     </row>
-    <row r="467" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="467" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A467" s="19"/>
       <c r="B467" s="4"/>
       <c r="C467" s="11"/>
@@ -10896,7 +11806,7 @@
       <c r="K467" s="2"/>
       <c r="L467" s="13"/>
     </row>
-    <row r="468" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="468" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A468" s="19"/>
       <c r="B468" s="4"/>
       <c r="C468" s="11"/>
@@ -10910,7 +11820,7 @@
       <c r="K468" s="2"/>
       <c r="L468" s="13"/>
     </row>
-    <row r="469" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A469" s="19"/>
       <c r="B469" s="4"/>
       <c r="C469" s="11"/>
@@ -10924,7 +11834,7 @@
       <c r="K469" s="2"/>
       <c r="L469" s="13"/>
     </row>
-    <row r="470" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A470" s="19"/>
       <c r="B470" s="4"/>
       <c r="C470" s="11"/>
@@ -10938,7 +11848,7 @@
       <c r="K470" s="2"/>
       <c r="L470" s="13"/>
     </row>
-    <row r="471" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="471" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A471" s="19"/>
       <c r="B471" s="4"/>
       <c r="C471" s="11"/>
@@ -10952,7 +11862,7 @@
       <c r="K471" s="2"/>
       <c r="L471" s="13"/>
     </row>
-    <row r="472" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="472" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A472" s="19"/>
       <c r="B472" s="4"/>
       <c r="C472" s="11"/>
@@ -10966,7 +11876,7 @@
       <c r="K472" s="2"/>
       <c r="L472" s="13"/>
     </row>
-    <row r="473" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="473" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A473" s="19"/>
       <c r="B473" s="4"/>
       <c r="C473" s="11"/>
@@ -10980,7 +11890,7 @@
       <c r="K473" s="2"/>
       <c r="L473" s="13"/>
     </row>
-    <row r="474" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="474" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A474" s="19"/>
       <c r="B474" s="4"/>
       <c r="C474" s="11"/>
@@ -10994,7 +11904,7 @@
       <c r="K474" s="2"/>
       <c r="L474" s="13"/>
     </row>
-    <row r="475" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="475" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A475" s="19"/>
       <c r="B475" s="4"/>
       <c r="C475" s="11"/>
@@ -11008,7 +11918,7 @@
       <c r="K475" s="2"/>
       <c r="L475" s="13"/>
     </row>
-    <row r="476" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="476" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A476" s="19"/>
       <c r="B476" s="4"/>
       <c r="C476" s="11"/>
@@ -11022,7 +11932,7 @@
       <c r="K476" s="2"/>
       <c r="L476" s="13"/>
     </row>
-    <row r="477" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="477" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A477" s="19"/>
       <c r="B477" s="4"/>
       <c r="C477" s="11"/>
@@ -11036,7 +11946,7 @@
       <c r="K477" s="2"/>
       <c r="L477" s="13"/>
     </row>
-    <row r="478" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="478" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A478" s="19"/>
       <c r="B478" s="4"/>
       <c r="C478" s="11"/>
@@ -11050,7 +11960,7 @@
       <c r="K478" s="2"/>
       <c r="L478" s="13"/>
     </row>
-    <row r="479" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="479" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A479" s="19"/>
       <c r="B479" s="4"/>
       <c r="C479" s="11"/>
@@ -11064,7 +11974,7 @@
       <c r="K479" s="2"/>
       <c r="L479" s="13"/>
     </row>
-    <row r="480" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="480" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A480" s="19"/>
       <c r="B480" s="4"/>
       <c r="C480" s="11"/>
@@ -11078,7 +11988,7 @@
       <c r="K480" s="2"/>
       <c r="L480" s="13"/>
     </row>
-    <row r="481" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="481" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A481" s="19"/>
       <c r="B481" s="4"/>
       <c r="C481" s="11"/>
@@ -11092,7 +12002,7 @@
       <c r="K481" s="2"/>
       <c r="L481" s="13"/>
     </row>
-    <row r="482" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="482" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A482" s="19"/>
       <c r="B482" s="4"/>
       <c r="C482" s="11"/>
@@ -11106,7 +12016,7 @@
       <c r="K482" s="2"/>
       <c r="L482" s="13"/>
     </row>
-    <row r="483" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="483" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A483" s="19"/>
       <c r="B483" s="4"/>
       <c r="C483" s="11"/>
@@ -11120,7 +12030,7 @@
       <c r="K483" s="2"/>
       <c r="L483" s="13"/>
     </row>
-    <row r="484" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="484" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A484" s="19"/>
       <c r="B484" s="4"/>
       <c r="C484" s="11"/>
@@ -11134,7 +12044,7 @@
       <c r="K484" s="2"/>
       <c r="L484" s="13"/>
     </row>
-    <row r="485" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="485" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A485" s="19"/>
       <c r="B485" s="4"/>
       <c r="C485" s="11"/>
@@ -11148,7 +12058,7 @@
       <c r="K485" s="2"/>
       <c r="L485" s="13"/>
     </row>
-    <row r="486" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="486" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A486" s="19"/>
       <c r="B486" s="4"/>
       <c r="C486" s="11"/>
@@ -11162,7 +12072,7 @@
       <c r="K486" s="2"/>
       <c r="L486" s="13"/>
     </row>
-    <row r="487" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="487" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A487" s="19"/>
       <c r="B487" s="4"/>
       <c r="C487" s="11"/>
@@ -11176,7 +12086,7 @@
       <c r="K487" s="2"/>
       <c r="L487" s="13"/>
     </row>
-    <row r="488" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="488" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A488" s="19"/>
       <c r="B488" s="4"/>
       <c r="C488" s="11"/>
@@ -11190,7 +12100,7 @@
       <c r="K488" s="2"/>
       <c r="L488" s="13"/>
     </row>
-    <row r="489" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="489" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A489" s="19"/>
       <c r="B489" s="4"/>
       <c r="C489" s="11"/>
@@ -11204,7 +12114,7 @@
       <c r="K489" s="2"/>
       <c r="L489" s="13"/>
     </row>
-    <row r="490" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="490" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A490" s="19"/>
       <c r="B490" s="4"/>
       <c r="C490" s="11"/>
@@ -11218,7 +12128,7 @@
       <c r="K490" s="2"/>
       <c r="L490" s="13"/>
     </row>
-    <row r="491" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="491" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A491" s="19"/>
       <c r="B491" s="4"/>
       <c r="C491" s="11"/>
@@ -11232,7 +12142,7 @@
       <c r="K491" s="2"/>
       <c r="L491" s="13"/>
     </row>
-    <row r="492" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="492" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A492" s="19"/>
       <c r="B492" s="4"/>
       <c r="C492" s="11"/>
@@ -11246,7 +12156,7 @@
       <c r="K492" s="2"/>
       <c r="L492" s="13"/>
     </row>
-    <row r="493" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="493" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A493" s="19"/>
       <c r="B493" s="4"/>
       <c r="C493" s="11"/>
@@ -11260,7 +12170,7 @@
       <c r="K493" s="2"/>
       <c r="L493" s="13"/>
     </row>
-    <row r="494" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="494" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A494" s="19"/>
       <c r="B494" s="4"/>
       <c r="C494" s="11"/>
@@ -11274,7 +12184,7 @@
       <c r="K494" s="2"/>
       <c r="L494" s="13"/>
     </row>
-    <row r="495" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="495" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A495" s="19"/>
       <c r="B495" s="4"/>
       <c r="C495" s="11"/>
@@ -11288,7 +12198,7 @@
       <c r="K495" s="2"/>
       <c r="L495" s="13"/>
     </row>
-    <row r="496" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="496" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A496" s="19"/>
       <c r="B496" s="4"/>
       <c r="C496" s="11"/>
@@ -11302,7 +12212,7 @@
       <c r="K496" s="2"/>
       <c r="L496" s="13"/>
     </row>
-    <row r="497" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="497" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A497" s="19"/>
       <c r="B497" s="4"/>
       <c r="C497" s="11"/>
@@ -11316,7 +12226,7 @@
       <c r="K497" s="2"/>
       <c r="L497" s="13"/>
     </row>
-    <row r="498" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="498" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A498" s="19"/>
       <c r="B498" s="4"/>
       <c r="C498" s="11"/>
@@ -11330,7 +12240,7 @@
       <c r="K498" s="2"/>
       <c r="L498" s="13"/>
     </row>
-    <row r="499" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="499" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A499" s="19"/>
       <c r="B499" s="4"/>
       <c r="C499" s="11"/>
@@ -11344,7 +12254,7 @@
       <c r="K499" s="2"/>
       <c r="L499" s="13"/>
     </row>
-    <row r="500" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="500" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A500" s="19"/>
       <c r="B500" s="4"/>
       <c r="C500" s="11"/>
@@ -11358,7 +12268,7 @@
       <c r="K500" s="2"/>
       <c r="L500" s="13"/>
     </row>
-    <row r="501" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="501" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A501" s="19"/>
       <c r="B501" s="4"/>
       <c r="C501" s="11"/>
@@ -11372,7 +12282,7 @@
       <c r="K501" s="2"/>
       <c r="L501" s="13"/>
     </row>
-    <row r="502" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="502" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A502" s="19"/>
       <c r="B502" s="4"/>
       <c r="C502" s="11"/>
@@ -11386,7 +12296,7 @@
       <c r="K502" s="2"/>
       <c r="L502" s="13"/>
     </row>
-    <row r="503" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="503" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A503" s="19"/>
       <c r="B503" s="4"/>
       <c r="C503" s="11"/>
@@ -11400,7 +12310,7 @@
       <c r="K503" s="2"/>
       <c r="L503" s="13"/>
     </row>
-    <row r="504" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="504" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A504" s="19"/>
       <c r="B504" s="4"/>
       <c r="C504" s="11"/>
@@ -11414,7 +12324,7 @@
       <c r="K504" s="2"/>
       <c r="L504" s="13"/>
     </row>
-    <row r="505" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="505" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A505" s="19"/>
       <c r="B505" s="4"/>
       <c r="C505" s="11"/>
@@ -11428,7 +12338,7 @@
       <c r="K505" s="2"/>
       <c r="L505" s="13"/>
     </row>
-    <row r="506" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="506" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A506" s="19"/>
       <c r="B506" s="4"/>
       <c r="C506" s="11"/>
@@ -11442,7 +12352,7 @@
       <c r="K506" s="2"/>
       <c r="L506" s="13"/>
     </row>
-    <row r="507" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="507" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A507" s="19"/>
       <c r="B507" s="4"/>
       <c r="C507" s="11"/>
@@ -11456,7 +12366,7 @@
       <c r="K507" s="2"/>
       <c r="L507" s="13"/>
     </row>
-    <row r="508" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="508" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A508" s="19"/>
       <c r="B508" s="4"/>
       <c r="C508" s="11"/>
@@ -11470,7 +12380,7 @@
       <c r="K508" s="2"/>
       <c r="L508" s="13"/>
     </row>
-    <row r="509" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="509" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A509" s="19"/>
       <c r="B509" s="4"/>
       <c r="C509" s="11"/>
@@ -11484,7 +12394,7 @@
       <c r="K509" s="2"/>
       <c r="L509" s="13"/>
     </row>
-    <row r="510" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="510" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A510" s="19"/>
       <c r="B510" s="4"/>
       <c r="C510" s="11"/>
@@ -11498,7 +12408,7 @@
       <c r="K510" s="2"/>
       <c r="L510" s="13"/>
     </row>
-    <row r="511" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="511" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A511" s="19"/>
       <c r="B511" s="4"/>
       <c r="C511" s="11"/>
@@ -11512,7 +12422,7 @@
       <c r="K511" s="2"/>
       <c r="L511" s="13"/>
     </row>
-    <row r="512" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="512" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A512" s="19"/>
       <c r="B512" s="4"/>
       <c r="C512" s="11"/>
@@ -11526,7 +12436,7 @@
       <c r="K512" s="2"/>
       <c r="L512" s="13"/>
     </row>
-    <row r="513" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="513" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A513" s="19"/>
       <c r="B513" s="4"/>
       <c r="C513" s="11"/>
@@ -11540,7 +12450,7 @@
       <c r="K513" s="2"/>
       <c r="L513" s="13"/>
     </row>
-    <row r="514" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="514" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A514" s="19"/>
       <c r="B514" s="4"/>
       <c r="C514" s="11"/>
@@ -11554,7 +12464,7 @@
       <c r="K514" s="2"/>
       <c r="L514" s="13"/>
     </row>
-    <row r="515" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="515" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A515" s="19"/>
       <c r="B515" s="4"/>
       <c r="C515" s="11"/>
@@ -11568,7 +12478,7 @@
       <c r="K515" s="2"/>
       <c r="L515" s="13"/>
     </row>
-    <row r="516" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="516" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A516" s="19"/>
       <c r="B516" s="4"/>
       <c r="C516" s="11"/>
@@ -11582,7 +12492,7 @@
       <c r="K516" s="2"/>
       <c r="L516" s="13"/>
     </row>
-    <row r="517" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="517" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A517" s="19"/>
       <c r="B517" s="4"/>
       <c r="C517" s="11"/>
@@ -11596,7 +12506,7 @@
       <c r="K517" s="2"/>
       <c r="L517" s="13"/>
     </row>
-    <row r="518" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="518" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A518" s="19"/>
       <c r="B518" s="4"/>
       <c r="C518" s="11"/>
@@ -11610,7 +12520,7 @@
       <c r="K518" s="2"/>
       <c r="L518" s="13"/>
     </row>
-    <row r="519" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="519" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A519" s="19"/>
       <c r="B519" s="4"/>
       <c r="C519" s="11"/>
@@ -11624,7 +12534,7 @@
       <c r="K519" s="2"/>
       <c r="L519" s="13"/>
     </row>
-    <row r="520" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="520" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A520" s="19"/>
       <c r="B520" s="4"/>
       <c r="C520" s="11"/>
@@ -11638,7 +12548,7 @@
       <c r="K520" s="2"/>
       <c r="L520" s="13"/>
     </row>
-    <row r="521" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="521" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A521" s="19"/>
       <c r="B521" s="4"/>
       <c r="C521" s="11"/>
@@ -11652,7 +12562,7 @@
       <c r="K521" s="2"/>
       <c r="L521" s="13"/>
     </row>
-    <row r="522" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="522" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A522" s="19"/>
       <c r="B522" s="4"/>
       <c r="C522" s="11"/>
@@ -11666,7 +12576,7 @@
       <c r="K522" s="2"/>
       <c r="L522" s="13"/>
     </row>
-    <row r="523" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="523" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A523" s="19"/>
       <c r="B523" s="4"/>
       <c r="C523" s="11"/>
@@ -11680,7 +12590,7 @@
       <c r="K523" s="2"/>
       <c r="L523" s="13"/>
     </row>
-    <row r="524" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="524" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A524" s="19"/>
       <c r="B524" s="4"/>
       <c r="C524" s="11"/>
@@ -11694,7 +12604,7 @@
       <c r="K524" s="2"/>
       <c r="L524" s="13"/>
     </row>
-    <row r="525" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="525" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A525" s="19"/>
       <c r="B525" s="4"/>
       <c r="C525" s="11"/>
@@ -11708,7 +12618,7 @@
       <c r="K525" s="2"/>
       <c r="L525" s="13"/>
     </row>
-    <row r="526" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="526" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A526" s="19"/>
       <c r="B526" s="4"/>
       <c r="C526" s="11"/>
@@ -11722,7 +12632,7 @@
       <c r="K526" s="2"/>
       <c r="L526" s="13"/>
     </row>
-    <row r="527" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="527" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A527" s="19"/>
       <c r="B527" s="4"/>
       <c r="C527" s="11"/>
@@ -11736,7 +12646,7 @@
       <c r="K527" s="2"/>
       <c r="L527" s="13"/>
     </row>
-    <row r="528" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="528" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A528" s="19"/>
       <c r="B528" s="4"/>
       <c r="C528" s="11"/>
@@ -11750,7 +12660,7 @@
       <c r="K528" s="2"/>
       <c r="L528" s="13"/>
     </row>
-    <row r="529" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="529" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A529" s="19"/>
       <c r="B529" s="4"/>
       <c r="C529" s="11"/>
@@ -11764,7 +12674,7 @@
       <c r="K529" s="2"/>
       <c r="L529" s="13"/>
     </row>
-    <row r="530" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="530" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A530" s="19"/>
       <c r="B530" s="4"/>
       <c r="C530" s="11"/>
@@ -11778,7 +12688,7 @@
       <c r="K530" s="2"/>
       <c r="L530" s="13"/>
     </row>
-    <row r="531" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="531" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A531" s="19"/>
       <c r="B531" s="4"/>
       <c r="C531" s="11"/>
@@ -11792,7 +12702,7 @@
       <c r="K531" s="2"/>
       <c r="L531" s="13"/>
     </row>
-    <row r="532" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="532" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A532" s="19"/>
       <c r="B532" s="4"/>
       <c r="C532" s="11"/>
@@ -11806,7 +12716,7 @@
       <c r="K532" s="2"/>
       <c r="L532" s="13"/>
     </row>
-    <row r="533" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="533" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A533" s="19"/>
       <c r="B533" s="4"/>
       <c r="C533" s="11"/>
@@ -11820,7 +12730,7 @@
       <c r="K533" s="2"/>
       <c r="L533" s="13"/>
     </row>
-    <row r="534" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="534" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A534" s="19"/>
       <c r="B534" s="4"/>
       <c r="C534" s="11"/>
@@ -11834,7 +12744,7 @@
       <c r="K534" s="2"/>
       <c r="L534" s="13"/>
     </row>
-    <row r="535" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="535" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A535" s="19"/>
       <c r="B535" s="4"/>
       <c r="C535" s="11"/>
@@ -11848,7 +12758,7 @@
       <c r="K535" s="2"/>
       <c r="L535" s="13"/>
     </row>
-    <row r="536" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="536" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A536" s="19"/>
       <c r="B536" s="4"/>
       <c r="C536" s="11"/>
@@ -11862,7 +12772,7 @@
       <c r="K536" s="2"/>
       <c r="L536" s="13"/>
     </row>
-    <row r="537" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="537" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A537" s="19"/>
       <c r="B537" s="4"/>
       <c r="C537" s="11"/>
@@ -11876,7 +12786,7 @@
       <c r="K537" s="2"/>
       <c r="L537" s="13"/>
     </row>
-    <row r="538" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="538" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A538" s="19"/>
       <c r="B538" s="4"/>
       <c r="C538" s="11"/>
@@ -11890,7 +12800,7 @@
       <c r="K538" s="2"/>
       <c r="L538" s="13"/>
     </row>
-    <row r="539" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="539" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A539" s="19"/>
       <c r="B539" s="4"/>
       <c r="C539" s="11"/>
@@ -11904,7 +12814,7 @@
       <c r="K539" s="2"/>
       <c r="L539" s="13"/>
     </row>
-    <row r="540" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="540" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A540" s="19"/>
       <c r="B540" s="4"/>
       <c r="C540" s="11"/>
@@ -11918,7 +12828,7 @@
       <c r="K540" s="2"/>
       <c r="L540" s="13"/>
     </row>
-    <row r="541" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="541" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A541" s="19"/>
       <c r="B541" s="4"/>
       <c r="C541" s="11"/>
@@ -11932,7 +12842,7 @@
       <c r="K541" s="2"/>
       <c r="L541" s="13"/>
     </row>
-    <row r="542" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="542" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A542" s="19"/>
       <c r="B542" s="4"/>
       <c r="C542" s="11"/>
@@ -11946,7 +12856,7 @@
       <c r="K542" s="2"/>
       <c r="L542" s="13"/>
     </row>
-    <row r="543" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="543" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A543" s="19"/>
       <c r="B543" s="4"/>
       <c r="C543" s="11"/>
@@ -11960,7 +12870,7 @@
       <c r="K543" s="2"/>
       <c r="L543" s="13"/>
     </row>
-    <row r="544" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="544" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A544" s="19"/>
       <c r="B544" s="4"/>
       <c r="C544" s="11"/>
@@ -11974,7 +12884,7 @@
       <c r="K544" s="2"/>
       <c r="L544" s="13"/>
     </row>
-    <row r="545" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="545" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A545" s="19"/>
       <c r="B545" s="4"/>
       <c r="C545" s="11"/>
@@ -11988,7 +12898,7 @@
       <c r="K545" s="2"/>
       <c r="L545" s="13"/>
     </row>
-    <row r="546" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="546" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A546" s="19"/>
       <c r="B546" s="4"/>
       <c r="C546" s="11"/>
@@ -12002,7 +12912,7 @@
       <c r="K546" s="2"/>
       <c r="L546" s="13"/>
     </row>
-    <row r="547" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="547" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A547" s="19"/>
       <c r="B547" s="4"/>
       <c r="C547" s="11"/>
@@ -12016,7 +12926,7 @@
       <c r="K547" s="2"/>
       <c r="L547" s="13"/>
     </row>
-    <row r="548" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="548" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A548" s="19"/>
       <c r="B548" s="4"/>
       <c r="C548" s="11"/>
@@ -12030,7 +12940,7 @@
       <c r="K548" s="2"/>
       <c r="L548" s="13"/>
     </row>
-    <row r="549" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="549" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A549" s="19"/>
       <c r="B549" s="4"/>
       <c r="C549" s="11"/>
@@ -12044,7 +12954,7 @@
       <c r="K549" s="2"/>
       <c r="L549" s="13"/>
     </row>
-    <row r="550" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="550" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A550" s="19"/>
       <c r="B550" s="4"/>
       <c r="C550" s="11"/>
@@ -12058,7 +12968,7 @@
       <c r="K550" s="2"/>
       <c r="L550" s="13"/>
     </row>
-    <row r="551" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="551" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A551" s="19"/>
       <c r="B551" s="4"/>
       <c r="C551" s="11"/>
@@ -12072,7 +12982,7 @@
       <c r="K551" s="2"/>
       <c r="L551" s="13"/>
     </row>
-    <row r="552" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="552" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A552" s="19"/>
       <c r="B552" s="4"/>
       <c r="C552" s="11"/>
@@ -12086,7 +12996,7 @@
       <c r="K552" s="2"/>
       <c r="L552" s="13"/>
     </row>
-    <row r="553" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="553" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A553" s="19"/>
       <c r="B553" s="4"/>
       <c r="C553" s="11"/>
@@ -12100,7 +13010,7 @@
       <c r="K553" s="2"/>
       <c r="L553" s="13"/>
     </row>
-    <row r="554" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="554" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A554" s="19"/>
       <c r="B554" s="4"/>
       <c r="C554" s="11"/>
@@ -12114,7 +13024,7 @@
       <c r="K554" s="2"/>
       <c r="L554" s="13"/>
     </row>
-    <row r="555" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="555" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A555" s="19"/>
       <c r="B555" s="4"/>
       <c r="C555" s="11"/>
@@ -12128,7 +13038,7 @@
       <c r="K555" s="2"/>
       <c r="L555" s="13"/>
     </row>
-    <row r="556" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="556" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A556" s="19"/>
       <c r="B556" s="4"/>
       <c r="C556" s="11"/>
@@ -12142,7 +13052,7 @@
       <c r="K556" s="2"/>
       <c r="L556" s="13"/>
     </row>
-    <row r="557" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="557" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A557" s="19"/>
       <c r="B557" s="4"/>
       <c r="C557" s="11"/>
@@ -12156,7 +13066,7 @@
       <c r="K557" s="2"/>
       <c r="L557" s="13"/>
     </row>
-    <row r="558" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="558" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A558" s="19"/>
       <c r="B558" s="4"/>
       <c r="C558" s="11"/>
@@ -12170,7 +13080,7 @@
       <c r="K558" s="2"/>
       <c r="L558" s="13"/>
     </row>
-    <row r="559" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="559" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A559" s="19"/>
       <c r="B559" s="4"/>
       <c r="C559" s="11"/>
@@ -12184,7 +13094,7 @@
       <c r="K559" s="2"/>
       <c r="L559" s="13"/>
     </row>
-    <row r="560" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="560" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A560" s="19"/>
       <c r="B560" s="4"/>
       <c r="C560" s="11"/>
@@ -12198,7 +13108,7 @@
       <c r="K560" s="2"/>
       <c r="L560" s="13"/>
     </row>
-    <row r="561" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="561" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A561" s="19"/>
       <c r="B561" s="4"/>
       <c r="C561" s="11"/>
@@ -12212,7 +13122,7 @@
       <c r="K561" s="2"/>
       <c r="L561" s="13"/>
     </row>
-    <row r="562" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="562" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A562" s="19"/>
       <c r="B562" s="4"/>
       <c r="C562" s="11"/>
@@ -12226,7 +13136,7 @@
       <c r="K562" s="2"/>
       <c r="L562" s="13"/>
     </row>
-    <row r="563" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="563" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A563" s="19"/>
       <c r="B563" s="4"/>
       <c r="C563" s="11"/>
@@ -12240,7 +13150,7 @@
       <c r="K563" s="2"/>
       <c r="L563" s="13"/>
     </row>
-    <row r="564" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="564" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A564" s="19"/>
       <c r="B564" s="4"/>
       <c r="C564" s="11"/>
@@ -12254,7 +13164,7 @@
       <c r="K564" s="2"/>
       <c r="L564" s="13"/>
     </row>
-    <row r="565" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="565" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A565" s="19"/>
       <c r="B565" s="4"/>
       <c r="C565" s="11"/>
@@ -12268,7 +13178,7 @@
       <c r="K565" s="2"/>
       <c r="L565" s="13"/>
     </row>
-    <row r="566" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="566" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A566" s="19"/>
       <c r="B566" s="4"/>
       <c r="C566" s="11"/>
@@ -12282,7 +13192,7 @@
       <c r="K566" s="2"/>
       <c r="L566" s="13"/>
     </row>
-    <row r="567" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="567" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A567" s="19"/>
       <c r="B567" s="4"/>
       <c r="C567" s="11"/>
@@ -12296,7 +13206,7 @@
       <c r="K567" s="2"/>
       <c r="L567" s="13"/>
     </row>
-    <row r="568" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="568" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A568" s="19"/>
       <c r="B568" s="4"/>
       <c r="C568" s="11"/>
@@ -12310,7 +13220,7 @@
       <c r="K568" s="2"/>
       <c r="L568" s="13"/>
     </row>
-    <row r="569" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="569" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A569" s="19"/>
       <c r="B569" s="4"/>
       <c r="C569" s="11"/>
@@ -12324,7 +13234,7 @@
       <c r="K569" s="2"/>
       <c r="L569" s="13"/>
     </row>
-    <row r="570" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="570" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A570" s="19"/>
       <c r="B570" s="4"/>
       <c r="C570" s="11"/>
@@ -12338,7 +13248,7 @@
       <c r="K570" s="2"/>
       <c r="L570" s="13"/>
     </row>
-    <row r="571" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="571" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A571" s="19"/>
       <c r="B571" s="4"/>
       <c r="C571" s="11"/>
@@ -12352,7 +13262,7 @@
       <c r="K571" s="2"/>
       <c r="L571" s="13"/>
     </row>
-    <row r="572" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="572" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A572" s="19"/>
       <c r="B572" s="4"/>
       <c r="C572" s="11"/>
@@ -12366,7 +13276,7 @@
       <c r="K572" s="2"/>
       <c r="L572" s="13"/>
     </row>
-    <row r="573" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="573" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A573" s="19"/>
       <c r="B573" s="4"/>
       <c r="C573" s="11"/>
@@ -12380,7 +13290,7 @@
       <c r="K573" s="2"/>
       <c r="L573" s="13"/>
     </row>
-    <row r="574" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="574" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A574" s="19"/>
       <c r="B574" s="4"/>
       <c r="C574" s="11"/>
@@ -12394,7 +13304,7 @@
       <c r="K574" s="2"/>
       <c r="L574" s="13"/>
     </row>
-    <row r="575" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="575" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A575" s="19"/>
       <c r="B575" s="4"/>
       <c r="C575" s="11"/>
@@ -12408,7 +13318,7 @@
       <c r="K575" s="2"/>
       <c r="L575" s="13"/>
     </row>
-    <row r="576" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="576" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A576" s="19"/>
       <c r="B576" s="4"/>
       <c r="C576" s="11"/>
@@ -12422,7 +13332,7 @@
       <c r="K576" s="2"/>
       <c r="L576" s="13"/>
     </row>
-    <row r="577" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="577" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A577" s="19"/>
       <c r="B577" s="4"/>
       <c r="C577" s="11"/>
@@ -12436,7 +13346,7 @@
       <c r="K577" s="2"/>
       <c r="L577" s="13"/>
     </row>
-    <row r="578" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="578" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A578" s="19"/>
       <c r="B578" s="4"/>
       <c r="C578" s="11"/>
@@ -12450,7 +13360,7 @@
       <c r="K578" s="2"/>
       <c r="L578" s="13"/>
     </row>
-    <row r="579" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="579" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A579" s="19"/>
       <c r="B579" s="4"/>
       <c r="C579" s="11"/>
@@ -12464,7 +13374,7 @@
       <c r="K579" s="2"/>
       <c r="L579" s="13"/>
     </row>
-    <row r="580" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="580" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A580" s="19"/>
       <c r="B580" s="4"/>
       <c r="C580" s="11"/>
@@ -12478,7 +13388,7 @@
       <c r="K580" s="2"/>
       <c r="L580" s="13"/>
     </row>
-    <row r="581" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="581" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A581" s="19"/>
       <c r="B581" s="4"/>
       <c r="C581" s="11"/>
@@ -12492,7 +13402,7 @@
       <c r="K581" s="2"/>
       <c r="L581" s="13"/>
     </row>
-    <row r="582" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="582" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A582" s="19"/>
       <c r="B582" s="4"/>
       <c r="C582" s="11"/>
@@ -12506,7 +13416,7 @@
       <c r="K582" s="2"/>
       <c r="L582" s="13"/>
     </row>
-    <row r="583" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="583" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A583" s="19"/>
       <c r="B583" s="4"/>
       <c r="C583" s="11"/>
@@ -12520,7 +13430,7 @@
       <c r="K583" s="2"/>
       <c r="L583" s="13"/>
     </row>
-    <row r="584" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="584" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A584" s="19"/>
       <c r="B584" s="4"/>
       <c r="C584" s="11"/>
@@ -12534,7 +13444,7 @@
       <c r="K584" s="2"/>
       <c r="L584" s="13"/>
     </row>
-    <row r="585" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="585" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A585" s="19"/>
       <c r="B585" s="4"/>
       <c r="C585" s="11"/>
@@ -12548,7 +13458,7 @@
       <c r="K585" s="2"/>
       <c r="L585" s="13"/>
     </row>
-    <row r="586" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="586" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A586" s="19"/>
       <c r="B586" s="4"/>
       <c r="C586" s="11"/>
@@ -12562,7 +13472,7 @@
       <c r="K586" s="2"/>
       <c r="L586" s="13"/>
     </row>
-    <row r="587" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="587" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A587" s="19"/>
       <c r="B587" s="4"/>
       <c r="C587" s="11"/>
@@ -12576,7 +13486,7 @@
       <c r="K587" s="2"/>
       <c r="L587" s="13"/>
     </row>
-    <row r="588" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="588" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A588" s="19"/>
       <c r="B588" s="4"/>
       <c r="C588" s="11"/>
@@ -12590,7 +13500,7 @@
       <c r="K588" s="2"/>
       <c r="L588" s="13"/>
     </row>
-    <row r="589" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="589" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A589" s="19"/>
       <c r="B589" s="4"/>
       <c r="C589" s="11"/>
@@ -12604,7 +13514,7 @@
       <c r="K589" s="2"/>
       <c r="L589" s="13"/>
     </row>
-    <row r="590" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="590" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A590" s="19"/>
       <c r="B590" s="4"/>
       <c r="C590" s="11"/>
@@ -12618,7 +13528,7 @@
       <c r="K590" s="2"/>
       <c r="L590" s="13"/>
     </row>
-    <row r="591" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="591" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A591" s="19"/>
       <c r="B591" s="4"/>
       <c r="C591" s="11"/>
@@ -12632,7 +13542,7 @@
       <c r="K591" s="2"/>
       <c r="L591" s="13"/>
     </row>
-    <row r="592" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="592" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A592" s="19"/>
       <c r="B592" s="4"/>
       <c r="C592" s="11"/>
@@ -12646,7 +13556,7 @@
       <c r="K592" s="2"/>
       <c r="L592" s="13"/>
     </row>
-    <row r="593" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="593" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A593" s="19"/>
       <c r="B593" s="4"/>
       <c r="C593" s="11"/>
@@ -12660,7 +13570,7 @@
       <c r="K593" s="2"/>
       <c r="L593" s="13"/>
     </row>
-    <row r="594" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="594" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A594" s="19"/>
       <c r="B594" s="4"/>
       <c r="C594" s="11"/>
@@ -12674,7 +13584,7 @@
       <c r="K594" s="2"/>
       <c r="L594" s="13"/>
     </row>
-    <row r="595" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="595" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A595" s="19"/>
       <c r="B595" s="4"/>
       <c r="C595" s="11"/>
@@ -12688,7 +13598,7 @@
       <c r="K595" s="2"/>
       <c r="L595" s="13"/>
     </row>
-    <row r="596" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="596" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A596" s="19"/>
       <c r="B596" s="4"/>
       <c r="C596" s="11"/>
@@ -12702,7 +13612,7 @@
       <c r="K596" s="2"/>
       <c r="L596" s="13"/>
     </row>
-    <row r="597" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="597" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A597" s="19"/>
       <c r="B597" s="4"/>
       <c r="C597" s="11"/>
@@ -12716,7 +13626,7 @@
       <c r="K597" s="2"/>
       <c r="L597" s="13"/>
     </row>
-    <row r="598" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="598" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A598" s="19"/>
       <c r="B598" s="4"/>
       <c r="C598" s="11"/>
@@ -12730,7 +13640,7 @@
       <c r="K598" s="2"/>
       <c r="L598" s="13"/>
     </row>
-    <row r="599" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="599" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A599" s="19"/>
       <c r="B599" s="4"/>
       <c r="C599" s="11"/>
@@ -12744,7 +13654,7 @@
       <c r="K599" s="2"/>
       <c r="L599" s="13"/>
     </row>
-    <row r="600" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="600" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A600" s="19"/>
       <c r="B600" s="4"/>
       <c r="C600" s="11"/>
@@ -12758,7 +13668,7 @@
       <c r="K600" s="2"/>
       <c r="L600" s="13"/>
     </row>
-    <row r="601" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="601" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A601" s="19"/>
       <c r="B601" s="4"/>
       <c r="C601" s="11"/>
@@ -12772,7 +13682,7 @@
       <c r="K601" s="2"/>
       <c r="L601" s="13"/>
     </row>
-    <row r="602" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="602" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A602" s="19"/>
       <c r="B602" s="4"/>
       <c r="C602" s="11"/>
@@ -12786,7 +13696,7 @@
       <c r="K602" s="2"/>
       <c r="L602" s="13"/>
     </row>
-    <row r="603" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="603" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A603" s="19"/>
       <c r="B603" s="4"/>
       <c r="C603" s="11"/>
@@ -12800,7 +13710,7 @@
       <c r="K603" s="2"/>
       <c r="L603" s="13"/>
     </row>
-    <row r="604" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="604" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A604" s="19"/>
       <c r="B604" s="4"/>
       <c r="C604" s="11"/>
@@ -12814,7 +13724,7 @@
       <c r="K604" s="2"/>
       <c r="L604" s="13"/>
     </row>
-    <row r="605" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="605" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A605" s="19"/>
       <c r="B605" s="4"/>
       <c r="C605" s="11"/>
@@ -12828,7 +13738,7 @@
       <c r="K605" s="2"/>
       <c r="L605" s="13"/>
     </row>
-    <row r="606" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="606" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A606" s="19"/>
       <c r="B606" s="4"/>
       <c r="C606" s="11"/>
@@ -12842,7 +13752,7 @@
       <c r="K606" s="2"/>
       <c r="L606" s="13"/>
     </row>
-    <row r="607" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="607" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A607" s="19"/>
       <c r="B607" s="4"/>
       <c r="C607" s="11"/>
@@ -12856,7 +13766,7 @@
       <c r="K607" s="2"/>
       <c r="L607" s="13"/>
     </row>
-    <row r="608" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="608" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A608" s="19"/>
       <c r="B608" s="4"/>
       <c r="C608" s="11"/>
@@ -12870,7 +13780,7 @@
       <c r="K608" s="2"/>
       <c r="L608" s="13"/>
     </row>
-    <row r="609" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="609" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A609" s="19"/>
       <c r="B609" s="4"/>
       <c r="C609" s="11"/>
@@ -12884,7 +13794,7 @@
       <c r="K609" s="2"/>
       <c r="L609" s="13"/>
     </row>
-    <row r="610" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="610" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A610" s="19"/>
       <c r="B610" s="4"/>
       <c r="C610" s="11"/>
@@ -12898,7 +13808,7 @@
       <c r="K610" s="2"/>
       <c r="L610" s="13"/>
     </row>
-    <row r="611" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="611" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A611" s="19"/>
       <c r="B611" s="4"/>
       <c r="C611" s="11"/>
@@ -12912,7 +13822,7 @@
       <c r="K611" s="2"/>
       <c r="L611" s="13"/>
     </row>
-    <row r="612" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="612" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A612" s="19"/>
       <c r="B612" s="4"/>
       <c r="C612" s="11"/>
@@ -12926,7 +13836,7 @@
       <c r="K612" s="2"/>
       <c r="L612" s="13"/>
     </row>
-    <row r="613" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="613" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A613" s="19"/>
       <c r="B613" s="4"/>
       <c r="C613" s="11"/>
@@ -12940,7 +13850,7 @@
       <c r="K613" s="2"/>
       <c r="L613" s="13"/>
     </row>
-    <row r="614" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="614" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A614" s="19"/>
       <c r="B614" s="4"/>
       <c r="C614" s="11"/>
@@ -12954,7 +13864,7 @@
       <c r="K614" s="2"/>
       <c r="L614" s="13"/>
     </row>
-    <row r="615" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="615" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A615" s="19"/>
       <c r="B615" s="4"/>
       <c r="C615" s="11"/>
@@ -12968,7 +13878,7 @@
       <c r="K615" s="2"/>
       <c r="L615" s="13"/>
     </row>
-    <row r="616" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="616" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A616" s="19"/>
       <c r="B616" s="4"/>
       <c r="C616" s="11"/>
@@ -12982,7 +13892,7 @@
       <c r="K616" s="2"/>
       <c r="L616" s="13"/>
     </row>
-    <row r="617" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="617" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A617" s="19"/>
       <c r="B617" s="4"/>
       <c r="C617" s="11"/>
@@ -12996,7 +13906,7 @@
       <c r="K617" s="2"/>
       <c r="L617" s="13"/>
     </row>
-    <row r="618" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="618" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A618" s="19"/>
       <c r="B618" s="4"/>
       <c r="C618" s="11"/>
@@ -13010,7 +13920,7 @@
       <c r="K618" s="2"/>
       <c r="L618" s="13"/>
     </row>
-    <row r="619" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="619" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A619" s="19"/>
       <c r="B619" s="4"/>
       <c r="C619" s="11"/>
@@ -13024,7 +13934,7 @@
       <c r="K619" s="2"/>
       <c r="L619" s="13"/>
     </row>
-    <row r="620" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="620" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A620" s="19"/>
       <c r="B620" s="4"/>
       <c r="C620" s="11"/>
@@ -13038,7 +13948,7 @@
       <c r="K620" s="2"/>
       <c r="L620" s="13"/>
     </row>
-    <row r="621" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="621" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A621" s="19"/>
       <c r="B621" s="4"/>
       <c r="C621" s="11"/>
@@ -13052,7 +13962,7 @@
       <c r="K621" s="2"/>
       <c r="L621" s="13"/>
     </row>
-    <row r="622" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="622" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A622" s="19"/>
       <c r="B622" s="4"/>
       <c r="C622" s="11"/>
@@ -13066,7 +13976,7 @@
       <c r="K622" s="2"/>
       <c r="L622" s="13"/>
     </row>
-    <row r="623" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="623" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A623" s="19"/>
       <c r="B623" s="4"/>
       <c r="C623" s="11"/>
@@ -13080,7 +13990,7 @@
       <c r="K623" s="2"/>
       <c r="L623" s="13"/>
     </row>
-    <row r="624" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="624" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A624" s="19"/>
       <c r="B624" s="4"/>
       <c r="C624" s="11"/>
@@ -13094,7 +14004,7 @@
       <c r="K624" s="2"/>
       <c r="L624" s="13"/>
     </row>
-    <row r="625" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="625" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A625" s="19"/>
       <c r="B625" s="4"/>
       <c r="C625" s="11"/>
@@ -13108,7 +14018,7 @@
       <c r="K625" s="2"/>
       <c r="L625" s="13"/>
     </row>
-    <row r="626" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="626" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A626" s="19"/>
       <c r="B626" s="4"/>
       <c r="C626" s="11"/>
@@ -13122,7 +14032,7 @@
       <c r="K626" s="2"/>
       <c r="L626" s="13"/>
     </row>
-    <row r="627" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="627" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A627" s="19"/>
       <c r="B627" s="4"/>
       <c r="C627" s="11"/>
@@ -13136,7 +14046,7 @@
       <c r="K627" s="2"/>
       <c r="L627" s="13"/>
     </row>
-    <row r="628" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="628" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A628" s="19"/>
       <c r="B628" s="4"/>
       <c r="C628" s="11"/>
@@ -13150,7 +14060,7 @@
       <c r="K628" s="2"/>
       <c r="L628" s="13"/>
     </row>
-    <row r="629" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="629" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A629" s="19"/>
       <c r="B629" s="4"/>
       <c r="C629" s="11"/>
@@ -13164,7 +14074,7 @@
       <c r="K629" s="2"/>
       <c r="L629" s="13"/>
     </row>
-    <row r="630" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="630" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A630" s="19"/>
       <c r="B630" s="4"/>
       <c r="C630" s="11"/>
@@ -13178,7 +14088,7 @@
       <c r="K630" s="2"/>
       <c r="L630" s="13"/>
     </row>
-    <row r="631" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="631" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A631" s="19"/>
       <c r="B631" s="4"/>
       <c r="C631" s="11"/>
@@ -13192,7 +14102,7 @@
       <c r="K631" s="2"/>
       <c r="L631" s="13"/>
     </row>
-    <row r="632" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="632" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A632" s="19"/>
       <c r="B632" s="4"/>
       <c r="C632" s="11"/>
@@ -13206,7 +14116,7 @@
       <c r="K632" s="2"/>
       <c r="L632" s="13"/>
     </row>
-    <row r="633" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="633" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A633" s="19"/>
       <c r="B633" s="4"/>
       <c r="C633" s="11"/>
@@ -13220,7 +14130,7 @@
       <c r="K633" s="2"/>
       <c r="L633" s="13"/>
     </row>
-    <row r="634" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="634" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A634" s="19"/>
       <c r="B634" s="4"/>
       <c r="C634" s="11"/>
@@ -13234,7 +14144,7 @@
       <c r="K634" s="2"/>
       <c r="L634" s="13"/>
     </row>
-    <row r="635" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="635" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A635" s="19"/>
       <c r="B635" s="4"/>
       <c r="C635" s="11"/>
@@ -13248,7 +14158,7 @@
       <c r="K635" s="2"/>
       <c r="L635" s="13"/>
     </row>
-    <row r="636" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="636" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A636" s="19"/>
       <c r="B636" s="4"/>
       <c r="C636" s="11"/>
@@ -13262,7 +14172,7 @@
       <c r="K636" s="2"/>
       <c r="L636" s="13"/>
     </row>
-    <row r="637" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="637" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A637" s="19"/>
       <c r="B637" s="4"/>
       <c r="C637" s="11"/>
@@ -13276,7 +14186,7 @@
       <c r="K637" s="2"/>
       <c r="L637" s="13"/>
     </row>
-    <row r="638" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="638" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A638" s="19"/>
       <c r="B638" s="4"/>
       <c r="C638" s="11"/>
@@ -13290,7 +14200,7 @@
       <c r="K638" s="2"/>
       <c r="L638" s="13"/>
     </row>
-    <row r="639" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="639" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A639" s="19"/>
       <c r="B639" s="4"/>
       <c r="C639" s="11"/>
@@ -13304,7 +14214,7 @@
       <c r="K639" s="2"/>
       <c r="L639" s="13"/>
     </row>
-    <row r="640" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="640" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A640" s="19"/>
       <c r="B640" s="4"/>
       <c r="C640" s="11"/>
@@ -13318,369 +14228,369 @@
       <c r="K640" s="2"/>
       <c r="L640" s="13"/>
     </row>
-    <row r="641" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="641" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="642" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="643" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="644" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="645" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="646" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="647" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="648" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="649" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="650" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="651" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="652" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="653" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="654" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="655" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="656" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="657" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="658" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="659" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="660" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="661" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="662" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="663" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="664" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="665" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="666" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="667" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="668" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="669" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="670" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="671" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="672" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="673" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="674" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="675" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="676" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="677" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="678" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="679" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="680" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="681" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="682" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="683" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="684" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="685" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="686" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="687" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="688" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="689" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="690" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="691" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="692" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="693" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="694" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="695" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="696" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="697" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="698" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="699" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="700" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="701" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="702" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="703" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="704" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="705" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="706" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="707" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="708" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="709" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="710" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="711" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="712" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="713" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="714" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="715" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="716" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="717" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="718" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="719" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="720" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="721" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="722" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="723" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="724" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="725" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="726" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="727" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="728" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="729" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="730" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="731" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="732" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="733" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="734" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="735" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="736" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="737" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="738" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="739" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="740" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="741" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="742" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="743" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="744" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="745" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="746" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="747" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="748" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="749" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="750" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="751" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="752" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="753" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="754" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="755" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="756" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="757" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="758" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="759" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="760" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="761" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="762" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="763" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="764" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="765" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="766" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="767" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="768" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="769" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="770" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="771" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="772" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="773" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="774" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="775" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="776" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="777" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="778" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="779" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="780" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="781" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="782" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="783" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="784" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="785" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="786" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="787" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="788" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="789" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="790" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="791" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="792" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="793" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="794" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="795" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="796" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="797" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="798" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="799" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="800" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="801" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="802" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="803" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="804" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="805" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="806" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="807" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="808" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="809" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="810" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="811" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="812" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="813" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="814" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="815" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="816" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="817" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="818" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="819" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="820" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="821" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="822" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="823" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="824" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="825" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="826" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="827" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="828" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="829" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="830" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="831" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="832" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="833" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="834" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="835" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="836" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="837" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="838" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="839" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="840" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="841" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="842" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="843" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="844" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="845" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="846" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="847" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="848" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="849" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="850" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="851" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="852" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="853" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="854" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="855" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="856" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="857" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="858" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="859" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="860" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="861" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="862" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="863" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="864" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="865" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="866" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="867" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="868" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="869" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="870" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="871" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="872" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="873" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="874" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="875" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="876" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="877" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="878" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="879" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="880" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="881" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="882" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="883" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="884" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="885" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="886" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="887" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="888" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="889" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="890" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="891" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="892" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="893" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="894" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="895" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="896" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="897" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="898" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="899" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="900" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="901" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="902" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="903" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="904" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="905" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="906" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="907" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="908" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="909" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="910" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="911" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="912" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="913" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="914" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="915" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="916" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="917" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="918" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="919" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="920" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="921" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="922" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="923" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="924" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="925" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="926" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="927" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="928" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="929" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="930" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="931" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="932" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="933" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="934" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="935" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="936" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="937" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="938" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="939" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="940" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="941" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="942" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="943" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="944" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="945" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="946" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="947" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="948" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="949" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="950" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="951" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="952" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="953" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="954" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="955" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="956" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="957" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="958" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="959" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="960" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="961" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="962" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="963" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="964" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="965" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="966" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="967" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="968" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="969" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="970" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="971" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="972" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="973" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="974" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="975" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="976" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="977" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="978" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="979" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="980" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="981" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="982" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="983" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="984" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="985" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="986" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="987" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="988" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="989" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="990" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="991" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="992" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D690">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D690" type="list">
       <formula1>INDIRECT(C2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C692">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C2:C692" type="list">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macroFlex-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macroFlex-macro.xlsx
@@ -15,13 +15,13 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$44</definedName>
+    <definedName name="base">'#system'!$F$2:$F$45</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
-    <definedName name="external">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -41,15 +41,15 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$33</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
-    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
-    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
-    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
-    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2480" uniqueCount="619">
   <si>
     <t>description</t>
   </si>
@@ -1920,6 +1920,12 @@
   </si>
   <si>
     <t>waitUntilVisible(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>assertMatch(text,regex)</t>
+  </si>
+  <si>
+    <t>openFile(filePath)</t>
   </si>
 </sst>
 </file>
@@ -1927,7 +1933,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2195,8 +2201,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="51">
+  <fills count="75">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2207,6 +2320,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB4B4B4"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -2511,7 +2760,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="72">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2632,55 +2881,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="23" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="29" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="32" fontId="27" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="35" fontId="28" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="38" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="41" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="41" fontId="31" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="44" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="44" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="47" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="47" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="35" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="38" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="38" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="50" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="50" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="38" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="38" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="47" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="47" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="53" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="56" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="59" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="62" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="65" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="68" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="71" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="59" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="62" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="74" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="62" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="71" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2978,7 +3278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH151"/>
+  <dimension ref="A1:AG151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -3067,24 +3367,21 @@
         <v>550</v>
       </c>
       <c r="AA1" t="s">
-        <v>565</v>
+        <v>45</v>
       </c>
       <c r="AB1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AD1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AE1" t="s">
-        <v>48</v>
+        <v>395</v>
       </c>
       <c r="AF1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AG1" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3117,7 +3414,7 @@
         <v>429</v>
       </c>
       <c r="J2" t="s">
-        <v>70</v>
+        <v>618</v>
       </c>
       <c r="K2" t="s">
         <v>445</v>
@@ -3168,24 +3465,21 @@
         <v>554</v>
       </c>
       <c r="AA2" t="s">
-        <v>572</v>
+        <v>87</v>
       </c>
       <c r="AB2" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="AC2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="AD2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="AE2" t="s">
-        <v>172</v>
+        <v>412</v>
       </c>
       <c r="AF2" t="s">
-        <v>412</v>
-      </c>
-      <c r="AG2" t="s">
         <v>468</v>
       </c>
     </row>
@@ -3215,7 +3509,7 @@
         <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>455</v>
+        <v>70</v>
       </c>
       <c r="K3" t="s">
         <v>336</v>
@@ -3260,24 +3554,21 @@
         <v>555</v>
       </c>
       <c r="AA3" t="s">
-        <v>573</v>
+        <v>88</v>
       </c>
       <c r="AB3" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="AC3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AD3" t="s">
-        <v>166</v>
+        <v>348</v>
       </c>
       <c r="AE3" t="s">
-        <v>348</v>
+        <v>173</v>
       </c>
       <c r="AF3" t="s">
-        <v>173</v>
-      </c>
-      <c r="AG3" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3304,7 +3595,7 @@
         <v>430</v>
       </c>
       <c r="J4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K4" t="s">
         <v>337</v>
@@ -3349,24 +3640,21 @@
         <v>556</v>
       </c>
       <c r="AA4" t="s">
-        <v>574</v>
+        <v>534</v>
       </c>
       <c r="AB4" t="s">
-        <v>534</v>
+        <v>162</v>
       </c>
       <c r="AC4" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AD4" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AE4" t="s">
-        <v>173</v>
+        <v>413</v>
       </c>
       <c r="AF4" t="s">
-        <v>413</v>
-      </c>
-      <c r="AG4" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3393,7 +3681,7 @@
         <v>434</v>
       </c>
       <c r="J5" t="s">
-        <v>503</v>
+        <v>456</v>
       </c>
       <c r="K5" t="s">
         <v>338</v>
@@ -3426,24 +3714,21 @@
         <v>343</v>
       </c>
       <c r="AA5" t="s">
-        <v>575</v>
+        <v>528</v>
       </c>
       <c r="AB5" t="s">
-        <v>528</v>
+        <v>163</v>
       </c>
       <c r="AC5" t="s">
-        <v>163</v>
+        <v>545</v>
       </c>
       <c r="AD5" t="s">
-        <v>545</v>
+        <v>174</v>
       </c>
       <c r="AE5" t="s">
-        <v>174</v>
+        <v>414</v>
       </c>
       <c r="AF5" t="s">
-        <v>414</v>
-      </c>
-      <c r="AG5" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3470,7 +3755,7 @@
         <v>427</v>
       </c>
       <c r="J6" t="s">
-        <v>532</v>
+        <v>503</v>
       </c>
       <c r="K6" t="s">
         <v>549</v>
@@ -3500,24 +3785,21 @@
         <v>345</v>
       </c>
       <c r="AA6" t="s">
-        <v>576</v>
+        <v>89</v>
       </c>
       <c r="AB6" t="s">
-        <v>89</v>
+        <v>424</v>
       </c>
       <c r="AC6" t="s">
-        <v>424</v>
+        <v>168</v>
       </c>
       <c r="AD6" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="AE6" t="s">
-        <v>175</v>
+        <v>415</v>
       </c>
       <c r="AF6" t="s">
-        <v>415</v>
-      </c>
-      <c r="AG6" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3537,6 +3819,9 @@
       <c r="I7" t="s">
         <v>426</v>
       </c>
+      <c r="J7" t="s">
+        <v>532</v>
+      </c>
       <c r="K7" t="s">
         <v>335</v>
       </c>
@@ -3565,24 +3850,21 @@
         <v>344</v>
       </c>
       <c r="AA7" t="s">
-        <v>577</v>
+        <v>90</v>
       </c>
       <c r="AB7" t="s">
-        <v>90</v>
+        <v>425</v>
       </c>
       <c r="AC7" t="s">
-        <v>425</v>
+        <v>169</v>
       </c>
       <c r="AD7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="AE7" t="s">
-        <v>176</v>
+        <v>416</v>
       </c>
       <c r="AF7" t="s">
-        <v>416</v>
-      </c>
-      <c r="AG7" t="s">
         <v>509</v>
       </c>
     </row>
@@ -3630,24 +3912,21 @@
         <v>346</v>
       </c>
       <c r="AA8" t="s">
-        <v>578</v>
+        <v>91</v>
       </c>
       <c r="AB8" t="s">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="AC8" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="AD8" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AE8" t="s">
-        <v>177</v>
+        <v>417</v>
       </c>
       <c r="AF8" t="s">
-        <v>417</v>
-      </c>
-      <c r="AG8" t="s">
         <v>510</v>
       </c>
     </row>
@@ -3692,18 +3971,15 @@
         <v>347</v>
       </c>
       <c r="AA9" t="s">
-        <v>579</v>
-      </c>
-      <c r="AB9" t="s">
         <v>198</v>
       </c>
+      <c r="AC9" t="s">
+        <v>171</v>
+      </c>
       <c r="AD9" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE9" t="s">
         <v>178</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AF9" t="s">
         <v>511</v>
       </c>
     </row>
@@ -3739,18 +4015,15 @@
         <v>387</v>
       </c>
       <c r="AA10" t="s">
-        <v>580</v>
-      </c>
-      <c r="AB10" t="s">
         <v>244</v>
       </c>
+      <c r="AC10" t="s">
+        <v>546</v>
+      </c>
       <c r="AD10" t="s">
-        <v>546</v>
-      </c>
-      <c r="AE10" t="s">
         <v>179</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AF10" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3759,7 +4032,7 @@
         <v>334</v>
       </c>
       <c r="F11" t="s">
-        <v>527</v>
+        <v>617</v>
       </c>
       <c r="H11" t="s">
         <v>339</v>
@@ -3783,15 +4056,12 @@
         <v>571</v>
       </c>
       <c r="AA11" t="s">
-        <v>581</v>
-      </c>
-      <c r="AB11" t="s">
         <v>245</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>246</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AF11" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3800,7 +4070,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>306</v>
+        <v>527</v>
       </c>
       <c r="H12" t="s">
         <v>261</v>
@@ -3824,15 +4094,12 @@
         <v>236</v>
       </c>
       <c r="AA12" t="s">
-        <v>582</v>
-      </c>
-      <c r="AB12" t="s">
         <v>92</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>180</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AF12" t="s">
         <v>222</v>
       </c>
     </row>
@@ -3841,7 +4108,7 @@
         <v>320</v>
       </c>
       <c r="F13" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="H13" t="s">
         <v>250</v>
@@ -3865,15 +4132,12 @@
         <v>237</v>
       </c>
       <c r="AA13" t="s">
-        <v>583</v>
-      </c>
-      <c r="AB13" t="s">
         <v>313</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>181</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AF13" t="s">
         <v>453</v>
       </c>
     </row>
@@ -3882,7 +4146,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>328</v>
       </c>
       <c r="H14" t="s">
         <v>303</v>
@@ -3903,15 +4167,12 @@
         <v>538</v>
       </c>
       <c r="AA14" t="s">
-        <v>584</v>
-      </c>
-      <c r="AB14" t="s">
         <v>93</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>182</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AF14" t="s">
         <v>469</v>
       </c>
     </row>
@@ -3920,7 +4181,7 @@
         <v>489</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H15" t="s">
         <v>251</v>
@@ -3941,15 +4202,12 @@
         <v>242</v>
       </c>
       <c r="AA15" t="s">
-        <v>585</v>
-      </c>
-      <c r="AB15" t="s">
         <v>557</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>183</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AF15" t="s">
         <v>470</v>
       </c>
     </row>
@@ -3958,7 +4216,7 @@
         <v>243</v>
       </c>
       <c r="F16" t="s">
-        <v>368</v>
+        <v>50</v>
       </c>
       <c r="H16" t="s">
         <v>252</v>
@@ -3979,15 +4237,12 @@
         <v>238</v>
       </c>
       <c r="AA16" t="s">
-        <v>586</v>
-      </c>
-      <c r="AB16" t="s">
         <v>539</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>184</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AF16" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3996,7 +4251,7 @@
         <v>185</v>
       </c>
       <c r="F17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H17" t="s">
         <v>304</v>
@@ -4011,15 +4266,12 @@
         <v>239</v>
       </c>
       <c r="AA17" t="s">
-        <v>587</v>
-      </c>
-      <c r="AB17" t="s">
         <v>94</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>442</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AF17" t="s">
         <v>475</v>
       </c>
     </row>
@@ -4028,7 +4280,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c r="H18" t="s">
         <v>80</v>
@@ -4043,12 +4295,9 @@
         <v>240</v>
       </c>
       <c r="AA18" t="s">
-        <v>588</v>
-      </c>
-      <c r="AB18" t="s">
         <v>66</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AF18" t="s">
         <v>454</v>
       </c>
     </row>
@@ -4057,7 +4306,7 @@
         <v>227</v>
       </c>
       <c r="F19" t="s">
-        <v>566</v>
+        <v>396</v>
       </c>
       <c r="H19" t="s">
         <v>81</v>
@@ -4066,12 +4315,9 @@
         <v>435</v>
       </c>
       <c r="AA19" t="s">
-        <v>589</v>
-      </c>
-      <c r="AB19" t="s">
         <v>479</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AF19" t="s">
         <v>471</v>
       </c>
     </row>
@@ -4080,7 +4326,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H20" t="s">
         <v>283</v>
@@ -4089,12 +4335,9 @@
         <v>74</v>
       </c>
       <c r="AA20" t="s">
-        <v>590</v>
-      </c>
-      <c r="AB20" t="s">
         <v>95</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AF20" t="s">
         <v>472</v>
       </c>
     </row>
@@ -4103,7 +4346,7 @@
         <v>377</v>
       </c>
       <c r="F21" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H21" t="s">
         <v>284</v>
@@ -4112,12 +4355,9 @@
         <v>75</v>
       </c>
       <c r="AA21" t="s">
-        <v>591</v>
-      </c>
-      <c r="AB21" t="s">
         <v>96</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AF21" t="s">
         <v>476</v>
       </c>
     </row>
@@ -4126,7 +4366,7 @@
         <v>393</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>568</v>
       </c>
       <c r="H22" t="s">
         <v>285</v>
@@ -4135,12 +4375,9 @@
         <v>531</v>
       </c>
       <c r="AA22" t="s">
-        <v>592</v>
-      </c>
-      <c r="AB22" t="s">
         <v>97</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AF22" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4149,7 +4386,7 @@
         <v>394</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H23" t="s">
         <v>286</v>
@@ -4158,12 +4395,9 @@
         <v>449</v>
       </c>
       <c r="AA23" t="s">
-        <v>593</v>
-      </c>
-      <c r="AB23" t="s">
         <v>98</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AF23" t="s">
         <v>512</v>
       </c>
     </row>
@@ -4172,7 +4406,7 @@
         <v>341</v>
       </c>
       <c r="F24" t="s">
-        <v>515</v>
+        <v>52</v>
       </c>
       <c r="H24" t="s">
         <v>277</v>
@@ -4181,12 +4415,9 @@
         <v>36</v>
       </c>
       <c r="AA24" t="s">
-        <v>594</v>
-      </c>
-      <c r="AB24" t="s">
         <v>460</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AF24" t="s">
         <v>513</v>
       </c>
     </row>
@@ -4195,7 +4426,7 @@
         <v>378</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>515</v>
       </c>
       <c r="H25" t="s">
         <v>266</v>
@@ -4204,12 +4435,9 @@
         <v>375</v>
       </c>
       <c r="AA25" t="s">
-        <v>595</v>
-      </c>
-      <c r="AB25" t="s">
         <v>99</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AF25" t="s">
         <v>514</v>
       </c>
     </row>
@@ -4218,7 +4446,7 @@
         <v>550</v>
       </c>
       <c r="F26" t="s">
-        <v>308</v>
+        <v>53</v>
       </c>
       <c r="H26" t="s">
         <v>67</v>
@@ -4227,21 +4455,18 @@
         <v>570</v>
       </c>
       <c r="AA26" t="s">
-        <v>596</v>
-      </c>
-      <c r="AB26" t="s">
         <v>519</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AF26" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>565</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>308</v>
       </c>
       <c r="H27" t="s">
         <v>269</v>
@@ -4250,21 +4475,18 @@
         <v>500</v>
       </c>
       <c r="AA27" t="s">
-        <v>597</v>
-      </c>
-      <c r="AB27" t="s">
         <v>100</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AF27" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>428</v>
+        <v>54</v>
       </c>
       <c r="H28" t="s">
         <v>253</v>
@@ -4273,18 +4495,15 @@
         <v>76</v>
       </c>
       <c r="AA28" t="s">
-        <v>598</v>
-      </c>
-      <c r="AB28" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F29" t="s">
-        <v>213</v>
+        <v>428</v>
       </c>
       <c r="H29" t="s">
         <v>270</v>
@@ -4293,18 +4512,15 @@
         <v>421</v>
       </c>
       <c r="AA29" t="s">
-        <v>599</v>
-      </c>
-      <c r="AB29" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H30" t="s">
         <v>271</v>
@@ -4313,18 +4529,15 @@
         <v>37</v>
       </c>
       <c r="AA30" t="s">
-        <v>600</v>
-      </c>
-      <c r="AB30" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>395</v>
       </c>
       <c r="F31" t="s">
-        <v>447</v>
+        <v>214</v>
       </c>
       <c r="H31" t="s">
         <v>205</v>
@@ -4333,165 +4546,141 @@
         <v>38</v>
       </c>
       <c r="AA31" t="s">
-        <v>601</v>
-      </c>
-      <c r="AB31" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>395</v>
+        <v>215</v>
       </c>
       <c r="F32" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H32" t="s">
         <v>262</v>
       </c>
       <c r="AA32" t="s">
-        <v>602</v>
-      </c>
-      <c r="AB32" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>215</v>
-      </c>
       <c r="F33" t="s">
-        <v>397</v>
+        <v>448</v>
       </c>
       <c r="H33" t="s">
         <v>272</v>
       </c>
       <c r="AA33" t="s">
-        <v>603</v>
-      </c>
-      <c r="AB33" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>55</v>
+        <v>397</v>
       </c>
       <c r="H34" t="s">
         <v>485</v>
       </c>
       <c r="AA34" t="s">
-        <v>604</v>
-      </c>
-      <c r="AB34" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H35" t="s">
         <v>247</v>
       </c>
       <c r="AA35" t="s">
-        <v>605</v>
-      </c>
-      <c r="AB35" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H36" t="s">
         <v>317</v>
       </c>
       <c r="AA36" t="s">
-        <v>606</v>
-      </c>
-      <c r="AB36" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H37" t="s">
         <v>294</v>
       </c>
       <c r="AA37" t="s">
-        <v>607</v>
-      </c>
-      <c r="AB37" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H38" t="s">
         <v>248</v>
       </c>
       <c r="AA38" t="s">
-        <v>608</v>
-      </c>
-      <c r="AB38" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H39" t="s">
         <v>295</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AA39" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H40" t="s">
         <v>254</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AA40" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H41" t="s">
         <v>69</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AA41" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>569</v>
+        <v>62</v>
       </c>
       <c r="H42" t="s">
         <v>201</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AA42" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="43">
+      <c r="F43" t="s">
+        <v>569</v>
+      </c>
       <c r="H43" t="s">
         <v>516</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AA43" t="s">
         <v>529</v>
       </c>
     </row>
@@ -4499,7 +4688,7 @@
       <c r="H44" t="s">
         <v>276</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AA44" t="s">
         <v>376</v>
       </c>
     </row>
@@ -4507,7 +4696,7 @@
       <c r="H45" t="s">
         <v>287</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AA45" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4515,7 +4704,7 @@
       <c r="H46" t="s">
         <v>288</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AA46" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4523,7 +4712,7 @@
       <c r="H47" t="s">
         <v>330</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AA47" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4531,7 +4720,7 @@
       <c r="H48" t="s">
         <v>329</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AA48" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4539,7 +4728,7 @@
       <c r="H49" t="s">
         <v>200</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AA49" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4547,7 +4736,7 @@
       <c r="H50" t="s">
         <v>307</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AA50" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4555,7 +4744,7 @@
       <c r="H51" t="s">
         <v>326</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AA51" t="s">
         <v>558</v>
       </c>
     </row>
@@ -4563,7 +4752,7 @@
       <c r="H52" t="s">
         <v>352</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AA52" t="s">
         <v>202</v>
       </c>
     </row>
@@ -4571,7 +4760,7 @@
       <c r="H53" t="s">
         <v>289</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AA53" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4579,7 +4768,7 @@
       <c r="H54" t="s">
         <v>340</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AA54" t="s">
         <v>508</v>
       </c>
     </row>
@@ -4587,7 +4776,7 @@
       <c r="H55" t="s">
         <v>318</v>
       </c>
-      <c r="AB55" t="s">
+      <c r="AA55" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4595,7 +4784,7 @@
       <c r="H56" t="s">
         <v>255</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AA56" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4603,7 +4792,7 @@
       <c r="H57" t="s">
         <v>279</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="AA57" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4611,7 +4800,7 @@
       <c r="H58" t="s">
         <v>280</v>
       </c>
-      <c r="AB58" t="s">
+      <c r="AA58" t="s">
         <v>461</v>
       </c>
     </row>
@@ -4619,7 +4808,7 @@
       <c r="H59" t="s">
         <v>517</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AA59" t="s">
         <v>444</v>
       </c>
     </row>
@@ -4627,7 +4816,7 @@
       <c r="H60" t="s">
         <v>281</v>
       </c>
-      <c r="AB60" t="s">
+      <c r="AA60" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4635,7 +4824,7 @@
       <c r="H61" t="s">
         <v>290</v>
       </c>
-      <c r="AB61" t="s">
+      <c r="AA61" t="s">
         <v>333</v>
       </c>
     </row>
@@ -4643,7 +4832,7 @@
       <c r="H62" t="s">
         <v>299</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AA62" t="s">
         <v>438</v>
       </c>
     </row>
@@ -4651,7 +4840,7 @@
       <c r="H63" t="s">
         <v>324</v>
       </c>
-      <c r="AB63" t="s">
+      <c r="AA63" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4659,7 +4848,7 @@
       <c r="H64" t="s">
         <v>296</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AA64" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4667,7 +4856,7 @@
       <c r="H65" t="s">
         <v>297</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AA65" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4675,7 +4864,7 @@
       <c r="H66" t="s">
         <v>353</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AA66" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4683,7 +4872,7 @@
       <c r="H67" t="s">
         <v>354</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AA67" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4691,7 +4880,7 @@
       <c r="H68" t="s">
         <v>332</v>
       </c>
-      <c r="AB68" t="s">
+      <c r="AA68" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4699,7 +4888,7 @@
       <c r="H69" t="s">
         <v>300</v>
       </c>
-      <c r="AB69" t="s">
+      <c r="AA69" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4707,7 +4896,7 @@
       <c r="H70" t="s">
         <v>256</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AA70" t="s">
         <v>419</v>
       </c>
     </row>
@@ -4715,7 +4904,7 @@
       <c r="H71" t="s">
         <v>504</v>
       </c>
-      <c r="AB71" t="s">
+      <c r="AA71" t="s">
         <v>452</v>
       </c>
     </row>
@@ -4723,7 +4912,7 @@
       <c r="H72" t="s">
         <v>301</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AA72" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4731,7 +4920,7 @@
       <c r="H73" t="s">
         <v>391</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AA73" t="s">
         <v>372</v>
       </c>
     </row>
@@ -4739,7 +4928,7 @@
       <c r="H74" t="s">
         <v>291</v>
       </c>
-      <c r="AB74" t="s">
+      <c r="AA74" t="s">
         <v>423</v>
       </c>
     </row>
@@ -4747,7 +4936,7 @@
       <c r="H75" t="s">
         <v>392</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AA75" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4755,7 +4944,7 @@
       <c r="H76" t="s">
         <v>249</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AA76" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4763,7 +4952,7 @@
       <c r="H77" t="s">
         <v>486</v>
       </c>
-      <c r="AB77" t="s">
+      <c r="AA77" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4771,7 +4960,7 @@
       <c r="H78" t="s">
         <v>331</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="AA78" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4779,7 +4968,7 @@
       <c r="H79" t="s">
         <v>267</v>
       </c>
-      <c r="AB79" t="s">
+      <c r="AA79" t="s">
         <v>609</v>
       </c>
     </row>
@@ -4787,7 +4976,7 @@
       <c r="H80" t="s">
         <v>273</v>
       </c>
-      <c r="AB80" t="s">
+      <c r="AA80" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4795,7 +4984,7 @@
       <c r="H81" t="s">
         <v>278</v>
       </c>
-      <c r="AB81" t="s">
+      <c r="AA81" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4803,7 +4992,7 @@
       <c r="H82" t="s">
         <v>398</v>
       </c>
-      <c r="AB82" t="s">
+      <c r="AA82" t="s">
         <v>433</v>
       </c>
     </row>
@@ -4811,7 +5000,7 @@
       <c r="H83" t="s">
         <v>319</v>
       </c>
-      <c r="AB83" t="s">
+      <c r="AA83" t="s">
         <v>446</v>
       </c>
     </row>
@@ -4819,7 +5008,7 @@
       <c r="H84" t="s">
         <v>257</v>
       </c>
-      <c r="AB84" t="s">
+      <c r="AA84" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4827,7 +5016,7 @@
       <c r="H85" t="s">
         <v>268</v>
       </c>
-      <c r="AB85" t="s">
+      <c r="AA85" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4835,7 +5024,7 @@
       <c r="H86" t="s">
         <v>274</v>
       </c>
-      <c r="AB86" t="s">
+      <c r="AA86" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4843,7 +5032,7 @@
       <c r="H87" t="s">
         <v>263</v>
       </c>
-      <c r="AB87" t="s">
+      <c r="AA87" t="s">
         <v>473</v>
       </c>
     </row>
@@ -4851,7 +5040,7 @@
       <c r="H88" t="s">
         <v>505</v>
       </c>
-      <c r="AB88" t="s">
+      <c r="AA88" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4859,7 +5048,7 @@
       <c r="H89" t="s">
         <v>258</v>
       </c>
-      <c r="AB89" t="s">
+      <c r="AA89" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4867,7 +5056,7 @@
       <c r="H90" t="s">
         <v>275</v>
       </c>
-      <c r="AB90" t="s">
+      <c r="AA90" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4875,7 +5064,7 @@
       <c r="H91" t="s">
         <v>259</v>
       </c>
-      <c r="AB91" t="s">
+      <c r="AA91" t="s">
         <v>462</v>
       </c>
     </row>
@@ -4883,7 +5072,7 @@
       <c r="H92" t="s">
         <v>260</v>
       </c>
-      <c r="AB92" t="s">
+      <c r="AA92" t="s">
         <v>537</v>
       </c>
     </row>
@@ -4891,7 +5080,7 @@
       <c r="H93" t="s">
         <v>292</v>
       </c>
-      <c r="AB93" t="s">
+      <c r="AA93" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4899,7 +5088,7 @@
       <c r="H94" t="s">
         <v>298</v>
       </c>
-      <c r="AB94" t="s">
+      <c r="AA94" t="s">
         <v>432</v>
       </c>
     </row>
@@ -4907,7 +5096,7 @@
       <c r="H95" t="s">
         <v>282</v>
       </c>
-      <c r="AB95" t="s">
+      <c r="AA95" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4915,7 +5104,7 @@
       <c r="H96" t="s">
         <v>327</v>
       </c>
-      <c r="AB96" t="s">
+      <c r="AA96" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4923,7 +5112,7 @@
       <c r="H97" t="s">
         <v>264</v>
       </c>
-      <c r="AB97" t="s">
+      <c r="AA97" t="s">
         <v>523</v>
       </c>
     </row>
@@ -4931,272 +5120,272 @@
       <c r="H98" t="s">
         <v>265</v>
       </c>
-      <c r="AB98" t="s">
+      <c r="AA98" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="99">
-      <c r="AB99" t="s">
+      <c r="AA99" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="100">
-      <c r="AB100" t="s">
+      <c r="AA100" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="101">
-      <c r="AB101" t="s">
+      <c r="AA101" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="102">
-      <c r="AB102" t="s">
+      <c r="AA102" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="103">
-      <c r="AB103" t="s">
+      <c r="AA103" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="104">
-      <c r="AB104" t="s">
+      <c r="AA104" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="105">
-      <c r="AB105" t="s">
+      <c r="AA105" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="106">
-      <c r="AB106" t="s">
+      <c r="AA106" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="107">
-      <c r="AB107" t="s">
+      <c r="AA107" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="108">
-      <c r="AB108" t="s">
+      <c r="AA108" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="109">
-      <c r="AB109" t="s">
+      <c r="AA109" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="110">
-      <c r="AB110" t="s">
+      <c r="AA110" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="111">
-      <c r="AB111" t="s">
+      <c r="AA111" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="112">
-      <c r="AB112" t="s">
+      <c r="AA112" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="113">
-      <c r="AB113" t="s">
+      <c r="AA113" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="114">
-      <c r="AB114" t="s">
+      <c r="AA114" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="115">
-      <c r="AB115" t="s">
+      <c r="AA115" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="116">
-      <c r="AB116" t="s">
+      <c r="AA116" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="117">
-      <c r="AB117" t="s">
+      <c r="AA117" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="118">
-      <c r="AB118" t="s">
+      <c r="AA118" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="119">
-      <c r="AB119" t="s">
+      <c r="AA119" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="120">
-      <c r="AB120" t="s">
+      <c r="AA120" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="121">
-      <c r="AB121" t="s">
+      <c r="AA121" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="122">
-      <c r="AB122" t="s">
+      <c r="AA122" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="123">
-      <c r="AB123" t="s">
+      <c r="AA123" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="124">
-      <c r="AB124" t="s">
+      <c r="AA124" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="125">
-      <c r="AB125" t="s">
+      <c r="AA125" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="126">
-      <c r="AB126" t="s">
+      <c r="AA126" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="127">
-      <c r="AB127" t="s">
+      <c r="AA127" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="128">
-      <c r="AB128" t="s">
+      <c r="AA128" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="129">
-      <c r="AB129" t="s">
+      <c r="AA129" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="130">
-      <c r="AB130" t="s">
+      <c r="AA130" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="131">
-      <c r="AB131" t="s">
+      <c r="AA131" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="132">
-      <c r="AB132" t="s">
+      <c r="AA132" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="133">
-      <c r="AB133" t="s">
+      <c r="AA133" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="134">
-      <c r="AB134" t="s">
+      <c r="AA134" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="135">
-      <c r="AB135" t="s">
+      <c r="AA135" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="136">
-      <c r="AB136" t="s">
+      <c r="AA136" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="137">
-      <c r="AB137" t="s">
+      <c r="AA137" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="138">
-      <c r="AB138" t="s">
+      <c r="AA138" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="139">
-      <c r="AB139" t="s">
+      <c r="AA139" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="140">
-      <c r="AB140" t="s">
+      <c r="AA140" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="141">
-      <c r="AB141" t="s">
+      <c r="AA141" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="142">
-      <c r="AB142" t="s">
+      <c r="AA142" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="143">
-      <c r="AB143" t="s">
+      <c r="AA143" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="144">
-      <c r="AB144" t="s">
+      <c r="AA144" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="145">
-      <c r="AB145" t="s">
+      <c r="AA145" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="146">
-      <c r="AB146" t="s">
+      <c r="AA146" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="147">
-      <c r="AB147" t="s">
+      <c r="AA147" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="148">
-      <c r="AB148" t="s">
+      <c r="AA148" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="149">
-      <c r="AB149" t="s">
+      <c r="AA149" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="150">
-      <c r="AB150" t="s">
+      <c r="AA150" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="151">
-      <c r="AB151" t="s">
+      <c r="AA151" t="s">
         <v>616</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macroFlex-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macroFlex-macro.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2480" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3680" uniqueCount="619">
   <si>
     <t>description</t>
   </si>
@@ -1933,7 +1933,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="93" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2308,8 +2308,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="75">
+  <fills count="123">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2320,6 +2534,278 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB4B4B4"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -2760,7 +3246,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="106">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2932,55 +3418,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="47" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="53" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="53" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="56" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="56" fontId="44" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="59" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="59" fontId="45" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="62" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="62" fontId="46" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="65" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="65" fontId="48" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="68" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="68" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="71" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="71" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="59" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="59" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="62" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="62" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="74" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="74" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="62" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="62" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="71" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="71" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="77" fontId="59" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="80" fontId="61" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="83" fontId="62" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="86" fontId="63" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="89" fontId="65" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="92" fontId="67" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="95" fontId="68" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="83" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="86" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="98" fontId="73" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="86" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="95" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="101" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="104" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="107" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="110" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="113" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="116" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="119" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="107" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="110" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="110" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="119" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macroFlex-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macroFlex-macro.xlsx
@@ -23,12 +23,12 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$31</definedName>
+    <definedName name="io">'#system'!$L$2:$L$32</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3680" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4886" uniqueCount="623">
   <si>
     <t>description</t>
   </si>
@@ -1926,6 +1926,18 @@
   </si>
   <si>
     <t>openFile(filePath)</t>
+  </si>
+  <si>
+    <t>checksum(var,file)</t>
+  </si>
+  <si>
+    <t>clearMail(var)</t>
+  </si>
+  <si>
+    <t>composeMail(var,action,value)</t>
+  </si>
+  <si>
+    <t>send(profile,var)</t>
   </si>
 </sst>
 </file>
@@ -1933,7 +1945,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="93" x14ac:knownFonts="1">
+  <fonts count="127" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2522,8 +2534,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="123">
+  <fills count="171">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2534,6 +2760,278 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB4B4B4"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -3246,7 +3744,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="140">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3520,55 +4018,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="95" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="101" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="101" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="104" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="104" fontId="78" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="107" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="107" fontId="79" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="110" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="110" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="113" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="113" fontId="82" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="116" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="116" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="119" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="119" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="107" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="107" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="110" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="110" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="122" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="110" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="110" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="119" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="119" fontId="92" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="125" fontId="93" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="94" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="128" fontId="95" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="131" fontId="96" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="134" fontId="97" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="137" fontId="99" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="140" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="143" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="131" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="134" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="146" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="134" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="143" fontId="109" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="152" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="155" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="158" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="161" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="164" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="167" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="155" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="158" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="170" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="158" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="167" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4023,7 +4623,7 @@
         <v>457</v>
       </c>
       <c r="Q2" t="s">
-        <v>400</v>
+        <v>620</v>
       </c>
       <c r="R2" t="s">
         <v>401</v>
@@ -4117,6 +4717,9 @@
       <c r="P3" t="s">
         <v>458</v>
       </c>
+      <c r="Q3" t="s">
+        <v>621</v>
+      </c>
       <c r="R3" t="s">
         <v>402</v>
       </c>
@@ -4203,6 +4806,9 @@
       <c r="P4" t="s">
         <v>459</v>
       </c>
+      <c r="Q4" t="s">
+        <v>622</v>
+      </c>
       <c r="R4" t="s">
         <v>19</v>
       </c>
@@ -4414,7 +5020,7 @@
         <v>335</v>
       </c>
       <c r="L7" t="s">
-        <v>63</v>
+        <v>619</v>
       </c>
       <c r="N7" t="s">
         <v>302</v>
@@ -4476,7 +5082,7 @@
         <v>506</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="N8" t="s">
         <v>26</v>
@@ -4535,7 +5141,7 @@
         <v>316</v>
       </c>
       <c r="L9" t="s">
-        <v>481</v>
+        <v>12</v>
       </c>
       <c r="N9" t="s">
         <v>27</v>
@@ -4585,7 +5191,7 @@
         <v>547</v>
       </c>
       <c r="L10" t="s">
-        <v>71</v>
+        <v>481</v>
       </c>
       <c r="N10" t="s">
         <v>28</v>
@@ -4629,7 +5235,7 @@
         <v>548</v>
       </c>
       <c r="L11" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="N11" t="s">
         <v>450</v>
@@ -4667,7 +5273,7 @@
         <v>431</v>
       </c>
       <c r="L12" t="s">
-        <v>482</v>
+        <v>30</v>
       </c>
       <c r="N12" t="s">
         <v>507</v>
@@ -4705,7 +5311,7 @@
         <v>309</v>
       </c>
       <c r="L13" t="s">
-        <v>373</v>
+        <v>482</v>
       </c>
       <c r="N13" t="s">
         <v>422</v>
@@ -4743,7 +5349,7 @@
         <v>310</v>
       </c>
       <c r="L14" t="s">
-        <v>13</v>
+        <v>373</v>
       </c>
       <c r="N14" t="s">
         <v>451</v>
@@ -4778,7 +5384,7 @@
         <v>311</v>
       </c>
       <c r="L15" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="N15" t="s">
         <v>31</v>
@@ -4813,7 +5419,7 @@
         <v>312</v>
       </c>
       <c r="L16" t="s">
-        <v>483</v>
+        <v>34</v>
       </c>
       <c r="N16" t="s">
         <v>518</v>
@@ -4845,7 +5451,7 @@
         <v>304</v>
       </c>
       <c r="L17" t="s">
-        <v>72</v>
+        <v>483</v>
       </c>
       <c r="N17" t="s">
         <v>32</v>
@@ -4874,7 +5480,7 @@
         <v>80</v>
       </c>
       <c r="L18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N18" t="s">
         <v>35</v>
@@ -4900,7 +5506,7 @@
         <v>81</v>
       </c>
       <c r="L19" t="s">
-        <v>435</v>
+        <v>73</v>
       </c>
       <c r="AA19" t="s">
         <v>479</v>
@@ -4920,7 +5526,7 @@
         <v>283</v>
       </c>
       <c r="L20" t="s">
-        <v>74</v>
+        <v>435</v>
       </c>
       <c r="AA20" t="s">
         <v>95</v>
@@ -4940,7 +5546,7 @@
         <v>284</v>
       </c>
       <c r="L21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AA21" t="s">
         <v>96</v>
@@ -4960,7 +5566,7 @@
         <v>285</v>
       </c>
       <c r="L22" t="s">
-        <v>531</v>
+        <v>75</v>
       </c>
       <c r="AA22" t="s">
         <v>97</v>
@@ -4980,7 +5586,7 @@
         <v>286</v>
       </c>
       <c r="L23" t="s">
-        <v>449</v>
+        <v>531</v>
       </c>
       <c r="AA23" t="s">
         <v>98</v>
@@ -5000,7 +5606,7 @@
         <v>277</v>
       </c>
       <c r="L24" t="s">
-        <v>36</v>
+        <v>449</v>
       </c>
       <c r="AA24" t="s">
         <v>460</v>
@@ -5020,7 +5626,7 @@
         <v>266</v>
       </c>
       <c r="L25" t="s">
-        <v>375</v>
+        <v>36</v>
       </c>
       <c r="AA25" t="s">
         <v>99</v>
@@ -5040,7 +5646,7 @@
         <v>67</v>
       </c>
       <c r="L26" t="s">
-        <v>570</v>
+        <v>375</v>
       </c>
       <c r="AA26" t="s">
         <v>519</v>
@@ -5060,7 +5666,7 @@
         <v>269</v>
       </c>
       <c r="L27" t="s">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="AA27" t="s">
         <v>100</v>
@@ -5080,7 +5686,7 @@
         <v>253</v>
       </c>
       <c r="L28" t="s">
-        <v>76</v>
+        <v>500</v>
       </c>
       <c r="AA28" t="s">
         <v>101</v>
@@ -5097,7 +5703,7 @@
         <v>270</v>
       </c>
       <c r="L29" t="s">
-        <v>421</v>
+        <v>76</v>
       </c>
       <c r="AA29" t="s">
         <v>102</v>
@@ -5114,7 +5720,7 @@
         <v>271</v>
       </c>
       <c r="L30" t="s">
-        <v>37</v>
+        <v>421</v>
       </c>
       <c r="AA30" t="s">
         <v>103</v>
@@ -5131,7 +5737,7 @@
         <v>205</v>
       </c>
       <c r="L31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA31" t="s">
         <v>314</v>
@@ -5146,6 +5752,9 @@
       </c>
       <c r="H32" t="s">
         <v>262</v>
+      </c>
+      <c r="L32" t="s">
+        <v>38</v>
       </c>
       <c r="AA32" t="s">
         <v>104</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macroFlex-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macroFlex-macro.xlsx
@@ -28,12 +28,12 @@
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4886" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5493" uniqueCount="629">
   <si>
     <t>description</t>
   </si>
@@ -1938,6 +1938,24 @@
   </si>
   <si>
     <t>send(profile,var)</t>
+  </si>
+  <si>
+    <t>clearComposed(var)</t>
+  </si>
+  <si>
+    <t>compose(var,config,value)</t>
+  </si>
+  <si>
+    <t>sendComposed(profile,var)</t>
+  </si>
+  <si>
+    <t>ocr(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>savePageCount(pdf,var)</t>
+  </si>
+  <si>
+    <t>split(pdf,saveTo)</t>
   </si>
 </sst>
 </file>
@@ -1945,7 +1963,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="127" x14ac:knownFonts="1">
+  <fonts count="144" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2748,8 +2766,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="171">
+  <fills count="195">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2760,6 +2885,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB4B4B4"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -3744,7 +4005,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="157">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4120,55 +4381,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="143" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="149" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="152" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="152" fontId="112" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="155" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="155" fontId="113" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="158" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="158" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="161" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="161" fontId="116" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="164" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="164" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="167" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="167" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="155" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="155" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="158" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="158" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="170" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="170" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="158" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="158" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="167" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="167" fontId="126" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="173" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="176" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="179" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="182" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="185" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="188" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="191" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="179" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="182" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="194" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="182" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="191" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4623,7 +4935,7 @@
         <v>457</v>
       </c>
       <c r="Q2" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="R2" t="s">
         <v>401</v>
@@ -4718,7 +5030,7 @@
         <v>458</v>
       </c>
       <c r="Q3" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="R3" t="s">
         <v>402</v>
@@ -4807,7 +5119,7 @@
         <v>459</v>
       </c>
       <c r="Q4" t="s">
-        <v>622</v>
+        <v>400</v>
       </c>
       <c r="R4" t="s">
         <v>19</v>
@@ -4889,6 +5201,9 @@
       <c r="O5" t="s">
         <v>501</v>
       </c>
+      <c r="Q5" t="s">
+        <v>625</v>
+      </c>
       <c r="R5" t="s">
         <v>22</v>
       </c>
@@ -5323,7 +5638,7 @@
         <v>85</v>
       </c>
       <c r="S13" t="s">
-        <v>237</v>
+        <v>626</v>
       </c>
       <c r="AA13" t="s">
         <v>313</v>
@@ -5358,7 +5673,7 @@
         <v>86</v>
       </c>
       <c r="S14" t="s">
-        <v>538</v>
+        <v>237</v>
       </c>
       <c r="AA14" t="s">
         <v>93</v>
@@ -5393,7 +5708,7 @@
         <v>477</v>
       </c>
       <c r="S15" t="s">
-        <v>242</v>
+        <v>538</v>
       </c>
       <c r="AA15" t="s">
         <v>557</v>
@@ -5428,7 +5743,7 @@
         <v>478</v>
       </c>
       <c r="S16" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AA16" t="s">
         <v>539</v>
@@ -5457,7 +5772,7 @@
         <v>32</v>
       </c>
       <c r="S17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA17" t="s">
         <v>94</v>
@@ -5486,7 +5801,7 @@
         <v>35</v>
       </c>
       <c r="S18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AA18" t="s">
         <v>66</v>
@@ -5508,6 +5823,9 @@
       <c r="L19" t="s">
         <v>73</v>
       </c>
+      <c r="S19" t="s">
+        <v>627</v>
+      </c>
       <c r="AA19" t="s">
         <v>479</v>
       </c>
@@ -5528,6 +5846,9 @@
       <c r="L20" t="s">
         <v>435</v>
       </c>
+      <c r="S20" t="s">
+        <v>240</v>
+      </c>
       <c r="AA20" t="s">
         <v>95</v>
       </c>
@@ -5547,6 +5868,9 @@
       </c>
       <c r="L21" t="s">
         <v>74</v>
+      </c>
+      <c r="S21" t="s">
+        <v>628</v>
       </c>
       <c r="AA21" t="s">
         <v>96</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macroFlex-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macroFlex-macro.xlsx
@@ -15,12 +15,12 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$45</definedName>
+    <definedName name="base">'#system'!$F$2:$F$47</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$32</definedName>
@@ -41,15 +41,17 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$34</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
+    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
+    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
+    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
+    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -69,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5493" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6134" uniqueCount="666">
   <si>
     <t>description</t>
   </si>
@@ -1956,6 +1958,117 @@
   </si>
   <si>
     <t>split(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>webmail</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>assertVarsNotPresent(vars)</t>
+  </si>
+  <si>
+    <t>assertVarsPresent(vars)</t>
+  </si>
+  <si>
+    <t>check(name)</t>
+  </si>
+  <si>
+    <t>checkByLocator(locator)</t>
+  </si>
+  <si>
+    <t>clickMenuByLocator(locator,menu)</t>
+  </si>
+  <si>
+    <t>contextMenu(name,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>contextMenuByLocator(locator,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>doubleClick(name)</t>
+  </si>
+  <si>
+    <t>doubleClickByLocator(locator)</t>
+  </si>
+  <si>
+    <t>rightClickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>rightClickOffset(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveAllTableRows(var,csv)</t>
+  </si>
+  <si>
+    <t>saveComboOptions(var,name)</t>
+  </si>
+  <si>
+    <t>saveComboOptionsByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>saveTableRows(var,contains,csv)</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow,csv)</t>
+  </si>
+  <si>
+    <t>screenshot(name,file)</t>
+  </si>
+  <si>
+    <t>screenshotByLocator(locator,file)</t>
+  </si>
+  <si>
+    <t>uncheck(name)</t>
+  </si>
+  <si>
+    <t>uncheckByLocator(locator)</t>
+  </si>
+  <si>
+    <t>renameSheet(file,worksheet,newName)</t>
+  </si>
+  <si>
+    <t>xls2xlsx(xlsFile,xlsxFile)</t>
+  </si>
+  <si>
+    <t>assertLocation(search)</t>
+  </si>
+  <si>
+    <t>openInTab(name,url)</t>
+  </si>
+  <si>
+    <t>delete(profile,id)</t>
+  </si>
+  <si>
+    <t>read(var,profile,id)</t>
+  </si>
+  <si>
+    <t>search(var,profile,searchCriteria,duration)</t>
+  </si>
+  <si>
+    <t>assertContains(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotContain(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotReadOnly(file)</t>
+  </si>
+  <si>
+    <t>assertPassword(file,password)</t>
+  </si>
+  <si>
+    <t>assertReadOnly(file)</t>
+  </si>
+  <si>
+    <t>extractText(var,file)</t>
+  </si>
+  <si>
+    <t>readOnly(file,password)</t>
+  </si>
+  <si>
+    <t>removeProtection(file)</t>
   </si>
 </sst>
 </file>
@@ -1963,7 +2076,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="144" x14ac:knownFonts="1">
+  <fonts count="161" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2873,8 +2986,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="195">
+  <fills count="219">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2885,6 +3105,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB4B4B4"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -4005,7 +4361,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="174">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4481,6 +4837,57 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="143" fillId="191" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="197" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="200" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="203" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="206" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="209" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="212" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="215" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="203" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="206" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="218" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="206" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="215" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4778,7 +5185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG151"/>
+  <dimension ref="A1:AI153"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -4876,12 +5283,18 @@
         <v>47</v>
       </c>
       <c r="AD1" t="s">
+        <v>629</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>630</v>
+      </c>
+      <c r="AF1" t="s">
         <v>48</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>395</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4974,12 +5387,18 @@
         <v>165</v>
       </c>
       <c r="AD2" t="s">
+        <v>655</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>658</v>
+      </c>
+      <c r="AF2" t="s">
         <v>172</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>412</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>468</v>
       </c>
     </row>
@@ -5066,12 +5485,18 @@
         <v>166</v>
       </c>
       <c r="AD3" t="s">
+        <v>656</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>659</v>
+      </c>
+      <c r="AF3" t="s">
         <v>348</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG3" t="s">
         <v>173</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
         <v>216</v>
       </c>
     </row>
@@ -5155,12 +5580,18 @@
         <v>167</v>
       </c>
       <c r="AD4" t="s">
+        <v>657</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>660</v>
+      </c>
+      <c r="AF4" t="s">
         <v>173</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>413</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AH4" t="s">
         <v>217</v>
       </c>
     </row>
@@ -5231,13 +5662,16 @@
       <c r="AC5" t="s">
         <v>545</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
+        <v>661</v>
+      </c>
+      <c r="AF5" t="s">
         <v>174</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AG5" t="s">
         <v>414</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AH5" t="s">
         <v>218</v>
       </c>
     </row>
@@ -5302,13 +5736,16 @@
       <c r="AC6" t="s">
         <v>168</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
+        <v>662</v>
+      </c>
+      <c r="AF6" t="s">
         <v>175</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AG6" t="s">
         <v>415</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AH6" t="s">
         <v>219</v>
       </c>
     </row>
@@ -5367,13 +5804,16 @@
       <c r="AC7" t="s">
         <v>169</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
+        <v>663</v>
+      </c>
+      <c r="AF7" t="s">
         <v>176</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AG7" t="s">
         <v>416</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AH7" t="s">
         <v>509</v>
       </c>
     </row>
@@ -5391,7 +5831,7 @@
         <v>350</v>
       </c>
       <c r="I8" t="s">
-        <v>315</v>
+        <v>651</v>
       </c>
       <c r="K8" t="s">
         <v>506</v>
@@ -5429,13 +5869,16 @@
       <c r="AC8" t="s">
         <v>170</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
+        <v>664</v>
+      </c>
+      <c r="AF8" t="s">
         <v>177</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AG8" t="s">
         <v>417</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AH8" t="s">
         <v>510</v>
       </c>
     </row>
@@ -5453,7 +5896,7 @@
         <v>351</v>
       </c>
       <c r="I9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L9" t="s">
         <v>12</v>
@@ -5485,10 +5928,13 @@
       <c r="AC9" t="s">
         <v>171</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
+        <v>665</v>
+      </c>
+      <c r="AF9" t="s">
         <v>178</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AH9" t="s">
         <v>511</v>
       </c>
     </row>
@@ -5503,7 +5949,7 @@
         <v>293</v>
       </c>
       <c r="I10" t="s">
-        <v>547</v>
+        <v>316</v>
       </c>
       <c r="L10" t="s">
         <v>481</v>
@@ -5529,10 +5975,10 @@
       <c r="AC10" t="s">
         <v>546</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AF10" t="s">
         <v>179</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AH10" t="s">
         <v>220</v>
       </c>
     </row>
@@ -5547,7 +5993,7 @@
         <v>339</v>
       </c>
       <c r="I11" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L11" t="s">
         <v>71</v>
@@ -5567,10 +6013,10 @@
       <c r="AA11" t="s">
         <v>245</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AF11" t="s">
         <v>246</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AH11" t="s">
         <v>221</v>
       </c>
     </row>
@@ -5585,7 +6031,7 @@
         <v>261</v>
       </c>
       <c r="I12" t="s">
-        <v>431</v>
+        <v>548</v>
       </c>
       <c r="L12" t="s">
         <v>30</v>
@@ -5605,10 +6051,10 @@
       <c r="AA12" t="s">
         <v>92</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AF12" t="s">
         <v>180</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AH12" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5623,7 +6069,7 @@
         <v>250</v>
       </c>
       <c r="I13" t="s">
-        <v>309</v>
+        <v>431</v>
       </c>
       <c r="L13" t="s">
         <v>482</v>
@@ -5643,10 +6089,10 @@
       <c r="AA13" t="s">
         <v>313</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AF13" t="s">
         <v>181</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AH13" t="s">
         <v>453</v>
       </c>
     </row>
@@ -5661,7 +6107,7 @@
         <v>303</v>
       </c>
       <c r="I14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L14" t="s">
         <v>373</v>
@@ -5678,10 +6124,10 @@
       <c r="AA14" t="s">
         <v>93</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AF14" t="s">
         <v>182</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AH14" t="s">
         <v>469</v>
       </c>
     </row>
@@ -5696,7 +6142,7 @@
         <v>251</v>
       </c>
       <c r="I15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L15" t="s">
         <v>13</v>
@@ -5713,10 +6159,10 @@
       <c r="AA15" t="s">
         <v>557</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AF15" t="s">
         <v>183</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AH15" t="s">
         <v>470</v>
       </c>
     </row>
@@ -5731,7 +6177,7 @@
         <v>252</v>
       </c>
       <c r="I16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L16" t="s">
         <v>34</v>
@@ -5748,10 +6194,10 @@
       <c r="AA16" t="s">
         <v>539</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AF16" t="s">
         <v>184</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AH16" t="s">
         <v>474</v>
       </c>
     </row>
@@ -5765,6 +6211,9 @@
       <c r="H17" t="s">
         <v>304</v>
       </c>
+      <c r="I17" t="s">
+        <v>312</v>
+      </c>
       <c r="L17" t="s">
         <v>483</v>
       </c>
@@ -5777,10 +6226,10 @@
       <c r="AA17" t="s">
         <v>94</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AF17" t="s">
         <v>442</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AH17" t="s">
         <v>475</v>
       </c>
     </row>
@@ -5794,6 +6243,9 @@
       <c r="H18" t="s">
         <v>80</v>
       </c>
+      <c r="I18" t="s">
+        <v>652</v>
+      </c>
       <c r="L18" t="s">
         <v>72</v>
       </c>
@@ -5806,7 +6258,7 @@
       <c r="AA18" t="s">
         <v>66</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AH18" t="s">
         <v>454</v>
       </c>
     </row>
@@ -5815,7 +6267,7 @@
         <v>227</v>
       </c>
       <c r="F19" t="s">
-        <v>396</v>
+        <v>631</v>
       </c>
       <c r="H19" t="s">
         <v>81</v>
@@ -5829,7 +6281,7 @@
       <c r="AA19" t="s">
         <v>479</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AH19" t="s">
         <v>471</v>
       </c>
     </row>
@@ -5838,7 +6290,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>566</v>
+        <v>632</v>
       </c>
       <c r="H20" t="s">
         <v>283</v>
@@ -5852,7 +6304,7 @@
       <c r="AA20" t="s">
         <v>95</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AH20" t="s">
         <v>472</v>
       </c>
     </row>
@@ -5861,7 +6313,7 @@
         <v>377</v>
       </c>
       <c r="F21" t="s">
-        <v>567</v>
+        <v>396</v>
       </c>
       <c r="H21" t="s">
         <v>284</v>
@@ -5875,7 +6327,7 @@
       <c r="AA21" t="s">
         <v>96</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AH21" t="s">
         <v>476</v>
       </c>
     </row>
@@ -5884,7 +6336,7 @@
         <v>393</v>
       </c>
       <c r="F22" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H22" t="s">
         <v>285</v>
@@ -5895,7 +6347,7 @@
       <c r="AA22" t="s">
         <v>97</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AH22" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5904,7 +6356,7 @@
         <v>394</v>
       </c>
       <c r="F23" t="s">
-        <v>51</v>
+        <v>567</v>
       </c>
       <c r="H23" t="s">
         <v>286</v>
@@ -5915,7 +6367,7 @@
       <c r="AA23" t="s">
         <v>98</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AH23" t="s">
         <v>512</v>
       </c>
     </row>
@@ -5924,7 +6376,7 @@
         <v>341</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>568</v>
       </c>
       <c r="H24" t="s">
         <v>277</v>
@@ -5935,7 +6387,7 @@
       <c r="AA24" t="s">
         <v>460</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AH24" t="s">
         <v>513</v>
       </c>
     </row>
@@ -5944,7 +6396,7 @@
         <v>378</v>
       </c>
       <c r="F25" t="s">
-        <v>515</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s">
         <v>266</v>
@@ -5955,7 +6407,7 @@
       <c r="AA25" t="s">
         <v>99</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AH25" t="s">
         <v>514</v>
       </c>
     </row>
@@ -5964,18 +6416,18 @@
         <v>550</v>
       </c>
       <c r="F26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H26" t="s">
-        <v>67</v>
+        <v>633</v>
       </c>
       <c r="L26" t="s">
         <v>375</v>
       </c>
       <c r="AA26" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF26" t="s">
+        <v>653</v>
+      </c>
+      <c r="AH26" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5984,18 +6436,18 @@
         <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>308</v>
+        <v>515</v>
       </c>
       <c r="H27" t="s">
-        <v>269</v>
+        <v>634</v>
       </c>
       <c r="L27" t="s">
         <v>570</v>
       </c>
       <c r="AA27" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF27" t="s">
+        <v>519</v>
+      </c>
+      <c r="AH27" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6004,16 +6456,16 @@
         <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H28" t="s">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c r="L28" t="s">
         <v>500</v>
       </c>
       <c r="AA28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
@@ -6021,892 +6473,953 @@
         <v>47</v>
       </c>
       <c r="F29" t="s">
-        <v>428</v>
+        <v>308</v>
       </c>
       <c r="H29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L29" t="s">
         <v>76</v>
       </c>
       <c r="AA29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>629</v>
       </c>
       <c r="F30" t="s">
-        <v>213</v>
+        <v>54</v>
       </c>
       <c r="H30" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="L30" t="s">
         <v>421</v>
       </c>
       <c r="AA30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>395</v>
+        <v>630</v>
       </c>
       <c r="F31" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
       <c r="H31" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="L31" t="s">
         <v>37</v>
       </c>
       <c r="AA31" t="s">
-        <v>314</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>215</v>
+        <v>48</v>
       </c>
       <c r="F32" t="s">
-        <v>447</v>
+        <v>213</v>
       </c>
       <c r="H32" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="L32" t="s">
         <v>38</v>
       </c>
       <c r="AA32" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>395</v>
+      </c>
+      <c r="F33" t="s">
+        <v>214</v>
+      </c>
+      <c r="H33" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA33" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="33">
-      <c r="F33" t="s">
-        <v>448</v>
-      </c>
-      <c r="H33" t="s">
-        <v>272</v>
-      </c>
-      <c r="AA33" t="s">
+    <row r="34">
+      <c r="A34" t="s">
+        <v>215</v>
+      </c>
+      <c r="F34" t="s">
+        <v>447</v>
+      </c>
+      <c r="H34" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA34" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="F34" t="s">
-        <v>397</v>
-      </c>
-      <c r="H34" t="s">
-        <v>485</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>55</v>
+        <v>448</v>
       </c>
       <c r="H35" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="AA35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>56</v>
+        <v>397</v>
       </c>
       <c r="H36" t="s">
-        <v>317</v>
+        <v>485</v>
       </c>
       <c r="AA36" t="s">
-        <v>520</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H37" t="s">
-        <v>294</v>
+        <v>247</v>
       </c>
       <c r="AA37" t="s">
-        <v>108</v>
+        <v>520</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H38" t="s">
-        <v>248</v>
+        <v>317</v>
       </c>
       <c r="AA38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H39" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AA39" t="s">
-        <v>199</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H40" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AA40" t="s">
-        <v>110</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H41" t="s">
-        <v>69</v>
+        <v>295</v>
       </c>
       <c r="AA41" t="s">
-        <v>325</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H42" t="s">
-        <v>201</v>
+        <v>254</v>
       </c>
       <c r="AA42" t="s">
-        <v>410</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
+        <v>61</v>
+      </c>
+      <c r="H43" t="s">
+        <v>635</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="F44" t="s">
+        <v>62</v>
+      </c>
+      <c r="H44" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="F45" t="s">
         <v>569</v>
       </c>
-      <c r="H43" t="s">
-        <v>516</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="H44" t="s">
-        <v>276</v>
-      </c>
-      <c r="AA44" t="s">
+      <c r="H45" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA45" t="s">
         <v>376</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="H45" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="46">
       <c r="H46" t="s">
-        <v>288</v>
+        <v>516</v>
       </c>
       <c r="AA46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47">
       <c r="H47" t="s">
-        <v>330</v>
+        <v>276</v>
       </c>
       <c r="AA47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48">
       <c r="H48" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
       <c r="AA48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49">
       <c r="H49" t="s">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="AA49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50">
       <c r="H50" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="AA50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51">
       <c r="H51" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AA51" t="s">
-        <v>558</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52">
       <c r="H52" t="s">
-        <v>352</v>
+        <v>200</v>
       </c>
       <c r="AA52" t="s">
-        <v>202</v>
+        <v>558</v>
       </c>
     </row>
     <row r="53">
       <c r="H53" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="AA53" t="s">
-        <v>68</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54">
       <c r="H54" t="s">
-        <v>340</v>
+        <v>636</v>
       </c>
       <c r="AA54" t="s">
-        <v>508</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55">
       <c r="H55" t="s">
-        <v>318</v>
+        <v>637</v>
       </c>
       <c r="AA55" t="s">
-        <v>117</v>
+        <v>508</v>
       </c>
     </row>
     <row r="56">
       <c r="H56" t="s">
-        <v>255</v>
+        <v>638</v>
       </c>
       <c r="AA56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57">
       <c r="H57" t="s">
-        <v>279</v>
+        <v>639</v>
       </c>
       <c r="AA57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58">
       <c r="H58" t="s">
-        <v>280</v>
+        <v>326</v>
       </c>
       <c r="AA58" t="s">
-        <v>461</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59">
       <c r="H59" t="s">
-        <v>517</v>
+        <v>352</v>
       </c>
       <c r="AA59" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
     </row>
     <row r="60">
       <c r="H60" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="AA60" t="s">
-        <v>120</v>
+        <v>444</v>
       </c>
     </row>
     <row r="61">
       <c r="H61" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="AA61" t="s">
-        <v>333</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62">
       <c r="H62" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="AA62" t="s">
-        <v>438</v>
+        <v>333</v>
       </c>
     </row>
     <row r="63">
       <c r="H63" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c r="AA63" t="s">
-        <v>121</v>
+        <v>438</v>
       </c>
     </row>
     <row r="64">
       <c r="H64" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="AA64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65">
       <c r="H65" t="s">
-        <v>297</v>
+        <v>517</v>
       </c>
       <c r="AA65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66">
       <c r="H66" t="s">
-        <v>353</v>
+        <v>281</v>
       </c>
       <c r="AA66" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67">
       <c r="H67" t="s">
-        <v>354</v>
+        <v>640</v>
       </c>
       <c r="AA67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68">
       <c r="H68" t="s">
-        <v>332</v>
+        <v>641</v>
       </c>
       <c r="AA68" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69">
       <c r="H69" t="s">
-        <v>300</v>
+        <v>642</v>
       </c>
       <c r="AA69" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70">
       <c r="H70" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="AA70" t="s">
-        <v>419</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71">
       <c r="H71" t="s">
-        <v>504</v>
+        <v>643</v>
       </c>
       <c r="AA71" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
     </row>
     <row r="72">
       <c r="H72" t="s">
-        <v>301</v>
+        <v>644</v>
       </c>
       <c r="AA72" t="s">
-        <v>203</v>
+        <v>452</v>
       </c>
     </row>
     <row r="73">
       <c r="H73" t="s">
-        <v>391</v>
+        <v>324</v>
       </c>
       <c r="AA73" t="s">
-        <v>372</v>
+        <v>203</v>
       </c>
     </row>
     <row r="74">
       <c r="H74" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="AA74" t="s">
-        <v>423</v>
+        <v>372</v>
       </c>
     </row>
     <row r="75">
       <c r="H75" t="s">
-        <v>392</v>
+        <v>297</v>
       </c>
       <c r="AA75" t="s">
-        <v>128</v>
+        <v>423</v>
       </c>
     </row>
     <row r="76">
       <c r="H76" t="s">
-        <v>249</v>
+        <v>353</v>
       </c>
       <c r="AA76" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77">
       <c r="H77" t="s">
-        <v>486</v>
+        <v>354</v>
       </c>
       <c r="AA77" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78">
       <c r="H78" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AA78" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79">
       <c r="H79" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="AA79" t="s">
-        <v>609</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="AA80" t="s">
-        <v>186</v>
+        <v>609</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
-        <v>278</v>
+        <v>504</v>
       </c>
       <c r="AA81" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" t="s">
-        <v>398</v>
+        <v>301</v>
       </c>
       <c r="AA82" t="s">
-        <v>433</v>
+        <v>187</v>
       </c>
     </row>
     <row r="83">
       <c r="H83" t="s">
-        <v>319</v>
+        <v>391</v>
       </c>
       <c r="AA83" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
     </row>
     <row r="84">
       <c r="H84" t="s">
-        <v>257</v>
+        <v>645</v>
       </c>
       <c r="AA84" t="s">
-        <v>132</v>
+        <v>446</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
-        <v>268</v>
+        <v>646</v>
       </c>
       <c r="AA85" t="s">
-        <v>133</v>
+        <v>654</v>
       </c>
     </row>
     <row r="86">
       <c r="H86" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="AA86" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87">
       <c r="H87" t="s">
-        <v>263</v>
+        <v>486</v>
       </c>
       <c r="AA87" t="s">
-        <v>473</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" t="s">
-        <v>505</v>
+        <v>331</v>
       </c>
       <c r="AA88" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="AA89" t="s">
-        <v>136</v>
+        <v>473</v>
       </c>
     </row>
     <row r="90">
       <c r="H90" t="s">
-        <v>275</v>
+        <v>647</v>
       </c>
       <c r="AA90" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
-        <v>259</v>
+        <v>648</v>
       </c>
       <c r="AA91" t="s">
-        <v>462</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92">
       <c r="H92" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="AA92" t="s">
-        <v>537</v>
+        <v>188</v>
       </c>
     </row>
     <row r="93">
       <c r="H93" t="s">
-        <v>292</v>
+        <v>398</v>
       </c>
       <c r="AA93" t="s">
-        <v>189</v>
+        <v>462</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="AA94" t="s">
-        <v>432</v>
+        <v>537</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="AA95" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="96">
       <c r="H96" t="s">
-        <v>327</v>
+        <v>268</v>
       </c>
       <c r="AA96" t="s">
-        <v>191</v>
+        <v>432</v>
       </c>
     </row>
     <row r="97">
       <c r="H97" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="AA97" t="s">
-        <v>523</v>
+        <v>190</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="H99" t="s">
+        <v>505</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="H100" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="H101" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="H102" t="s">
+        <v>649</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="H103" t="s">
+        <v>650</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="H104" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="H105" t="s">
+        <v>260</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="H106" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="H107" t="s">
+        <v>298</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="H108" t="s">
+        <v>282</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="H109" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="H110" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="H111" t="s">
         <v>265</v>
       </c>
-      <c r="AA98" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="AA99" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="AA100" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="AA101" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="AA102" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="AA103" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="AA104" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="AA105" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="AA106" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="AA107" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="AA108" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="AA109" t="s">
+      <c r="AA111" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="AA110" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="AA111" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>484</v>
+        <v>540</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>610</v>
+        <v>197</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>611</v>
+        <v>484</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>487</v>
+        <v>610</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>138</v>
+        <v>611</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>366</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>139</v>
+        <v>488</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>140</v>
+        <v>366</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>541</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>142</v>
+        <v>541</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>542</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>144</v>
+        <v>542</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>543</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>150</v>
+        <v>543</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>559</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>521</v>
+        <v>559</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>154</v>
+        <v>521</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>612</v>
+        <v>155</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
-        <v>544</v>
+        <v>39</v>
       </c>
     </row>
     <row r="145">
       <c r="AA145" t="s">
-        <v>157</v>
+        <v>612</v>
       </c>
     </row>
     <row r="146">
       <c r="AA146" t="s">
-        <v>158</v>
+        <v>544</v>
       </c>
     </row>
     <row r="147">
       <c r="AA147" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="148">
       <c r="AA148" t="s">
-        <v>613</v>
+        <v>158</v>
       </c>
     </row>
     <row r="149">
       <c r="AA149" t="s">
-        <v>614</v>
+        <v>159</v>
       </c>
     </row>
     <row r="150">
       <c r="AA150" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="151">
       <c r="AA151" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AA152" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="AA153" t="s">
         <v>616</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macroFlex-macro.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macroFlex-macro.xlsx
@@ -16,42 +16,45 @@
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
     <definedName name="base">'#system'!$F$2:$F$47</definedName>
-    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
+    <definedName name="csv">'#system'!$H$2:$H$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
-    <definedName name="external">'#system'!$J$2:$J$7</definedName>
-    <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$32</definedName>
-    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
-    <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
-    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
+    <definedName name="desktop">'#system'!$I$2:$I$113</definedName>
+    <definedName name="excel">'#system'!$J$2:$J$18</definedName>
+    <definedName name="external">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$L$2:$L$8</definedName>
+    <definedName name="io">'#system'!$M$2:$M$33</definedName>
+    <definedName name="jms">'#system'!$O$2:$O$4</definedName>
+    <definedName name="json">'#system'!$P$2:$P$19</definedName>
+    <definedName name="localdb">'#system'!$Q$2:$Q$13</definedName>
+    <definedName name="macro">'#system'!$R$2:$R$4</definedName>
+    <definedName name="mail">'#system'!$S$2:$S$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
-    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
-    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
-    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
-    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
-    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$34</definedName>
+    <definedName name="number">'#system'!$U$2:$U$16</definedName>
+    <definedName name="pdf">'#system'!$V$2:$V$21</definedName>
+    <definedName name="rdbms">'#system'!$W$2:$W$9</definedName>
+    <definedName name="redis">'#system'!$X$2:$X$10</definedName>
+    <definedName name="sms">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="sound">'#system'!$Z$2:$Z$5</definedName>
+    <definedName name="ssh">'#system'!$AA$2:$AA$9</definedName>
+    <definedName name="step">'#system'!$AB$2:$AB$4</definedName>
+    <definedName name="step.inTime">'#system'!$AC$2:$AC$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$38</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
-    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
-    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
-    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
-    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
+    <definedName name="tn.5250">'#system'!$AD$2:$AD$44</definedName>
+    <definedName name="web">'#system'!$AE$2:$AE$160</definedName>
+    <definedName name="webalert">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="webcookie">'#system'!$AG$2:$AG$10</definedName>
+    <definedName name="ws">'#system'!$AJ$2:$AJ$20</definedName>
+    <definedName name="ws.async">'#system'!$AK$2:$AK$8</definedName>
+    <definedName name="xml">'#system'!$AL$2:$AL$27</definedName>
+    <definedName name="webmail">'#system'!$AH$2:$AH$6</definedName>
+    <definedName name="word">'#system'!$AI$2:$AI$9</definedName>
+    <definedName name="browserstack">'#system'!$G$2:$G$7</definedName>
+    <definedName name="javaui">'#system'!$N$2:$N$16</definedName>
+    <definedName name="mobile">'#system'!$T$2:$T$51</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -71,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6134" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6913" uniqueCount="752">
   <si>
     <t>description</t>
   </si>
@@ -2069,6 +2072,264 @@
   </si>
   <si>
     <t>removeProtection(file)</t>
+  </si>
+  <si>
+    <t>browserstack</t>
+  </si>
+  <si>
+    <t>javaui</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>deleteApp(profile,appId,resultVar)</t>
+  </si>
+  <si>
+    <t>listBrowsers(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>listDevices(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>saveUploadApps(profile,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>updateSessionStatus(profile,status,reason,resultVar)</t>
+  </si>
+  <si>
+    <t>uploadApp(profile,app,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>focusFirstTableRow()</t>
+  </si>
+  <si>
+    <t>focusLastTableRow()</t>
+  </si>
+  <si>
+    <t>assertFileContent(file,match,asLines)</t>
+  </si>
+  <si>
+    <t>assertEditable(name)</t>
+  </si>
+  <si>
+    <t>assertPresence(name)</t>
+  </si>
+  <si>
+    <t>assertText(name,text)</t>
+  </si>
+  <si>
+    <t>clickMenu(menus)</t>
+  </si>
+  <si>
+    <t>startApp(profile)</t>
+  </si>
+  <si>
+    <t>startLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>startLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>stopApp(profile)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>typeText(name,text)</t>
+  </si>
+  <si>
+    <t>waitForWindowTitle(title)</t>
+  </si>
+  <si>
+    <t>sanitize(var,json)</t>
+  </si>
+  <si>
+    <t>assertAlertPresent(text)</t>
+  </si>
+  <si>
+    <t>assertAttribute(locator,attribute,text)</t>
+  </si>
+  <si>
+    <t>assertCount(locator,count)</t>
+  </si>
+  <si>
+    <t>assertElementNotVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertElementVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertLocked()</t>
+  </si>
+  <si>
+    <t>assertTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>back()</t>
+  </si>
+  <si>
+    <t>clearAlert(option)</t>
+  </si>
+  <si>
+    <t>clearNotification()</t>
+  </si>
+  <si>
+    <t>clickByDisplayText(text)</t>
+  </si>
+  <si>
+    <t>clickUntilNotFound(locator,waitMs,max)</t>
+  </si>
+  <si>
+    <t>closeApp()</t>
+  </si>
+  <si>
+    <t>copyToLocal(file,folder)</t>
+  </si>
+  <si>
+    <t>doubleClick(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>forward()</t>
+  </si>
+  <si>
+    <t>hideKeyboard()</t>
+  </si>
+  <si>
+    <t>home()</t>
+  </si>
+  <si>
+    <t>launchApp(app)</t>
+  </si>
+  <si>
+    <t>lock()</t>
+  </si>
+  <si>
+    <t>longClick(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>orientation(mode)</t>
+  </si>
+  <si>
+    <t>postScreenshot$nexial_core(target,locator)</t>
+  </si>
+  <si>
+    <t>recentApps()</t>
+  </si>
+  <si>
+    <t>saveAlertText(var)</t>
+  </si>
+  <si>
+    <t>saveAttributes(var,locator,attribute)</t>
+  </si>
+  <si>
+    <t>saveLockStatus(var)</t>
+  </si>
+  <si>
+    <t>scroll(locator,direction)</t>
+  </si>
+  <si>
+    <t>scrollUntilFound(scrollTarget,direction,searchFor,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>select(locator,item)</t>
+  </si>
+  <si>
+    <t>selectLocalFile(device,folder,filename)</t>
+  </si>
+  <si>
+    <t>sendSms(phone,message)</t>
+  </si>
+  <si>
+    <t>shake()</t>
+  </si>
+  <si>
+    <t>shutdown(profile)</t>
+  </si>
+  <si>
+    <t>slide(start,end)</t>
+  </si>
+  <si>
+    <t>type(locator,text)</t>
+  </si>
+  <si>
+    <t>unlock()</t>
+  </si>
+  <si>
+    <t>use(profile)</t>
+  </si>
+  <si>
+    <t>zoom(start1,end1,start2,end2)</t>
+  </si>
+  <si>
+    <t>compare$nexial_core(expects,actual,expectMatch,messagePrefix)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedColumns(matches,keystrokes)</t>
+  </si>
+  <si>
+    <t>waitUntilMessagePresent(message,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilProcessed(maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTextPresent(text,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTitlePresent(title,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementsEnabled(prefix)</t>
+  </si>
+  <si>
+    <t>assertElementsVisible(prefix)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsAbsent(locator,options)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsPresent(locator,options)</t>
+  </si>
+  <si>
+    <t>clickIfPresent(locator)</t>
+  </si>
+  <si>
+    <t>saveCssValue(var,locator,property)</t>
+  </si>
+  <si>
+    <t>selectDropdown(locator,optLocator,optText)</t>
+  </si>
+  <si>
+    <t>toast(message,duration,darkMode)</t>
+  </si>
+  <si>
+    <t>waitForElementTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>waitWhileElementNotPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>attachment(profile,id,attachment,saveTo)</t>
+  </si>
+  <si>
+    <t>attachments(profile,id,saveDir)</t>
+  </si>
+  <si>
+    <t>clearHeaders(headers)</t>
+  </si>
+  <si>
+    <t>graphql(url,body,var)</t>
+  </si>
+  <si>
+    <t>oauthProfile(var,profile)</t>
   </si>
 </sst>
 </file>
@@ -2076,7 +2337,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="161" x14ac:knownFonts="1">
+  <fonts count="178" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3093,8 +3354,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="219">
+  <fills count="243">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3105,6 +3473,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB4B4B4"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -4361,7 +4865,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="191">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4788,106 +5292,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="167" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="173" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="173" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="176" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="176" fontId="129" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="179" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="179" fontId="130" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="182" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="182" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="185" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="185" fontId="133" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="188" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="188" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="191" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="191" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="179" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="179" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="182" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="182" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="194" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="194" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="182" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="182" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="191" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="191" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="197" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="197" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="200" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="200" fontId="146" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="203" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="203" fontId="147" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="206" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="206" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="149" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="209" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="209" fontId="150" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="212" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="212" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="215" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="215" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="203" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="203" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="206" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="206" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="218" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="218" fontId="158" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="206" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="206" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="215" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="215" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="221" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="224" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="227" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="233" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="236" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="239" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="227" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="242" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="239" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5185,7 +5740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI153"/>
+  <dimension ref="A1:AM160"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -5214,87 +5769,99 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
+        <v>666</v>
+      </c>
+      <c r="H1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>334</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>667</v>
+      </c>
+      <c r="O1" t="s">
         <v>320</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>489</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>243</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>185</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
+        <v>668</v>
+      </c>
+      <c r="U1" t="s">
         <v>43</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>227</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>44</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>377</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>393</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>394</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>341</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>378</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>550</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
+        <v>565</v>
+      </c>
+      <c r="AE1" t="s">
         <v>45</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>46</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>47</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>629</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>630</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>48</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>395</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" t="s">
         <v>215</v>
       </c>
     </row>
@@ -5318,87 +5885,99 @@
         <v>49</v>
       </c>
       <c r="G2" t="s">
+        <v>669</v>
+      </c>
+      <c r="H2" t="s">
         <v>63</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>65</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>429</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>618</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>445</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>302</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>370</v>
+      </c>
+      <c r="O2" t="s">
         <v>367</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>399</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>490</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>457</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>623</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
+        <v>691</v>
+      </c>
+      <c r="U2" t="s">
         <v>401</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>241</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>552</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>379</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>405</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>406</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>364</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>388</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>554</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
+        <v>572</v>
+      </c>
+      <c r="AE2" t="s">
         <v>87</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AF2" t="s">
         <v>160</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AG2" t="s">
         <v>165</v>
       </c>
-      <c r="AD2" t="s">
-        <v>655</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
+        <v>747</v>
+      </c>
+      <c r="AI2" t="s">
         <v>658</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AJ2" t="s">
         <v>172</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
         <v>412</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AL2" t="s">
         <v>468</v>
       </c>
     </row>
@@ -5419,84 +5998,96 @@
         <v>436</v>
       </c>
       <c r="G3" t="s">
+        <v>670</v>
+      </c>
+      <c r="H3" t="s">
         <v>349</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>79</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>40</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>70</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>336</v>
       </c>
-      <c r="L3" t="s">
-        <v>328</v>
-      </c>
       <c r="M3" t="s">
+        <v>677</v>
+      </c>
+      <c r="N3" t="s">
+        <v>678</v>
+      </c>
+      <c r="O3" t="s">
         <v>321</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>77</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>491</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>458</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>624</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
+        <v>692</v>
+      </c>
+      <c r="U3" t="s">
         <v>402</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>228</v>
       </c>
-      <c r="T3" t="s">
+      <c r="W3" t="s">
         <v>553</v>
       </c>
-      <c r="U3" t="s">
+      <c r="X3" t="s">
         <v>380</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Z3" t="s">
         <v>407</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>365</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AB3" t="s">
         <v>389</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AC3" t="s">
         <v>555</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AD3" t="s">
+        <v>573</v>
+      </c>
+      <c r="AE3" t="s">
         <v>88</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AF3" t="s">
         <v>161</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AG3" t="s">
         <v>166</v>
       </c>
-      <c r="AD3" t="s">
-        <v>656</v>
-      </c>
-      <c r="AE3" t="s">
+      <c r="AH3" t="s">
+        <v>748</v>
+      </c>
+      <c r="AI3" t="s">
         <v>659</v>
       </c>
-      <c r="AF3" t="s">
-        <v>348</v>
-      </c>
-      <c r="AG3" t="s">
+      <c r="AJ3" t="s">
+        <v>749</v>
+      </c>
+      <c r="AK3" t="s">
         <v>173</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AL3" t="s">
         <v>216</v>
       </c>
     </row>
@@ -5514,84 +6105,96 @@
         <v>11</v>
       </c>
       <c r="G4" t="s">
+        <v>671</v>
+      </c>
+      <c r="H4" t="s">
         <v>64</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>370</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>430</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>455</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>337</v>
       </c>
-      <c r="L4" t="s">
-        <v>533</v>
-      </c>
       <c r="M4" t="s">
+        <v>328</v>
+      </c>
+      <c r="N4" t="s">
+        <v>371</v>
+      </c>
+      <c r="O4" t="s">
         <v>322</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>18</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>492</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>459</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>400</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
+        <v>693</v>
+      </c>
+      <c r="U4" t="s">
         <v>19</v>
       </c>
-      <c r="S4" t="s">
+      <c r="V4" t="s">
         <v>229</v>
       </c>
-      <c r="T4" t="s">
+      <c r="W4" t="s">
         <v>206</v>
       </c>
-      <c r="U4" t="s">
+      <c r="X4" t="s">
         <v>381</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Z4" t="s">
         <v>408</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AA4" t="s">
         <v>342</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AB4" t="s">
         <v>390</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AC4" t="s">
         <v>556</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AD4" t="s">
+        <v>574</v>
+      </c>
+      <c r="AE4" t="s">
         <v>534</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AF4" t="s">
         <v>162</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AG4" t="s">
         <v>167</v>
       </c>
-      <c r="AD4" t="s">
-        <v>657</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="AH4" t="s">
+        <v>655</v>
+      </c>
+      <c r="AI4" t="s">
         <v>660</v>
       </c>
-      <c r="AF4" t="s">
-        <v>173</v>
-      </c>
-      <c r="AG4" t="s">
+      <c r="AJ4" t="s">
+        <v>348</v>
+      </c>
+      <c r="AK4" t="s">
         <v>413</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AL4" t="s">
         <v>217</v>
       </c>
     </row>
@@ -5609,69 +6212,84 @@
         <v>437</v>
       </c>
       <c r="G5" t="s">
+        <v>672</v>
+      </c>
+      <c r="H5" t="s">
         <v>420</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>522</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>434</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>456</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>338</v>
       </c>
-      <c r="L5" t="s">
-        <v>226</v>
+      <c r="M5" t="s">
+        <v>533</v>
       </c>
       <c r="N5" t="s">
+        <v>679</v>
+      </c>
+      <c r="P5" t="s">
         <v>78</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>501</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>625</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
+        <v>557</v>
+      </c>
+      <c r="U5" t="s">
         <v>22</v>
       </c>
-      <c r="S5" t="s">
+      <c r="V5" t="s">
         <v>230</v>
       </c>
-      <c r="T5" t="s">
+      <c r="W5" t="s">
         <v>207</v>
       </c>
-      <c r="U5" t="s">
+      <c r="X5" t="s">
         <v>382</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Z5" t="s">
         <v>409</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AA5" t="s">
         <v>343</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AD5" t="s">
+        <v>575</v>
+      </c>
+      <c r="AE5" t="s">
         <v>528</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AF5" t="s">
         <v>163</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AG5" t="s">
         <v>545</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AH5" t="s">
+        <v>656</v>
+      </c>
+      <c r="AI5" t="s">
         <v>661</v>
       </c>
-      <c r="AF5" t="s">
-        <v>174</v>
-      </c>
-      <c r="AG5" t="s">
+      <c r="AJ5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK5" t="s">
         <v>414</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AL5" t="s">
         <v>218</v>
       </c>
     </row>
@@ -5689,69 +6307,84 @@
         <v>20</v>
       </c>
       <c r="G6" t="s">
+        <v>673</v>
+      </c>
+      <c r="H6" t="s">
         <v>480</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>323</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>427</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>503</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>549</v>
       </c>
-      <c r="L6" t="s">
-        <v>441</v>
+      <c r="M6" t="s">
+        <v>226</v>
       </c>
       <c r="N6" t="s">
+        <v>680</v>
+      </c>
+      <c r="P6" t="s">
         <v>21</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>496</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
+        <v>539</v>
+      </c>
+      <c r="U6" t="s">
         <v>23</v>
       </c>
-      <c r="S6" t="s">
+      <c r="V6" t="s">
         <v>231</v>
       </c>
-      <c r="T6" t="s">
+      <c r="W6" t="s">
         <v>208</v>
       </c>
-      <c r="U6" t="s">
+      <c r="X6" t="s">
         <v>383</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AA6" t="s">
         <v>345</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AD6" t="s">
+        <v>576</v>
+      </c>
+      <c r="AE6" t="s">
         <v>89</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AF6" t="s">
         <v>424</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AG6" t="s">
         <v>168</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AH6" t="s">
+        <v>657</v>
+      </c>
+      <c r="AI6" t="s">
         <v>662</v>
       </c>
-      <c r="AF6" t="s">
-        <v>175</v>
-      </c>
-      <c r="AG6" t="s">
+      <c r="AJ6" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK6" t="s">
         <v>415</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AL6" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>666</v>
       </c>
       <c r="B7" t="s">
         <v>361</v>
@@ -5759,67 +6392,79 @@
       <c r="F7" t="s">
         <v>212</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
+        <v>674</v>
+      </c>
+      <c r="I7" t="s">
         <v>371</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>426</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>532</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>335</v>
       </c>
-      <c r="L7" t="s">
-        <v>619</v>
+      <c r="M7" t="s">
+        <v>441</v>
       </c>
       <c r="N7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P7" t="s">
         <v>302</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>497</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
+        <v>94</v>
+      </c>
+      <c r="U7" t="s">
         <v>25</v>
       </c>
-      <c r="S7" t="s">
+      <c r="V7" t="s">
         <v>232</v>
       </c>
-      <c r="T7" t="s">
+      <c r="W7" t="s">
         <v>209</v>
       </c>
-      <c r="U7" t="s">
+      <c r="X7" t="s">
         <v>384</v>
       </c>
-      <c r="X7" t="s">
+      <c r="AA7" t="s">
         <v>344</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AD7" t="s">
+        <v>577</v>
+      </c>
+      <c r="AE7" t="s">
         <v>90</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AF7" t="s">
         <v>425</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AG7" t="s">
         <v>169</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AI7" t="s">
         <v>663</v>
       </c>
-      <c r="AF7" t="s">
-        <v>176</v>
-      </c>
-      <c r="AG7" t="s">
+      <c r="AJ7" t="s">
+        <v>750</v>
+      </c>
+      <c r="AK7" t="s">
         <v>416</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AL7" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
         <v>362</v>
@@ -5827,64 +6472,73 @@
       <c r="F8" t="s">
         <v>305</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>350</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>651</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>506</v>
       </c>
-      <c r="L8" t="s">
-        <v>63</v>
+      <c r="M8" t="s">
+        <v>619</v>
       </c>
       <c r="N8" t="s">
+        <v>681</v>
+      </c>
+      <c r="P8" t="s">
         <v>26</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>498</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
+        <v>694</v>
+      </c>
+      <c r="U8" t="s">
         <v>82</v>
       </c>
-      <c r="S8" t="s">
+      <c r="V8" t="s">
         <v>233</v>
       </c>
-      <c r="T8" t="s">
+      <c r="W8" t="s">
         <v>374</v>
       </c>
-      <c r="U8" t="s">
+      <c r="X8" t="s">
         <v>385</v>
       </c>
-      <c r="X8" t="s">
+      <c r="AA8" t="s">
         <v>346</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AD8" t="s">
+        <v>578</v>
+      </c>
+      <c r="AE8" t="s">
         <v>91</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AF8" t="s">
         <v>164</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AG8" t="s">
         <v>170</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AI8" t="s">
         <v>664</v>
       </c>
-      <c r="AF8" t="s">
-        <v>177</v>
-      </c>
-      <c r="AG8" t="s">
+      <c r="AJ8" t="s">
+        <v>175</v>
+      </c>
+      <c r="AK8" t="s">
         <v>417</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AL8" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>363</v>
@@ -5892,1535 +6546,1864 @@
       <c r="F9" t="s">
         <v>24</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>351</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>315</v>
       </c>
-      <c r="L9" t="s">
-        <v>12</v>
+      <c r="M9" t="s">
+        <v>63</v>
       </c>
       <c r="N9" t="s">
+        <v>682</v>
+      </c>
+      <c r="P9" t="s">
         <v>27</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>502</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
+        <v>66</v>
+      </c>
+      <c r="U9" t="s">
         <v>83</v>
       </c>
-      <c r="S9" t="s">
+      <c r="V9" t="s">
         <v>234</v>
       </c>
-      <c r="T9" t="s">
+      <c r="W9" t="s">
         <v>404</v>
       </c>
-      <c r="U9" t="s">
+      <c r="X9" t="s">
         <v>386</v>
       </c>
-      <c r="X9" t="s">
+      <c r="AA9" t="s">
         <v>347</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AD9" t="s">
+        <v>579</v>
+      </c>
+      <c r="AE9" t="s">
         <v>198</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AG9" t="s">
         <v>171</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AI9" t="s">
         <v>665</v>
       </c>
-      <c r="AF9" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH9" t="s">
+      <c r="AJ9" t="s">
+        <v>176</v>
+      </c>
+      <c r="AL9" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
         <v>302</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>293</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>316</v>
       </c>
-      <c r="L10" t="s">
-        <v>481</v>
+      <c r="M10" t="s">
+        <v>12</v>
       </c>
       <c r="N10" t="s">
+        <v>683</v>
+      </c>
+      <c r="P10" t="s">
         <v>28</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>493</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
+        <v>695</v>
+      </c>
+      <c r="U10" t="s">
         <v>403</v>
       </c>
-      <c r="S10" t="s">
+      <c r="V10" t="s">
         <v>235</v>
       </c>
-      <c r="U10" t="s">
+      <c r="X10" t="s">
         <v>387</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AD10" t="s">
+        <v>580</v>
+      </c>
+      <c r="AE10" t="s">
         <v>244</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AG10" t="s">
         <v>546</v>
       </c>
-      <c r="AF10" t="s">
-        <v>179</v>
-      </c>
-      <c r="AH10" t="s">
+      <c r="AJ10" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL10" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>334</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
         <v>617</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>339</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>547</v>
       </c>
-      <c r="L11" t="s">
-        <v>71</v>
+      <c r="M11" t="s">
+        <v>481</v>
       </c>
       <c r="N11" t="s">
+        <v>684</v>
+      </c>
+      <c r="P11" t="s">
         <v>450</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>494</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
+        <v>479</v>
+      </c>
+      <c r="U11" t="s">
         <v>84</v>
       </c>
-      <c r="S11" t="s">
+      <c r="V11" t="s">
         <v>571</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AD11" t="s">
+        <v>581</v>
+      </c>
+      <c r="AE11" t="s">
         <v>245</v>
       </c>
-      <c r="AF11" t="s">
-        <v>246</v>
-      </c>
-      <c r="AH11" t="s">
+      <c r="AJ11" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL11" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>334</v>
       </c>
       <c r="F12" t="s">
         <v>527</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>261</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>548</v>
       </c>
-      <c r="L12" t="s">
-        <v>30</v>
+      <c r="M12" t="s">
+        <v>71</v>
       </c>
       <c r="N12" t="s">
+        <v>685</v>
+      </c>
+      <c r="P12" t="s">
         <v>507</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>551</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" t="s">
+        <v>696</v>
+      </c>
+      <c r="U12" t="s">
         <v>33</v>
       </c>
-      <c r="S12" t="s">
+      <c r="V12" t="s">
         <v>236</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AD12" t="s">
+        <v>582</v>
+      </c>
+      <c r="AE12" t="s">
         <v>92</v>
       </c>
-      <c r="AF12" t="s">
-        <v>180</v>
-      </c>
-      <c r="AH12" t="s">
+      <c r="AJ12" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL12" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>320</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
         <v>306</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>250</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>431</v>
       </c>
-      <c r="L13" t="s">
-        <v>482</v>
+      <c r="M13" t="s">
+        <v>30</v>
       </c>
       <c r="N13" t="s">
+        <v>686</v>
+      </c>
+      <c r="P13" t="s">
         <v>422</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>495</v>
       </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
+        <v>697</v>
+      </c>
+      <c r="U13" t="s">
         <v>85</v>
       </c>
-      <c r="S13" t="s">
+      <c r="V13" t="s">
         <v>626</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AD13" t="s">
+        <v>583</v>
+      </c>
+      <c r="AE13" t="s">
         <v>313</v>
       </c>
-      <c r="AF13" t="s">
-        <v>181</v>
-      </c>
-      <c r="AH13" t="s">
+      <c r="AJ13" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL13" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>667</v>
       </c>
       <c r="F14" t="s">
         <v>328</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>303</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>309</v>
       </c>
-      <c r="L14" t="s">
-        <v>373</v>
+      <c r="M14" t="s">
+        <v>482</v>
       </c>
       <c r="N14" t="s">
+        <v>687</v>
+      </c>
+      <c r="P14" t="s">
         <v>451</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
+        <v>698</v>
+      </c>
+      <c r="U14" t="s">
         <v>86</v>
       </c>
-      <c r="S14" t="s">
+      <c r="V14" t="s">
         <v>237</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AD14" t="s">
+        <v>584</v>
+      </c>
+      <c r="AE14" t="s">
         <v>93</v>
       </c>
-      <c r="AF14" t="s">
-        <v>182</v>
-      </c>
-      <c r="AH14" t="s">
+      <c r="AJ14" t="s">
+        <v>751</v>
+      </c>
+      <c r="AL14" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>489</v>
+        <v>320</v>
       </c>
       <c r="F15" t="s">
         <v>29</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>251</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>310</v>
       </c>
-      <c r="L15" t="s">
-        <v>13</v>
+      <c r="M15" t="s">
+        <v>373</v>
       </c>
       <c r="N15" t="s">
-        <v>31</v>
-      </c>
-      <c r="R15" t="s">
+        <v>688</v>
+      </c>
+      <c r="P15" t="s">
+        <v>690</v>
+      </c>
+      <c r="T15" t="s">
+        <v>699</v>
+      </c>
+      <c r="U15" t="s">
         <v>477</v>
       </c>
-      <c r="S15" t="s">
+      <c r="V15" t="s">
         <v>538</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AD15" t="s">
+        <v>585</v>
+      </c>
+      <c r="AE15" t="s">
         <v>557</v>
       </c>
-      <c r="AF15" t="s">
-        <v>183</v>
-      </c>
-      <c r="AH15" t="s">
+      <c r="AJ15" t="s">
+        <v>180</v>
+      </c>
+      <c r="AL15" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>243</v>
+        <v>17</v>
       </c>
       <c r="F16" t="s">
         <v>50</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>252</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>311</v>
       </c>
-      <c r="L16" t="s">
-        <v>34</v>
+      <c r="M16" t="s">
+        <v>13</v>
       </c>
       <c r="N16" t="s">
-        <v>518</v>
-      </c>
-      <c r="R16" t="s">
+        <v>689</v>
+      </c>
+      <c r="P16" t="s">
+        <v>31</v>
+      </c>
+      <c r="T16" t="s">
+        <v>700</v>
+      </c>
+      <c r="U16" t="s">
         <v>478</v>
       </c>
-      <c r="S16" t="s">
+      <c r="V16" t="s">
         <v>242</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AD16" t="s">
+        <v>586</v>
+      </c>
+      <c r="AE16" t="s">
         <v>539</v>
       </c>
-      <c r="AF16" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH16" t="s">
+      <c r="AJ16" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL16" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>185</v>
+        <v>489</v>
       </c>
       <c r="F17" t="s">
         <v>368</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>304</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>312</v>
       </c>
-      <c r="L17" t="s">
-        <v>483</v>
-      </c>
-      <c r="N17" t="s">
-        <v>32</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="M17" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" t="s">
+        <v>518</v>
+      </c>
+      <c r="T17" t="s">
+        <v>68</v>
+      </c>
+      <c r="V17" t="s">
         <v>238</v>
       </c>
-      <c r="AA17" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>442</v>
-      </c>
-      <c r="AH17" t="s">
+      <c r="AD17" t="s">
+        <v>587</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>736</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL17" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>243</v>
       </c>
       <c r="F18" t="s">
         <v>369</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>80</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>652</v>
       </c>
-      <c r="L18" t="s">
-        <v>72</v>
-      </c>
-      <c r="N18" t="s">
-        <v>35</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="M18" t="s">
+        <v>483</v>
+      </c>
+      <c r="P18" t="s">
+        <v>32</v>
+      </c>
+      <c r="T18" t="s">
+        <v>701</v>
+      </c>
+      <c r="V18" t="s">
         <v>239</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AD18" t="s">
+        <v>588</v>
+      </c>
+      <c r="AE18" t="s">
         <v>66</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AJ18" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL18" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="F19" t="s">
         <v>631</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>81</v>
       </c>
-      <c r="L19" t="s">
-        <v>73</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="M19" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" t="s">
+        <v>35</v>
+      </c>
+      <c r="T19" t="s">
+        <v>702</v>
+      </c>
+      <c r="V19" t="s">
         <v>627</v>
       </c>
-      <c r="AA19" t="s">
-        <v>479</v>
-      </c>
-      <c r="AH19" t="s">
+      <c r="AD19" t="s">
+        <v>589</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>737</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL19" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>668</v>
       </c>
       <c r="F20" t="s">
         <v>632</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>283</v>
       </c>
-      <c r="L20" t="s">
-        <v>435</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="M20" t="s">
+        <v>73</v>
+      </c>
+      <c r="T20" t="s">
+        <v>703</v>
+      </c>
+      <c r="V20" t="s">
         <v>240</v>
       </c>
-      <c r="AA20" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH20" t="s">
+      <c r="AD20" t="s">
+        <v>590</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>479</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>442</v>
+      </c>
+      <c r="AL20" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>377</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
         <v>396</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>284</v>
       </c>
-      <c r="L21" t="s">
-        <v>74</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="M21" t="s">
+        <v>435</v>
+      </c>
+      <c r="T21" t="s">
+        <v>704</v>
+      </c>
+      <c r="V21" t="s">
         <v>628</v>
       </c>
-      <c r="AA21" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH21" t="s">
+      <c r="AD21" t="s">
+        <v>591</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>738</v>
+      </c>
+      <c r="AL21" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>393</v>
+        <v>227</v>
       </c>
       <c r="F22" t="s">
         <v>566</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>285</v>
       </c>
-      <c r="L22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH22" t="s">
+      <c r="M22" t="s">
+        <v>74</v>
+      </c>
+      <c r="T22" t="s">
+        <v>705</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>592</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL22" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>394</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
         <v>567</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>286</v>
       </c>
-      <c r="L23" t="s">
-        <v>531</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH23" t="s">
+      <c r="M23" t="s">
+        <v>75</v>
+      </c>
+      <c r="T23" t="s">
+        <v>706</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>730</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL23" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="F24" t="s">
         <v>568</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>277</v>
       </c>
-      <c r="L24" t="s">
-        <v>449</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>460</v>
-      </c>
-      <c r="AH24" t="s">
+      <c r="M24" t="s">
+        <v>531</v>
+      </c>
+      <c r="T24" t="s">
+        <v>707</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>593</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL24" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="F25" t="s">
         <v>51</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>266</v>
       </c>
-      <c r="L25" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH25" t="s">
+      <c r="M25" t="s">
+        <v>449</v>
+      </c>
+      <c r="T25" t="s">
+        <v>708</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>594</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL25" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>550</v>
+        <v>394</v>
       </c>
       <c r="F26" t="s">
         <v>52</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>633</v>
       </c>
-      <c r="L26" t="s">
-        <v>375</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>653</v>
-      </c>
-      <c r="AH26" t="s">
+      <c r="M26" t="s">
+        <v>36</v>
+      </c>
+      <c r="T26" t="s">
+        <v>709</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>460</v>
+      </c>
+      <c r="AL26" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>341</v>
       </c>
       <c r="F27" t="s">
         <v>515</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>634</v>
       </c>
-      <c r="L27" t="s">
-        <v>570</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>519</v>
-      </c>
-      <c r="AH27" t="s">
+      <c r="M27" t="s">
+        <v>375</v>
+      </c>
+      <c r="T27" t="s">
+        <v>710</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>596</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL27" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>378</v>
       </c>
       <c r="F28" t="s">
         <v>53</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>67</v>
       </c>
-      <c r="L28" t="s">
-        <v>500</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>100</v>
+      <c r="M28" t="s">
+        <v>570</v>
+      </c>
+      <c r="T28" t="s">
+        <v>711</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>597</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>550</v>
       </c>
       <c r="F29" t="s">
         <v>308</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>269</v>
       </c>
-      <c r="L29" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>101</v>
+      <c r="M29" t="s">
+        <v>500</v>
+      </c>
+      <c r="T29" t="s">
+        <v>712</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>598</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>629</v>
+        <v>565</v>
       </c>
       <c r="F30" t="s">
         <v>54</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>253</v>
       </c>
-      <c r="L30" t="s">
-        <v>421</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>102</v>
+      <c r="M30" t="s">
+        <v>76</v>
+      </c>
+      <c r="T30" t="s">
+        <v>713</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>599</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>630</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
         <v>428</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>270</v>
       </c>
-      <c r="L31" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>103</v>
+      <c r="M31" t="s">
+        <v>421</v>
+      </c>
+      <c r="T31" t="s">
+        <v>714</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>600</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s">
         <v>213</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>271</v>
       </c>
-      <c r="L32" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>314</v>
+      <c r="M32" t="s">
+        <v>37</v>
+      </c>
+      <c r="T32" t="s">
+        <v>715</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>601</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>395</v>
+        <v>47</v>
       </c>
       <c r="F33" t="s">
         <v>214</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>205</v>
       </c>
-      <c r="AA33" t="s">
-        <v>104</v>
+      <c r="M33" t="s">
+        <v>38</v>
+      </c>
+      <c r="T33" t="s">
+        <v>716</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>602</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>215</v>
+        <v>629</v>
       </c>
       <c r="F34" t="s">
         <v>447</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>262</v>
       </c>
-      <c r="AA34" t="s">
-        <v>105</v>
+      <c r="T34" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>603</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="s">
+        <v>630</v>
+      </c>
       <c r="F35" t="s">
         <v>448</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>272</v>
       </c>
-      <c r="AA35" t="s">
-        <v>106</v>
+      <c r="T35" t="s">
+        <v>717</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>604</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
       <c r="F36" t="s">
         <v>397</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>485</v>
       </c>
-      <c r="AA36" t="s">
-        <v>107</v>
+      <c r="T36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>605</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="s">
+        <v>395</v>
+      </c>
       <c r="F37" t="s">
         <v>55</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>247</v>
       </c>
-      <c r="AA37" t="s">
-        <v>520</v>
+      <c r="T37" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>606</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="s">
+        <v>215</v>
+      </c>
       <c r="F38" t="s">
         <v>56</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>317</v>
       </c>
-      <c r="AA38" t="s">
-        <v>108</v>
+      <c r="T38" t="s">
+        <v>530</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>731</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
         <v>57</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>294</v>
       </c>
-      <c r="AA39" t="s">
-        <v>109</v>
+      <c r="T39" t="s">
+        <v>718</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>607</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
         <v>58</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>248</v>
       </c>
-      <c r="AA40" t="s">
-        <v>199</v>
+      <c r="T40" t="s">
+        <v>719</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>608</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
         <v>59</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>295</v>
       </c>
-      <c r="AA41" t="s">
-        <v>110</v>
+      <c r="T41" t="s">
+        <v>720</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>732</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
         <v>60</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>254</v>
       </c>
-      <c r="AA42" t="s">
-        <v>325</v>
+      <c r="T42" t="s">
+        <v>721</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>733</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
         <v>61</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>635</v>
       </c>
-      <c r="AA43" t="s">
-        <v>410</v>
+      <c r="T43" t="s">
+        <v>722</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>734</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
         <v>62</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>69</v>
       </c>
-      <c r="AA44" t="s">
-        <v>529</v>
+      <c r="T44" t="s">
+        <v>723</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>735</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="s">
         <v>569</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>201</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="T45" t="s">
+        <v>724</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="I46" t="s">
+        <v>516</v>
+      </c>
+      <c r="T46" t="s">
+        <v>725</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="I47" t="s">
+        <v>276</v>
+      </c>
+      <c r="T47" t="s">
+        <v>726</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="I48" t="s">
+        <v>287</v>
+      </c>
+      <c r="T48" t="s">
+        <v>727</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="I49" t="s">
+        <v>288</v>
+      </c>
+      <c r="T49" t="s">
+        <v>728</v>
+      </c>
+      <c r="AE49" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="46">
-      <c r="H46" t="s">
-        <v>516</v>
-      </c>
-      <c r="AA46" t="s">
+    <row r="50">
+      <c r="I50" t="s">
+        <v>330</v>
+      </c>
+      <c r="T50" t="s">
+        <v>612</v>
+      </c>
+      <c r="AE50" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="47">
-      <c r="H47" t="s">
-        <v>276</v>
-      </c>
-      <c r="AA47" t="s">
+    <row r="51">
+      <c r="I51" t="s">
+        <v>329</v>
+      </c>
+      <c r="T51" t="s">
+        <v>729</v>
+      </c>
+      <c r="AE51" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="48">
-      <c r="H48" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA48" t="s">
+    <row r="52">
+      <c r="I52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE52" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="49">
-      <c r="H49" t="s">
-        <v>288</v>
-      </c>
-      <c r="AA49" t="s">
+    <row r="53">
+      <c r="I53" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE53" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="50">
-      <c r="H50" t="s">
-        <v>330</v>
-      </c>
-      <c r="AA50" t="s">
+    <row r="54">
+      <c r="I54" t="s">
+        <v>636</v>
+      </c>
+      <c r="AE54" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="51">
-      <c r="H51" t="s">
-        <v>329</v>
-      </c>
-      <c r="AA51" t="s">
+    <row r="55">
+      <c r="I55" t="s">
+        <v>637</v>
+      </c>
+      <c r="AE55" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="52">
-      <c r="H52" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA52" t="s">
+    <row r="56">
+      <c r="I56" t="s">
+        <v>638</v>
+      </c>
+      <c r="AE56" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="53">
-      <c r="H53" t="s">
-        <v>307</v>
-      </c>
-      <c r="AA53" t="s">
+    <row r="57">
+      <c r="I57" t="s">
+        <v>639</v>
+      </c>
+      <c r="AE57" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="54">
-      <c r="H54" t="s">
-        <v>636</v>
-      </c>
-      <c r="AA54" t="s">
+    <row r="58">
+      <c r="I58" t="s">
+        <v>326</v>
+      </c>
+      <c r="AE58" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="55">
-      <c r="H55" t="s">
-        <v>637</v>
-      </c>
-      <c r="AA55" t="s">
+    <row r="59">
+      <c r="I59" t="s">
+        <v>352</v>
+      </c>
+      <c r="AE59" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="56">
-      <c r="H56" t="s">
-        <v>638</v>
-      </c>
-      <c r="AA56" t="s">
+    <row r="60">
+      <c r="I60" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE60" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="57">
-      <c r="H57" t="s">
-        <v>639</v>
-      </c>
-      <c r="AA57" t="s">
+    <row r="61">
+      <c r="I61" t="s">
+        <v>675</v>
+      </c>
+      <c r="AE61" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="58">
-      <c r="H58" t="s">
-        <v>326</v>
-      </c>
-      <c r="AA58" t="s">
+    <row r="62">
+      <c r="I62" t="s">
+        <v>676</v>
+      </c>
+      <c r="AE62" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="59">
-      <c r="H59" t="s">
-        <v>352</v>
-      </c>
-      <c r="AA59" t="s">
+    <row r="63">
+      <c r="I63" t="s">
+        <v>318</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="I64" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE64" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="60">
-      <c r="H60" t="s">
-        <v>289</v>
-      </c>
-      <c r="AA60" t="s">
+    <row r="65">
+      <c r="I65" t="s">
+        <v>279</v>
+      </c>
+      <c r="AE65" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="61">
-      <c r="H61" t="s">
-        <v>318</v>
-      </c>
-      <c r="AA61" t="s">
+    <row r="66">
+      <c r="I66" t="s">
+        <v>280</v>
+      </c>
+      <c r="AE66" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="62">
-      <c r="H62" t="s">
-        <v>255</v>
-      </c>
-      <c r="AA62" t="s">
+    <row r="67">
+      <c r="I67" t="s">
+        <v>517</v>
+      </c>
+      <c r="AE67" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="63">
-      <c r="H63" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA63" t="s">
+    <row r="68">
+      <c r="I68" t="s">
+        <v>281</v>
+      </c>
+      <c r="AE68" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="64">
-      <c r="H64" t="s">
-        <v>280</v>
-      </c>
-      <c r="AA64" t="s">
+    <row r="69">
+      <c r="I69" t="s">
+        <v>640</v>
+      </c>
+      <c r="AE69" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="65">
-      <c r="H65" t="s">
-        <v>517</v>
-      </c>
-      <c r="AA65" t="s">
+    <row r="70">
+      <c r="I70" t="s">
+        <v>641</v>
+      </c>
+      <c r="AE70" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="66">
-      <c r="H66" t="s">
-        <v>281</v>
-      </c>
-      <c r="AA66" t="s">
+    <row r="71">
+      <c r="I71" t="s">
+        <v>642</v>
+      </c>
+      <c r="AE71" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="67">
-      <c r="H67" t="s">
-        <v>640</v>
-      </c>
-      <c r="AA67" t="s">
+    <row r="72">
+      <c r="I72" t="s">
+        <v>299</v>
+      </c>
+      <c r="AE72" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="68">
-      <c r="H68" t="s">
-        <v>641</v>
-      </c>
-      <c r="AA68" t="s">
+    <row r="73">
+      <c r="I73" t="s">
+        <v>643</v>
+      </c>
+      <c r="AE73" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="69">
-      <c r="H69" t="s">
-        <v>642</v>
-      </c>
-      <c r="AA69" t="s">
+    <row r="74">
+      <c r="I74" t="s">
+        <v>644</v>
+      </c>
+      <c r="AE74" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="70">
-      <c r="H70" t="s">
-        <v>299</v>
-      </c>
-      <c r="AA70" t="s">
+    <row r="75">
+      <c r="I75" t="s">
+        <v>324</v>
+      </c>
+      <c r="AE75" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="71">
-      <c r="H71" t="s">
-        <v>643</v>
-      </c>
-      <c r="AA71" t="s">
+    <row r="76">
+      <c r="I76" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE76" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="72">
-      <c r="H72" t="s">
-        <v>644</v>
-      </c>
-      <c r="AA72" t="s">
+    <row r="77">
+      <c r="I77" t="s">
+        <v>297</v>
+      </c>
+      <c r="AE77" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="73">
-      <c r="H73" t="s">
-        <v>324</v>
-      </c>
-      <c r="AA73" t="s">
+    <row r="78">
+      <c r="I78" t="s">
+        <v>353</v>
+      </c>
+      <c r="AE78" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="74">
-      <c r="H74" t="s">
-        <v>296</v>
-      </c>
-      <c r="AA74" t="s">
+    <row r="79">
+      <c r="I79" t="s">
+        <v>354</v>
+      </c>
+      <c r="AE79" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="75">
-      <c r="H75" t="s">
-        <v>297</v>
-      </c>
-      <c r="AA75" t="s">
+    <row r="80">
+      <c r="I80" t="s">
+        <v>332</v>
+      </c>
+      <c r="AE80" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="76">
-      <c r="H76" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA76" t="s">
+    <row r="81">
+      <c r="I81" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE81" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="77">
-      <c r="H77" t="s">
-        <v>354</v>
-      </c>
-      <c r="AA77" t="s">
+    <row r="82">
+      <c r="I82" t="s">
+        <v>256</v>
+      </c>
+      <c r="AE82" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="78">
-      <c r="H78" t="s">
-        <v>332</v>
-      </c>
-      <c r="AA78" t="s">
+    <row r="83">
+      <c r="I83" t="s">
+        <v>504</v>
+      </c>
+      <c r="AE83" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="79">
-      <c r="H79" t="s">
-        <v>300</v>
-      </c>
-      <c r="AA79" t="s">
+    <row r="84">
+      <c r="I84" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE84" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="80">
-      <c r="H80" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA80" t="s">
+    <row r="85">
+      <c r="I85" t="s">
+        <v>391</v>
+      </c>
+      <c r="AE85" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="81">
-      <c r="H81" t="s">
-        <v>504</v>
-      </c>
-      <c r="AA81" t="s">
+    <row r="86">
+      <c r="I86" t="s">
+        <v>645</v>
+      </c>
+      <c r="AE86" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="82">
-      <c r="H82" t="s">
-        <v>301</v>
-      </c>
-      <c r="AA82" t="s">
+    <row r="87">
+      <c r="I87" t="s">
+        <v>646</v>
+      </c>
+      <c r="AE87" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="83">
-      <c r="H83" t="s">
-        <v>391</v>
-      </c>
-      <c r="AA83" t="s">
+    <row r="88">
+      <c r="I88" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE88" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="84">
-      <c r="H84" t="s">
-        <v>645</v>
-      </c>
-      <c r="AA84" t="s">
+    <row r="89">
+      <c r="I89" t="s">
+        <v>486</v>
+      </c>
+      <c r="AE89" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="85">
-      <c r="H85" t="s">
-        <v>646</v>
-      </c>
-      <c r="AA85" t="s">
+    <row r="90">
+      <c r="I90" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE90" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="86">
-      <c r="H86" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA86" t="s">
+    <row r="91">
+      <c r="I91" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE91" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="87">
-      <c r="H87" t="s">
-        <v>486</v>
-      </c>
-      <c r="AA87" t="s">
+    <row r="92">
+      <c r="I92" t="s">
+        <v>647</v>
+      </c>
+      <c r="AE92" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="88">
-      <c r="H88" t="s">
-        <v>331</v>
-      </c>
-      <c r="AA88" t="s">
+    <row r="93">
+      <c r="I93" t="s">
+        <v>648</v>
+      </c>
+      <c r="AE93" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="89">
-      <c r="H89" t="s">
-        <v>267</v>
-      </c>
-      <c r="AA89" t="s">
+    <row r="94">
+      <c r="I94" t="s">
+        <v>278</v>
+      </c>
+      <c r="AE94" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="90">
-      <c r="H90" t="s">
-        <v>647</v>
-      </c>
-      <c r="AA90" t="s">
+    <row r="95">
+      <c r="I95" t="s">
+        <v>398</v>
+      </c>
+      <c r="AE95" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="91">
-      <c r="H91" t="s">
-        <v>648</v>
-      </c>
-      <c r="AA91" t="s">
+    <row r="96">
+      <c r="I96" t="s">
+        <v>319</v>
+      </c>
+      <c r="AE96" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="92">
-      <c r="H92" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA92" t="s">
+    <row r="97">
+      <c r="I97" t="s">
+        <v>257</v>
+      </c>
+      <c r="AE97" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="93">
-      <c r="H93" t="s">
-        <v>398</v>
-      </c>
-      <c r="AA93" t="s">
+    <row r="98">
+      <c r="I98" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE98" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="94">
-      <c r="H94" t="s">
-        <v>319</v>
-      </c>
-      <c r="AA94" t="s">
+    <row r="99">
+      <c r="I99" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE99" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="95">
-      <c r="H95" t="s">
-        <v>257</v>
-      </c>
-      <c r="AA95" t="s">
+    <row r="100">
+      <c r="I100" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE100" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="96">
-      <c r="H96" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA96" t="s">
+    <row r="101">
+      <c r="I101" t="s">
+        <v>505</v>
+      </c>
+      <c r="AE101" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="I102" t="s">
+        <v>258</v>
+      </c>
+      <c r="AE102" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="97">
-      <c r="H97" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA97" t="s">
+    <row r="103">
+      <c r="I103" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE103" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="98">
-      <c r="H98" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA98" t="s">
+    <row r="104">
+      <c r="I104" t="s">
+        <v>649</v>
+      </c>
+      <c r="AE104" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="99">
-      <c r="H99" t="s">
-        <v>505</v>
-      </c>
-      <c r="AA99" t="s">
+    <row r="105">
+      <c r="I105" t="s">
+        <v>650</v>
+      </c>
+      <c r="AE105" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="100">
-      <c r="H100" t="s">
-        <v>258</v>
-      </c>
-      <c r="AA100" t="s">
+    <row r="106">
+      <c r="I106" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE106" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="101">
-      <c r="H101" t="s">
-        <v>275</v>
-      </c>
-      <c r="AA101" t="s">
+    <row r="107">
+      <c r="I107" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE107" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="102">
-      <c r="H102" t="s">
-        <v>649</v>
-      </c>
-      <c r="AA102" t="s">
+    <row r="108">
+      <c r="I108" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE108" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="103">
-      <c r="H103" t="s">
-        <v>650</v>
-      </c>
-      <c r="AA103" t="s">
+    <row r="109">
+      <c r="I109" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE109" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="104">
-      <c r="H104" t="s">
-        <v>259</v>
-      </c>
-      <c r="AA104" t="s">
+    <row r="110">
+      <c r="I110" t="s">
+        <v>282</v>
+      </c>
+      <c r="AE110" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="105">
-      <c r="H105" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA105" t="s">
+    <row r="111">
+      <c r="I111" t="s">
+        <v>327</v>
+      </c>
+      <c r="AE111" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="106">
-      <c r="H106" t="s">
-        <v>292</v>
-      </c>
-      <c r="AA106" t="s">
+    <row r="112">
+      <c r="I112" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE112" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="107">
-      <c r="H107" t="s">
-        <v>298</v>
-      </c>
-      <c r="AA107" t="s">
+    <row r="113">
+      <c r="I113" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE113" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="108">
-      <c r="H108" t="s">
-        <v>282</v>
-      </c>
-      <c r="AA108" t="s">
+    <row r="114">
+      <c r="AE114" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="109">
-      <c r="H109" t="s">
-        <v>327</v>
-      </c>
-      <c r="AA109" t="s">
+    <row r="115">
+      <c r="AE115" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="110">
-      <c r="H110" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA110" t="s">
+    <row r="116">
+      <c r="AE116" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="111">
-      <c r="H111" t="s">
-        <v>265</v>
-      </c>
-      <c r="AA111" t="s">
+    <row r="117">
+      <c r="AE117" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="112">
-      <c r="AA112" t="s">
+    <row r="118">
+      <c r="AE118" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="113">
-      <c r="AA113" t="s">
+    <row r="119">
+      <c r="AE119" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="114">
-      <c r="AA114" t="s">
+    <row r="120">
+      <c r="AE120" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="115">
-      <c r="AA115" t="s">
+    <row r="121">
+      <c r="AE121" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="116">
-      <c r="AA116" t="s">
+    <row r="122">
+      <c r="AE122" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="117">
-      <c r="AA117" t="s">
+    <row r="123">
+      <c r="AE123" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="118">
-      <c r="AA118" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="AA119" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="AA120" t="s">
+    <row r="124">
+      <c r="AE124" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="121">
-      <c r="AA121" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="AA122" t="s">
+    <row r="125">
+      <c r="AE125" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="123">
-      <c r="AA123" t="s">
+    <row r="126">
+      <c r="AE126" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="124">
-      <c r="AA124" t="s">
+    <row r="127">
+      <c r="AE127" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="125">
-      <c r="AA125" t="s">
+    <row r="128">
+      <c r="AE128" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="AE129" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="126">
-      <c r="AA126" t="s">
+    <row r="130">
+      <c r="AE130" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="127">
-      <c r="AA127" t="s">
+    <row r="131">
+      <c r="AE131" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="128">
-      <c r="AA128" t="s">
+    <row r="132">
+      <c r="AE132" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="129">
-      <c r="AA129" t="s">
+    <row r="133">
+      <c r="AE133" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="130">
-      <c r="AA130" t="s">
+    <row r="134">
+      <c r="AE134" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="131">
-      <c r="AA131" t="s">
+    <row r="135">
+      <c r="AE135" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="132">
-      <c r="AA132" t="s">
+    <row r="136">
+      <c r="AE136" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="133">
-      <c r="AA133" t="s">
+    <row r="137">
+      <c r="AE137" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="134">
-      <c r="AA134" t="s">
+    <row r="138">
+      <c r="AE138" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="135">
-      <c r="AA135" t="s">
+    <row r="139">
+      <c r="AE139" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="AE140" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="136">
-      <c r="AA136" t="s">
+    <row r="141">
+      <c r="AE141" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="137">
-      <c r="AA137" t="s">
+    <row r="142">
+      <c r="AE142" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="138">
-      <c r="AA138" t="s">
+    <row r="143">
+      <c r="AE143" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="139">
-      <c r="AA139" t="s">
+    <row r="144">
+      <c r="AE144" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="140">
-      <c r="AA140" t="s">
+    <row r="145">
+      <c r="AE145" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="141">
-      <c r="AA141" t="s">
+    <row r="146">
+      <c r="AE146" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="142">
-      <c r="AA142" t="s">
+    <row r="147">
+      <c r="AE147" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="143">
-      <c r="AA143" t="s">
+    <row r="148">
+      <c r="AE148" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="144">
-      <c r="AA144" t="s">
+    <row r="149">
+      <c r="AE149" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="145">
-      <c r="AA145" t="s">
+    <row r="150">
+      <c r="AE150" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="146">
-      <c r="AA146" t="s">
+    <row r="151">
+      <c r="AE151" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AE152" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="147">
-      <c r="AA147" t="s">
+    <row r="153">
+      <c r="AE153" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="148">
-      <c r="AA148" t="s">
+    <row r="154">
+      <c r="AE154" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="149">
-      <c r="AA149" t="s">
+    <row r="155">
+      <c r="AE155" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="150">
-      <c r="AA150" t="s">
+    <row r="156">
+      <c r="AE156" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="151">
-      <c r="AA151" t="s">
+    <row r="157">
+      <c r="AE157" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="152">
-      <c r="AA152" t="s">
+    <row r="158">
+      <c r="AE158" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="153">
-      <c r="AA153" t="s">
+    <row r="159">
+      <c r="AE159" t="s">
         <v>616</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="AE160" t="s">
+        <v>746</v>
       </c>
     </row>
   </sheetData>
